--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -771,7 +771,7 @@
         <v>13.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P2" t="n">
         <v>4.4</v>
@@ -935,7 +935,7 @@
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -980,13 +980,13 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -998,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1007,10 +1007,10 @@
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -1028,7 +1028,7 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
         <v>12</v>
@@ -1055,13 +1055,13 @@
         <v>5.5</v>
       </c>
       <c r="AW3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AZ3" t="n">
         <v>151</v>
@@ -1293,34 +1293,34 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
@@ -1329,10 +1329,10 @@
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1347,10 +1347,10 @@
         <v>9</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
@@ -1377,7 +1377,7 @@
         <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
@@ -1407,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AT5" t="n">
         <v>9</v>
@@ -1419,7 +1419,7 @@
         <v>5.5</v>
       </c>
       <c r="AW5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX5" t="n">
         <v>34</v>
@@ -1481,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
@@ -1562,7 +1562,7 @@
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1574,10 +1574,10 @@
         <v>1250</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>29</v>
@@ -1586,7 +1586,7 @@
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
         <v>2.25</v>
@@ -1601,13 +1601,13 @@
         <v>4.75</v>
       </c>
       <c r="AW6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX6" t="n">
         <v>34</v>
       </c>
       <c r="AY6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ6" t="n">
         <v>101</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
@@ -1675,16 +1675,16 @@
         <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
         <v>2.2</v>
@@ -1693,22 +1693,22 @@
         <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
@@ -1726,16 +1726,16 @@
         <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
@@ -1747,13 +1747,13 @@
         <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AN7" t="n">
         <v>4</v>
@@ -1771,7 +1771,7 @@
         <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AT7" t="n">
         <v>8.5</v>
@@ -1786,7 +1786,7 @@
         <v>21</v>
       </c>
       <c r="AX7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
         <v>67</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
@@ -1887,7 +1887,7 @@
         <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1896,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
         <v>23</v>
@@ -1926,16 +1926,16 @@
         <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN8" t="n">
         <v>4.75</v>
@@ -1968,7 +1968,7 @@
         <v>15</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
         <v>51</v>
@@ -1977,13 +1977,13 @@
         <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB8" t="n">
         <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
@@ -2039,22 +2039,22 @@
         <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2075,7 +2075,7 @@
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>29</v>
@@ -2093,7 +2093,7 @@
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2102,7 +2102,7 @@
         <v>7.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
         <v>10</v>
@@ -2117,13 +2117,13 @@
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN9" t="n">
         <v>4.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
         <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
         <v>2.2</v>
@@ -2403,22 +2403,22 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R11" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2433,7 +2433,7 @@
         <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
         <v>7.5</v>
@@ -2493,7 +2493,7 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
@@ -2502,7 +2502,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AU11" t="n">
         <v>51</v>
@@ -2520,10 +2520,10 @@
         <v>101</v>
       </c>
       <c r="AZ11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB11" t="n">
         <v>126</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
         <v>2.63</v>
@@ -2597,10 +2597,10 @@
         <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2615,19 +2615,19 @@
         <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA12" t="n">
         <v>17</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>15</v>
       </c>
       <c r="AB12" t="n">
         <v>26</v>
@@ -2636,7 +2636,7 @@
         <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2651,7 +2651,7 @@
         <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
@@ -2663,7 +2663,7 @@
         <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN12" t="n">
         <v>4</v>
@@ -2675,7 +2675,7 @@
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2693,10 +2693,10 @@
         <v>5.5</v>
       </c>
       <c r="AW12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY12" t="n">
         <v>67</v>
@@ -2705,13 +2705,13 @@
         <v>81</v>
       </c>
       <c r="BA12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB12" t="n">
         <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2749,34 +2749,34 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>4.85</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="J13" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P13" t="n">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="Q13" t="n">
         <v>1.52</v>
@@ -2785,112 +2785,112 @@
         <v>2.22</v>
       </c>
       <c r="S13" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="T13" t="n">
-        <v>3.7</v>
+        <v>3.54</v>
       </c>
       <c r="U13" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X13" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB13" t="n">
         <v>40</v>
       </c>
-      <c r="Y13" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF13" t="n">
         <v>50</v>
       </c>
-      <c r="AC13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>55</v>
-      </c>
       <c r="AG13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AH13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AW13" t="n">
         <v>6.2</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>5.7</v>
       </c>
       <c r="AX13" t="n">
         <v>14</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BA13" t="n">
         <v>150</v>
       </c>
       <c r="BB13" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L14" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
@@ -2961,10 +2961,10 @@
         <v>4.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S14" t="n">
         <v>1.28</v>
@@ -2979,103 +2979,103 @@
         <v>2.57</v>
       </c>
       <c r="W14" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z14" t="n">
         <v>35</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AE14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AI14" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AK14" t="n">
         <v>12</v>
       </c>
       <c r="AL14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AT14" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AU14" t="n">
         <v>40</v>
       </c>
       <c r="AV14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AW14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY14" t="n">
         <v>35</v>
       </c>
       <c r="AZ14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB14" t="n">
         <v>175</v>
       </c>
       <c r="BC14" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3113,145 +3113,145 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L15" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>11.9</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>3.74</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="S15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>3.32</v>
+        <v>3.14</v>
       </c>
       <c r="U15" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="V15" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="X15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB15" t="n">
         <v>18</v>
       </c>
       <c r="AC15" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AE15" t="n">
         <v>9</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AM15" t="n">
         <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR15" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="AT15" t="n">
         <v>6.1</v>
       </c>
       <c r="AU15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AV15" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AW15" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AY15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AZ15" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BA15" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="BB15" t="n">
         <v>175</v>
@@ -3313,13 +3313,13 @@
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
         <v>7.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
@@ -3489,43 +3489,43 @@
         <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R17" t="n">
         <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X17" t="n">
         <v>17</v>
@@ -3543,22 +3543,22 @@
         <v>29</v>
       </c>
       <c r="AC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
         <v>13</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
         <v>9</v>
@@ -3591,13 +3591,13 @@
         <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AT17" t="n">
         <v>7.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AV17" t="n">
         <v>4.33</v>
@@ -3606,7 +3606,7 @@
         <v>12</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>41</v>
@@ -3621,7 +3621,7 @@
         <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3674,13 +3674,13 @@
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3689,10 +3689,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3707,7 +3707,7 @@
         <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
         <v>12</v>
@@ -3716,13 +3716,13 @@
         <v>9.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
         <v>12</v>
@@ -3731,7 +3731,7 @@
         <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
         <v>41</v>
@@ -3749,7 +3749,7 @@
         <v>29</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>29</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3871,16 +3871,16 @@
         <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
         <v>1.73</v>
@@ -3892,13 +3892,13 @@
         <v>8</v>
       </c>
       <c r="X19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
         <v>13</v>
@@ -3907,7 +3907,7 @@
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
         <v>7.5</v>
@@ -3922,10 +3922,10 @@
         <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
         <v>41</v>
@@ -3940,7 +3940,7 @@
         <v>201</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO19" t="n">
         <v>9</v>
@@ -3952,10 +3952,10 @@
         <v>29</v>
       </c>
       <c r="AR19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AT19" t="n">
         <v>8</v>
@@ -3964,7 +3964,7 @@
         <v>51</v>
       </c>
       <c r="AV19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AW19" t="n">
         <v>23</v>
@@ -3973,7 +3973,7 @@
         <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AZ19" t="n">
         <v>81</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
         <v>2.75</v>
@@ -4220,7 +4220,7 @@
         <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -4256,10 +4256,10 @@
         <v>10</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
@@ -4286,7 +4286,7 @@
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>12</v>
@@ -4295,7 +4295,7 @@
         <v>34</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>26</v>
@@ -4307,7 +4307,7 @@
         <v>4.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
         <v>19</v>
@@ -4328,7 +4328,7 @@
         <v>41</v>
       </c>
       <c r="AV21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AW21" t="n">
         <v>15</v>
@@ -4754,43 +4754,43 @@
         <v>2.3</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L24" t="n">
         <v>3.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U24" t="n">
         <v>1.8</v>
@@ -4799,7 +4799,7 @@
         <v>1.95</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
         <v>11</v>
@@ -4817,10 +4817,10 @@
         <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4829,13 +4829,13 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH24" t="n">
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
         <v>34</v>
@@ -4847,7 +4847,7 @@
         <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="n">
         <v>4.33</v>
@@ -4865,7 +4865,7 @@
         <v>67</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AT24" t="n">
         <v>8</v>
@@ -4880,7 +4880,7 @@
         <v>17</v>
       </c>
       <c r="AX24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY24" t="n">
         <v>51</v>
@@ -4892,7 +4892,7 @@
         <v>201</v>
       </c>
       <c r="BB24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
         <v>81</v>
@@ -4963,10 +4963,10 @@
         <v>2.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R25" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S25" t="n">
         <v>1.5</v>
@@ -5115,16 +5115,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H26" t="n">
         <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K26" t="n">
         <v>2.1</v>
@@ -5133,22 +5133,22 @@
         <v>3.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S26" t="n">
         <v>1.4</v>
@@ -5202,7 +5202,7 @@
         <v>10</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK26" t="n">
         <v>21</v>
@@ -5509,10 +5509,10 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R28" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
@@ -5843,40 +5843,40 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
         <v>3.4</v>
       </c>
       <c r="J30" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
         <v>1.44</v>
@@ -5885,10 +5885,10 @@
         <v>2.63</v>
       </c>
       <c r="U30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.8</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.95</v>
       </c>
       <c r="W30" t="n">
         <v>7</v>
@@ -5903,25 +5903,25 @@
         <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB30" t="n">
         <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD30" t="n">
         <v>6.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>17</v>
@@ -5936,10 +5936,10 @@
         <v>29</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN30" t="n">
         <v>4</v>
@@ -5948,19 +5948,19 @@
         <v>12</v>
       </c>
       <c r="AP30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ30" t="n">
         <v>41</v>
       </c>
       <c r="AR30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS30" t="n">
         <v>2.63</v>
       </c>
       <c r="AT30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AU30" t="n">
         <v>51</v>
@@ -5969,7 +5969,7 @@
         <v>5.5</v>
       </c>
       <c r="AW30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX30" t="n">
         <v>29</v>
@@ -5978,13 +5978,13 @@
         <v>67</v>
       </c>
       <c r="AZ30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA30" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB30" t="n">
         <v>201</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>151</v>
       </c>
       <c r="BC30" t="n">
         <v>126</v>
@@ -6225,10 +6225,10 @@
         <v>5.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O32" t="n">
         <v>1.53</v>
@@ -6407,10 +6407,10 @@
         <v>8.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O33" t="n">
         <v>1.44</v>
@@ -6431,10 +6431,10 @@
         <v>2.5</v>
       </c>
       <c r="U33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W33" t="n">
         <v>4.75</v>
@@ -6443,13 +6443,13 @@
         <v>5.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z33" t="n">
         <v>9</v>
       </c>
       <c r="AA33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB33" t="n">
         <v>41</v>
@@ -6479,7 +6479,7 @@
         <v>101</v>
       </c>
       <c r="AK33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL33" t="n">
         <v>81</v>
@@ -6530,7 +6530,7 @@
         <v>51</v>
       </c>
       <c r="BB33" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC33" t="n">
         <v>51</v>
@@ -6577,22 +6577,22 @@
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>1.95</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -6679,7 +6679,7 @@
         <v>29</v>
       </c>
       <c r="AQ34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR34" t="n">
         <v>81</v>
@@ -6709,7 +6709,7 @@
         <v>101</v>
       </c>
       <c r="BA34" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB34" t="n">
         <v>251</v>
@@ -6765,7 +6765,7 @@
         <v>1.57</v>
       </c>
       <c r="K35" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L35" t="n">
         <v>11</v>
@@ -6801,7 +6801,7 @@
         <v>1.57</v>
       </c>
       <c r="W35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X35" t="n">
         <v>6</v>
@@ -6831,7 +6831,7 @@
         <v>81</v>
       </c>
       <c r="AG35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH35" t="n">
         <v>51</v>
@@ -6840,7 +6840,7 @@
         <v>34</v>
       </c>
       <c r="AJ35" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AK35" t="n">
         <v>81</v>
@@ -6852,13 +6852,13 @@
         <v>351</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO35" t="n">
         <v>5</v>
       </c>
       <c r="AP35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ35" t="n">
         <v>12</v>
@@ -6935,16 +6935,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K36" t="n">
         <v>2.2</v>
@@ -6953,22 +6953,22 @@
         <v>6.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R36" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S36" t="n">
         <v>1.44</v>
@@ -6977,22 +6977,22 @@
         <v>2.63</v>
       </c>
       <c r="U36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X36" t="n">
         <v>6.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA36" t="n">
         <v>15</v>
@@ -7001,13 +7001,13 @@
         <v>34</v>
       </c>
       <c r="AC36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="n">
         <v>67</v>
@@ -7016,13 +7016,13 @@
         <v>15</v>
       </c>
       <c r="AH36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="n">
         <v>21</v>
       </c>
       <c r="AJ36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK36" t="n">
         <v>51</v>
@@ -7031,7 +7031,7 @@
         <v>51</v>
       </c>
       <c r="AM36" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AN36" t="n">
         <v>3.4</v>
@@ -7067,19 +7067,19 @@
         <v>41</v>
       </c>
       <c r="AY36" t="n">
+        <v>126</v>
+      </c>
+      <c r="AZ36" t="n">
         <v>151</v>
       </c>
-      <c r="AZ36" t="n">
-        <v>201</v>
-      </c>
       <c r="BA36" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BB36" t="n">
         <v>201</v>
       </c>
       <c r="BC36" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD36" t="n">
         <v>151</v>
@@ -7261,7 +7261,7 @@
         <v>151</v>
       </c>
       <c r="BC37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD37" t="n">
         <v>151</v>
@@ -7481,55 +7481,55 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
         <v>4.5</v>
       </c>
       <c r="J39" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L39" t="n">
         <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="R39" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T39" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V39" t="n">
         <v>1.95</v>
       </c>
-      <c r="V39" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X39" t="n">
         <v>8</v>
@@ -7541,16 +7541,16 @@
         <v>13</v>
       </c>
       <c r="AA39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE39" t="n">
         <v>17</v>
@@ -7559,7 +7559,7 @@
         <v>51</v>
       </c>
       <c r="AG39" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
         <v>23</v>
@@ -7577,16 +7577,16 @@
         <v>41</v>
       </c>
       <c r="AM39" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AN39" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ39" t="n">
         <v>29</v>
@@ -7595,10 +7595,10 @@
         <v>51</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AT39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AU39" t="n">
         <v>51</v>
@@ -7610,19 +7610,19 @@
         <v>26</v>
       </c>
       <c r="AX39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AZ39" t="n">
         <v>101</v>
       </c>
-      <c r="AZ39" t="n">
+      <c r="BA39" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB39" t="n">
         <v>126</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>151</v>
       </c>
       <c r="BC39" t="n">
         <v>81</v>
@@ -7681,10 +7681,10 @@
         <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O40" t="n">
         <v>1.29</v>
@@ -7693,10 +7693,10 @@
         <v>3.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R40" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S40" t="n">
         <v>1.4</v>
@@ -7866,13 +7866,13 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P41" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q41" t="n">
         <v>2.35</v>
@@ -7911,7 +7911,7 @@
         <v>34</v>
       </c>
       <c r="AC41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD41" t="n">
         <v>6</v>
@@ -7929,7 +7929,7 @@
         <v>15</v>
       </c>
       <c r="AI41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ41" t="n">
         <v>34</v>
@@ -7956,7 +7956,7 @@
         <v>41</v>
       </c>
       <c r="AR41" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS41" t="n">
         <v>2.5</v>
@@ -8027,16 +8027,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
@@ -8105,7 +8105,7 @@
         <v>67</v>
       </c>
       <c r="AG42" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH42" t="n">
         <v>12</v>
@@ -8129,7 +8129,7 @@
         <v>4.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP42" t="n">
         <v>29</v>
@@ -8209,22 +8209,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J43" t="n">
         <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
         <v>1.1</v>
@@ -8266,7 +8266,7 @@
         <v>13</v>
       </c>
       <c r="Z43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA43" t="n">
         <v>34</v>
@@ -8275,7 +8275,7 @@
         <v>41</v>
       </c>
       <c r="AC43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD43" t="n">
         <v>6</v>
@@ -8290,10 +8290,10 @@
         <v>6.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ43" t="n">
         <v>21</v>
@@ -8302,7 +8302,7 @@
         <v>21</v>
       </c>
       <c r="AL43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM43" t="n">
         <v>201</v>
@@ -8332,16 +8332,16 @@
         <v>67</v>
       </c>
       <c r="AV43" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AW43" t="n">
         <v>13</v>
       </c>
       <c r="AX43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ43" t="n">
         <v>81</v>
@@ -8391,13 +8391,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J44" t="n">
         <v>2.5</v>
@@ -8406,7 +8406,7 @@
         <v>2.3</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M44" t="n">
         <v>1.04</v>
@@ -8433,22 +8433,22 @@
         <v>3.25</v>
       </c>
       <c r="U44" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V44" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W44" t="n">
         <v>8.5</v>
       </c>
       <c r="X44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y44" t="n">
         <v>8.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA44" t="n">
         <v>15</v>
@@ -8472,16 +8472,16 @@
         <v>13</v>
       </c>
       <c r="AH44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ44" t="n">
         <v>41</v>
       </c>
       <c r="AK44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL44" t="n">
         <v>34</v>
@@ -8573,22 +8573,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H45" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J45" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L45" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -8603,25 +8603,25 @@
         <v>4.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R45" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S45" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T45" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U45" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V45" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X45" t="n">
         <v>21</v>
@@ -8630,37 +8630,37 @@
         <v>12</v>
       </c>
       <c r="Z45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE45" t="n">
         <v>12</v>
       </c>
       <c r="AF45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH45" t="n">
         <v>11</v>
       </c>
-      <c r="AH45" t="n">
-        <v>12</v>
-      </c>
       <c r="AI45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK45" t="n">
         <v>15</v>
@@ -8669,28 +8669,28 @@
         <v>21</v>
       </c>
       <c r="AM45" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN45" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ45" t="n">
         <v>51</v>
       </c>
       <c r="AR45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS45" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AU45" t="n">
         <v>41</v>
@@ -8699,7 +8699,7 @@
         <v>4.33</v>
       </c>
       <c r="AW45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX45" t="n">
         <v>17</v>
@@ -8714,10 +8714,10 @@
         <v>101</v>
       </c>
       <c r="BB45" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC45" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD45" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
         <v>1.38</v>
@@ -762,7 +762,7 @@
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -771,34 +771,34 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>15</v>
       </c>
       <c r="X2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="n">
         <v>21</v>
@@ -822,31 +822,31 @@
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>41</v>
@@ -858,7 +858,7 @@
         <v>151</v>
       </c>
       <c r="AR2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS2" t="n">
         <v>3</v>
@@ -873,13 +873,13 @@
         <v>3.25</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
         <v>41</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1147,7 +1147,7 @@
         <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T4" t="n">
         <v>2.25</v>
@@ -1162,13 +1162,13 @@
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1192,10 +1192,10 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
@@ -1210,7 +1210,7 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
@@ -1234,16 +1234,16 @@
         <v>81</v>
       </c>
       <c r="AV4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AX4" t="n">
         <v>41</v>
       </c>
       <c r="AY4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AZ4" t="n">
         <v>151</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1505,10 +1505,10 @@
         <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1517,22 +1517,22 @@
         <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
@@ -1541,7 +1541,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1550,7 +1550,7 @@
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
@@ -1562,16 +1562,16 @@
         <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
         <v>4</v>
@@ -1592,19 +1592,19 @@
         <v>2.25</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AV6" t="n">
         <v>5.5</v>
       </c>
       <c r="AW6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
         <v>81</v>
@@ -1616,7 +1616,7 @@
         <v>351</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1675,10 +1675,10 @@
         <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1687,10 +1687,10 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>1.57</v>
@@ -1741,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
         <v>12</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1863,16 +1863,16 @@
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -2021,34 +2021,34 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
         <v>2.1</v>
@@ -2069,16 +2069,16 @@
         <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
         <v>23</v>
@@ -2102,28 +2102,28 @@
         <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
         <v>4.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
@@ -2132,7 +2132,7 @@
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
         <v>2.63</v>
@@ -2147,28 +2147,28 @@
         <v>4.5</v>
       </c>
       <c r="AW9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
         <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB9" t="n">
         <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.4</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
         <v>3.25</v>
@@ -2227,94 +2227,94 @@
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
         <v>29</v>
       </c>
-      <c r="AA10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
         <v>10</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
         <v>4.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
         <v>2.63</v>
@@ -2332,7 +2332,7 @@
         <v>15</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
         <v>51</v>
@@ -2341,10 +2341,10 @@
         <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2388,25 +2388,25 @@
         <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J11" t="n">
         <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
         <v>1.29</v>
@@ -2415,25 +2415,25 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R11" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
@@ -2448,13 +2448,13 @@
         <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2463,10 +2463,10 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>13</v>
@@ -2481,25 +2481,25 @@
         <v>21</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO11" t="n">
         <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>7.5</v>
@@ -2514,10 +2514,10 @@
         <v>15</v>
       </c>
       <c r="AX11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
         <v>67</v>
@@ -2529,7 +2529,7 @@
         <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2567,46 +2567,46 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
         <v>5.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
         <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
         <v>1.83</v>
@@ -2615,7 +2615,7 @@
         <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
         <v>7.5</v>
@@ -2624,19 +2624,19 @@
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA12" t="n">
         <v>12</v>
       </c>
-      <c r="AA12" t="n">
-        <v>13</v>
-      </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
@@ -2681,7 +2681,7 @@
         <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AT12" t="n">
         <v>8.5</v>
@@ -2705,7 +2705,7 @@
         <v>126</v>
       </c>
       <c r="BA12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB12" t="n">
         <v>126</v>
@@ -2767,28 +2767,28 @@
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
         <v>1.73</v>
@@ -2863,7 +2863,7 @@
         <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT13" t="n">
         <v>8</v>
@@ -2887,13 +2887,13 @@
         <v>81</v>
       </c>
       <c r="BA13" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB13" t="n">
         <v>151</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BC13" t="n">
         <v>126</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>151</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -3137,10 +3137,10 @@
         <v>13.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
         <v>1.55</v>
@@ -3155,10 +3155,10 @@
         <v>3.46</v>
       </c>
       <c r="U15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="V15" t="n">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="W15" t="n">
         <v>11</v>
@@ -3295,22 +3295,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
         <v>2.07</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
@@ -3322,7 +3322,7 @@
         <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
       <c r="Q16" t="n">
         <v>1.7</v>
@@ -3331,16 +3331,16 @@
         <v>1.93</v>
       </c>
       <c r="S16" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="U16" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V16" t="n">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="W16" t="n">
         <v>9</v>
@@ -3349,88 +3349,88 @@
         <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AE16" t="n">
         <v>9.25</v>
       </c>
       <c r="AF16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG16" t="n">
         <v>175</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AI16" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AK16" t="n">
         <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM16" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="AO16" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AP16" t="n">
         <v>18</v>
       </c>
       <c r="AQ16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR16" t="n">
         <v>75</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AT16" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AU16" t="n">
         <v>45</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AW16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AX16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AZ16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA16" t="n">
         <v>200</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.6</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3689,10 +3689,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3710,13 +3710,13 @@
         <v>11</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
         <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA18" t="n">
         <v>23</v>
@@ -3725,7 +3725,7 @@
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
@@ -3743,10 +3743,10 @@
         <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK18" t="n">
         <v>21</v>
@@ -3755,13 +3755,13 @@
         <v>17</v>
       </c>
       <c r="AM18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN18" t="n">
         <v>5</v>
       </c>
       <c r="AO18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3782,10 +3782,10 @@
         <v>51</v>
       </c>
       <c r="AV18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AW18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
         <v>21</v>
@@ -3841,79 +3841,79 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V19" t="n">
         <v>2.2</v>
       </c>
-      <c r="L19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="W19" t="n">
+        <v>9</v>
+      </c>
+      <c r="X19" t="n">
         <v>11</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>12</v>
-      </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB19" t="n">
         <v>23</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>26</v>
       </c>
       <c r="AC19" t="n">
         <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>41</v>
@@ -3922,31 +3922,31 @@
         <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM19" t="n">
         <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
         <v>41</v>
@@ -3955,7 +3955,7 @@
         <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AT19" t="n">
         <v>7.5</v>
@@ -3964,10 +3964,10 @@
         <v>51</v>
       </c>
       <c r="AV19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AW19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX19" t="n">
         <v>23</v>
@@ -4029,7 +4029,7 @@
         <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
         <v>2.38</v>
@@ -4047,22 +4047,22 @@
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U20" t="n">
         <v>1.73</v>
@@ -4089,7 +4089,7 @@
         <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
         <v>7.5</v>
@@ -4125,7 +4125,7 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP20" t="n">
         <v>19</v>
@@ -4137,7 +4137,7 @@
         <v>51</v>
       </c>
       <c r="AS20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AT20" t="n">
         <v>8</v>
@@ -4149,10 +4149,10 @@
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
         <v>67</v>
@@ -4229,10 +4229,10 @@
         <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
         <v>1.7</v>
@@ -4241,10 +4241,10 @@
         <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U21" t="n">
         <v>1.62</v>
@@ -4265,13 +4265,13 @@
         <v>41</v>
       </c>
       <c r="AA21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB21" t="n">
         <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
         <v>7.5</v>
@@ -4313,13 +4313,13 @@
         <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="n">
         <v>67</v>
       </c>
       <c r="AS21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AT21" t="n">
         <v>7.5</v>
@@ -4334,7 +4334,7 @@
         <v>10</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY21" t="n">
         <v>29</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
         <v>2.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -4435,13 +4435,13 @@
         <v>2.38</v>
       </c>
       <c r="W22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z22" t="n">
         <v>21</v>
@@ -4465,7 +4465,7 @@
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH22" t="n">
         <v>13</v>
@@ -4480,7 +4480,7 @@
         <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM22" t="n">
         <v>26</v>
@@ -4489,7 +4489,7 @@
         <v>4.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP22" t="n">
         <v>19</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J24" t="n">
         <v>3.75</v>
@@ -4766,7 +4766,7 @@
         <v>2.38</v>
       </c>
       <c r="L24" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -4787,10 +4787,10 @@
         <v>2.25</v>
       </c>
       <c r="S24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U24" t="n">
         <v>1.53</v>
@@ -4841,7 +4841,7 @@
         <v>9</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="n">
         <v>15</v>
@@ -4853,7 +4853,7 @@
         <v>5.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
@@ -4865,7 +4865,7 @@
         <v>67</v>
       </c>
       <c r="AS24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AT24" t="n">
         <v>7</v>
@@ -4936,37 +4936,37 @@
         <v>2.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L25" t="n">
         <v>3.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S25" t="n">
         <v>1.44</v>
@@ -4975,16 +4975,16 @@
         <v>2.63</v>
       </c>
       <c r="U25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.8</v>
       </c>
-      <c r="V25" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y25" t="n">
         <v>9.5</v>
@@ -4993,13 +4993,13 @@
         <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
@@ -5011,10 +5011,10 @@
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
@@ -5026,10 +5026,10 @@
         <v>34</v>
       </c>
       <c r="AL25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
         <v>4.33</v>
@@ -5050,7 +5050,7 @@
         <v>2.63</v>
       </c>
       <c r="AT25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AU25" t="n">
         <v>51</v>
@@ -5059,13 +5059,13 @@
         <v>5</v>
       </c>
       <c r="AW25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ25" t="n">
         <v>81</v>
@@ -5074,7 +5074,7 @@
         <v>201</v>
       </c>
       <c r="BB25" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5115,16 +5115,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
@@ -5136,19 +5136,19 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S26" t="n">
         <v>1.5</v>
@@ -5166,7 +5166,7 @@
         <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y26" t="n">
         <v>9.5</v>
@@ -5190,13 +5190,13 @@
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG26" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5214,7 +5214,7 @@
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO26" t="n">
         <v>13</v>
@@ -5226,7 +5226,7 @@
         <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS26" t="n">
         <v>2.5</v>
@@ -5241,10 +5241,10 @@
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY26" t="n">
         <v>67</v>
@@ -5297,148 +5297,148 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>2.75</v>
       </c>
       <c r="J27" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
         <v>3.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="S27" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T27" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
         <v>13</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>26</v>
       </c>
       <c r="AL27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN27" t="n">
         <v>4.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ27" t="n">
         <v>51</v>
       </c>
       <c r="AR27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AU27" t="n">
         <v>67</v>
       </c>
-      <c r="AS27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>51</v>
-      </c>
       <c r="AV27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AW27" t="n">
         <v>15</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
         <v>51</v>
       </c>
       <c r="AZ27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC27" t="n">
         <v>451</v>
@@ -5479,19 +5479,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H28" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L28" t="n">
         <v>6.5</v>
@@ -5509,10 +5509,10 @@
         <v>5.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S28" t="n">
         <v>1.25</v>
@@ -5521,19 +5521,19 @@
         <v>3.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y28" t="n">
         <v>9</v>
-      </c>
-      <c r="X28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>8.5</v>
       </c>
       <c r="Z28" t="n">
         <v>9.5</v>
@@ -5548,7 +5548,7 @@
         <v>19</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>19</v>
@@ -5572,13 +5572,13 @@
         <v>81</v>
       </c>
       <c r="AL28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM28" t="n">
         <v>41</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO28" t="n">
         <v>6.5</v>
@@ -5602,7 +5602,7 @@
         <v>51</v>
       </c>
       <c r="AV28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AW28" t="n">
         <v>34</v>
@@ -5620,10 +5620,10 @@
         <v>201</v>
       </c>
       <c r="BB28" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC28" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD28" t="n">
         <v>151</v>
@@ -5673,10 +5673,10 @@
         <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L29" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
@@ -5691,10 +5691,10 @@
         <v>3.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R29" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S29" t="n">
         <v>1.4</v>
@@ -5703,10 +5703,10 @@
         <v>2.75</v>
       </c>
       <c r="U29" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W29" t="n">
         <v>10</v>
@@ -5715,7 +5715,7 @@
         <v>17</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
         <v>34</v>
@@ -5727,7 +5727,7 @@
         <v>34</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
         <v>6.5</v>
@@ -5736,22 +5736,22 @@
         <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
         <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>17</v>
@@ -5760,10 +5760,10 @@
         <v>26</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
         <v>26</v>
@@ -5778,7 +5778,7 @@
         <v>2.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AU29" t="n">
         <v>51</v>
@@ -5802,13 +5802,13 @@
         <v>151</v>
       </c>
       <c r="BB29" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC29" t="n">
         <v>501</v>
       </c>
       <c r="BD29" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30">
@@ -5861,10 +5861,10 @@
         <v>8</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O30" t="n">
         <v>1.17</v>
@@ -6028,37 +6028,37 @@
         <v>2.15</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J31" t="n">
         <v>2.88</v>
       </c>
       <c r="K31" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L31" t="n">
         <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="R31" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
         <v>1.44</v>
@@ -6067,16 +6067,16 @@
         <v>2.63</v>
       </c>
       <c r="U31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.95</v>
       </c>
-      <c r="V31" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -6085,28 +6085,28 @@
         <v>19</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB31" t="n">
         <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD31" t="n">
         <v>6.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
         <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI31" t="n">
         <v>17</v>
@@ -6115,13 +6115,13 @@
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL31" t="n">
         <v>29</v>
       </c>
       <c r="AM31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN31" t="n">
         <v>4</v>
@@ -6136,13 +6136,13 @@
         <v>41</v>
       </c>
       <c r="AR31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS31" t="n">
         <v>2.63</v>
       </c>
       <c r="AT31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AU31" t="n">
         <v>51</v>
@@ -6151,7 +6151,7 @@
         <v>5.5</v>
       </c>
       <c r="AW31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX31" t="n">
         <v>29</v>
@@ -6160,13 +6160,13 @@
         <v>67</v>
       </c>
       <c r="AZ31" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA31" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB31" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC31" t="n">
         <v>126</v>
@@ -6213,10 +6213,10 @@
         <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K32" t="n">
         <v>2.05</v>
@@ -6225,10 +6225,10 @@
         <v>2.2</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O32" t="n">
         <v>1.4</v>
@@ -6249,13 +6249,13 @@
         <v>2.5</v>
       </c>
       <c r="U32" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V32" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X32" t="n">
         <v>34</v>
@@ -6282,7 +6282,7 @@
         <v>23</v>
       </c>
       <c r="AF32" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG32" t="n">
         <v>101</v>
@@ -6389,28 +6389,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K33" t="n">
         <v>1.91</v>
       </c>
       <c r="L33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.53</v>
@@ -6431,10 +6431,10 @@
         <v>2.25</v>
       </c>
       <c r="U33" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W33" t="n">
         <v>5</v>
@@ -6488,7 +6488,7 @@
         <v>51</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO33" t="n">
         <v>11</v>
@@ -6506,7 +6506,7 @@
         <v>2.25</v>
       </c>
       <c r="AT33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AU33" t="n">
         <v>81</v>
@@ -6574,7 +6574,7 @@
         <v>1.33</v>
       </c>
       <c r="H34" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
         <v>8.5</v>
@@ -6583,28 +6583,28 @@
         <v>1.95</v>
       </c>
       <c r="K34" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S34" t="n">
         <v>1.5</v>
@@ -6613,13 +6613,13 @@
         <v>2.5</v>
       </c>
       <c r="U34" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W34" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="X34" t="n">
         <v>5</v>
@@ -6631,13 +6631,13 @@
         <v>8</v>
       </c>
       <c r="AA34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB34" t="n">
         <v>41</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD34" t="n">
         <v>9.5</v>
@@ -6667,13 +6667,13 @@
         <v>81</v>
       </c>
       <c r="AM34" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN34" t="n">
         <v>3</v>
       </c>
       <c r="AO34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP34" t="n">
         <v>26</v>
@@ -6771,10 +6771,10 @@
         <v>4.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O35" t="n">
         <v>1.5</v>
@@ -6783,10 +6783,10 @@
         <v>2.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R35" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S35" t="n">
         <v>1.53</v>
@@ -6935,22 +6935,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="H36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I36" t="n">
+        <v>13</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3</v>
+      </c>
+      <c r="L36" t="n">
         <v>12</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L36" t="n">
-        <v>11</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -6959,22 +6959,22 @@
         <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R36" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S36" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U36" t="n">
         <v>2.25</v>
@@ -6983,16 +6983,16 @@
         <v>1.57</v>
       </c>
       <c r="W36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA36" t="n">
         <v>11</v>
@@ -7001,13 +7001,13 @@
         <v>34</v>
       </c>
       <c r="AC36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF36" t="n">
         <v>81</v>
@@ -7016,7 +7016,7 @@
         <v>351</v>
       </c>
       <c r="AH36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="n">
         <v>51</v>
@@ -7025,13 +7025,13 @@
         <v>34</v>
       </c>
       <c r="AK36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL36" t="n">
         <v>81</v>
       </c>
       <c r="AM36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN36" t="n">
         <v>3.2</v>
@@ -7043,13 +7043,13 @@
         <v>17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AT36" t="n">
         <v>11</v>
@@ -7058,7 +7058,7 @@
         <v>67</v>
       </c>
       <c r="AV36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW36" t="n">
         <v>51</v>
@@ -7067,7 +7067,7 @@
         <v>51</v>
       </c>
       <c r="AY36" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AZ36" t="n">
         <v>301</v>
@@ -7079,7 +7079,7 @@
         <v>126</v>
       </c>
       <c r="BC36" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD36" t="n">
         <v>151</v>
@@ -7117,16 +7117,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
         <v>6.5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K37" t="n">
         <v>2.1</v>
@@ -7141,28 +7141,28 @@
         <v>8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R37" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V37" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W37" t="n">
         <v>5.5</v>
@@ -7183,7 +7183,7 @@
         <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD37" t="n">
         <v>7</v>
@@ -7201,7 +7201,7 @@
         <v>13</v>
       </c>
       <c r="AI37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ37" t="n">
         <v>21</v>
@@ -7213,28 +7213,28 @@
         <v>51</v>
       </c>
       <c r="AM37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN37" t="n">
         <v>3.4</v>
       </c>
       <c r="AO37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP37" t="n">
         <v>23</v>
       </c>
       <c r="AQ37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR37" t="n">
         <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AU37" t="n">
         <v>81</v>
@@ -7299,112 +7299,112 @@
         </is>
       </c>
       <c r="G38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N38" t="n">
+        <v>17</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V38" t="n">
         <v>2.5</v>
       </c>
-      <c r="H38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N38" t="n">
-        <v>13</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X38" t="n">
         <v>13</v>
       </c>
       <c r="Y38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB38" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC38" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE38" t="n">
         <v>12</v>
       </c>
       <c r="AF38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG38" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH38" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN38" t="n">
         <v>4.75</v>
       </c>
       <c r="AO38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ38" t="n">
         <v>41</v>
@@ -7413,19 +7413,19 @@
         <v>51</v>
       </c>
       <c r="AS38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AT38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AU38" t="n">
         <v>41</v>
       </c>
       <c r="AV38" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AW38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX38" t="n">
         <v>21</v>
@@ -7437,13 +7437,13 @@
         <v>51</v>
       </c>
       <c r="BA38" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB38" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC38" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD38" t="n">
         <v>151</v>
@@ -7481,16 +7481,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.2</v>
       </c>
       <c r="K39" t="n">
         <v>2.05</v>
@@ -7511,10 +7511,10 @@
         <v>3.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R39" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S39" t="n">
         <v>1.44</v>
@@ -7529,40 +7529,40 @@
         <v>1.91</v>
       </c>
       <c r="W39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA39" t="n">
         <v>23</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>21</v>
       </c>
       <c r="AB39" t="n">
         <v>34</v>
       </c>
       <c r="AC39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD39" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AE39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF39" t="n">
         <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI39" t="n">
         <v>15</v>
@@ -7571,7 +7571,7 @@
         <v>12</v>
       </c>
       <c r="AK39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL39" t="n">
         <v>26</v>
@@ -7592,13 +7592,13 @@
         <v>51</v>
       </c>
       <c r="AR39" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS39" t="n">
         <v>2.63</v>
       </c>
       <c r="AT39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AU39" t="n">
         <v>51</v>
@@ -7628,7 +7628,7 @@
         <v>126</v>
       </c>
       <c r="BD39" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
@@ -7663,22 +7663,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I40" t="n">
         <v>3.9</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L40" t="n">
         <v>4.5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
@@ -7699,10 +7699,10 @@
         <v>1.98</v>
       </c>
       <c r="S40" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T40" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U40" t="n">
         <v>1.8</v>
@@ -7711,19 +7711,19 @@
         <v>1.95</v>
       </c>
       <c r="W40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y40" t="n">
         <v>8.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB40" t="n">
         <v>26</v>
@@ -7732,10 +7732,10 @@
         <v>11</v>
       </c>
       <c r="AD40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF40" t="n">
         <v>51</v>
@@ -7744,40 +7744,40 @@
         <v>251</v>
       </c>
       <c r="AH40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ40" t="n">
         <v>13</v>
       </c>
-      <c r="AI40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>15</v>
-      </c>
       <c r="AK40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM40" t="n">
         <v>41</v>
       </c>
       <c r="AN40" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR40" t="n">
         <v>51</v>
       </c>
       <c r="AS40" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT40" t="n">
         <v>8</v>
@@ -7786,25 +7786,25 @@
         <v>51</v>
       </c>
       <c r="AV40" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AW40" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AX40" t="n">
         <v>29</v>
       </c>
       <c r="AY40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AZ40" t="n">
         <v>81</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>101</v>
       </c>
       <c r="BA40" t="n">
         <v>201</v>
       </c>
       <c r="BB40" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC40" t="n">
         <v>81</v>
@@ -7863,22 +7863,22 @@
         <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O41" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P41" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R41" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S41" t="n">
         <v>1.4</v>
@@ -8033,7 +8033,7 @@
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J42" t="n">
         <v>3.1</v>
@@ -8048,13 +8048,13 @@
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P42" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q42" t="n">
         <v>2.35</v>
@@ -8093,7 +8093,7 @@
         <v>34</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD42" t="n">
         <v>6</v>
@@ -8114,7 +8114,7 @@
         <v>15</v>
       </c>
       <c r="AJ42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK42" t="n">
         <v>34</v>
@@ -8138,7 +8138,7 @@
         <v>41</v>
       </c>
       <c r="AR42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS42" t="n">
         <v>2.5</v>
@@ -8227,22 +8227,22 @@
         <v>3.4</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P43" t="n">
         <v>2.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R43" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S43" t="n">
         <v>1.5</v>
@@ -8287,7 +8287,7 @@
         <v>51</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH43" t="n">
         <v>7.5</v>
@@ -8391,34 +8391,34 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K44" t="n">
         <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O44" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P44" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q44" t="n">
         <v>2.4</v>
@@ -8439,10 +8439,10 @@
         <v>1.73</v>
       </c>
       <c r="W44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y44" t="n">
         <v>13</v>
@@ -8472,16 +8472,16 @@
         <v>1250</v>
       </c>
       <c r="AH44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL44" t="n">
         <v>21</v>
@@ -8490,7 +8490,7 @@
         <v>34</v>
       </c>
       <c r="AN44" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO44" t="n">
         <v>21</v>
@@ -8499,7 +8499,7 @@
         <v>34</v>
       </c>
       <c r="AQ44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR44" t="n">
         <v>101</v>
@@ -8508,7 +8508,7 @@
         <v>2.38</v>
       </c>
       <c r="AT44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AU44" t="n">
         <v>67</v>
@@ -8517,7 +8517,7 @@
         <v>4</v>
       </c>
       <c r="AW44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX44" t="n">
         <v>26</v>
@@ -8526,10 +8526,10 @@
         <v>41</v>
       </c>
       <c r="AZ44" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA44" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB44" t="n">
         <v>301</v>
@@ -8573,55 +8573,55 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J45" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K45" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L45" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="R45" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="S45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U45" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V45" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X45" t="n">
         <v>9.5</v>
@@ -8633,16 +8633,16 @@
         <v>15</v>
       </c>
       <c r="AA45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE45" t="n">
         <v>13</v>
@@ -8654,16 +8654,16 @@
         <v>151</v>
       </c>
       <c r="AH45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ45" t="n">
         <v>15</v>
       </c>
       <c r="AK45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL45" t="n">
         <v>34</v>
@@ -8675,19 +8675,19 @@
         <v>4</v>
       </c>
       <c r="AO45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ45" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AR45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AT45" t="n">
         <v>7.5</v>
@@ -8696,7 +8696,7 @@
         <v>51</v>
       </c>
       <c r="AV45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AW45" t="n">
         <v>21</v>
@@ -8714,7 +8714,7 @@
         <v>151</v>
       </c>
       <c r="BB45" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC45" t="n">
         <v>81</v>
@@ -8755,7 +8755,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H46" t="n">
         <v>3.7</v>
@@ -8764,37 +8764,37 @@
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
         <v>2.3</v>
       </c>
       <c r="L46" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
         <v>15</v>
       </c>
       <c r="O46" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P46" t="n">
         <v>4.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R46" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S46" t="n">
         <v>1.3</v>
       </c>
       <c r="T46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U46" t="n">
         <v>1.62</v>
@@ -8824,7 +8824,7 @@
         <v>15</v>
       </c>
       <c r="AD46" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE46" t="n">
         <v>13</v>
@@ -8845,7 +8845,7 @@
         <v>9</v>
       </c>
       <c r="AK46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL46" t="n">
         <v>15</v>
@@ -8869,7 +8869,7 @@
         <v>67</v>
       </c>
       <c r="AS46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AT46" t="n">
         <v>7.5</v>
@@ -8884,7 +8884,7 @@
         <v>10</v>
       </c>
       <c r="AX46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY46" t="n">
         <v>34</v>
@@ -8896,10 +8896,10 @@
         <v>101</v>
       </c>
       <c r="BB46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC46" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD46" t="n">
         <v>151</v>
@@ -8937,79 +8937,79 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="J47" t="n">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="K47" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P47" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R47" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="T47" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="U47" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V47" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W47" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X47" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y47" t="n">
         <v>8.25</v>
       </c>
-      <c r="X47" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z47" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AB47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AD47" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AE47" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF47" t="n">
         <v>55</v>
@@ -9018,52 +9018,52 @@
         <v>400</v>
       </c>
       <c r="AH47" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ47" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AL47" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM47" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ47" t="n">
         <v>32</v>
       </c>
-      <c r="AN47" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AR47" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="AT47" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AU47" t="n">
         <v>60</v>
       </c>
       <c r="AV47" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AW47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX47" t="n">
         <v>25</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -656,52 +656,52 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-2_HT</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-0_HT</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1_HT</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2_HT</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2_HT</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
@@ -747,148 +747,148 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W2" t="n">
+        <v>17</v>
+      </c>
+      <c r="X2" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH2" t="n">
         <v>7.5</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>11</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="AI2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W2" t="n">
-        <v>15</v>
-      </c>
-      <c r="X2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="AX2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>21</v>
       </c>
-      <c r="Z2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>41</v>
-      </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>
@@ -1043,34 +1043,34 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT3" t="n">
         <v>3.5</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>9.5</v>
       </c>
-      <c r="AU3" t="n">
-        <v>51</v>
-      </c>
       <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
         <v>10</v>
       </c>
-      <c r="AW3" t="n">
-        <v>41</v>
-      </c>
       <c r="AX3" t="n">
         <v>41</v>
       </c>
       <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>201</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
         <v>151</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>301</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>126</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1129,10 +1129,10 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -1147,7 +1147,7 @@
         <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
         <v>2.25</v>
@@ -1165,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>17</v>
@@ -1201,7 +1201,7 @@
         <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1225,34 +1225,34 @@
         <v>81</v>
       </c>
       <c r="AS4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT4" t="n">
         <v>2.25</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>81</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AW4" t="n">
         <v>6</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AX4" t="n">
         <v>26</v>
       </c>
-      <c r="AX4" t="n">
-        <v>41</v>
-      </c>
       <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>101</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BA4" t="n">
         <v>151</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>501</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1407,34 +1407,34 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
         <v>2.5</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5" t="n">
         <v>8.5</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
         <v>67</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AW5" t="n">
         <v>5</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AX5" t="n">
         <v>19</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5" t="n">
         <v>29</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AZ5" t="n">
         <v>67</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BA5" t="n">
         <v>101</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
         <v>251</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1517,22 +1517,22 @@
         <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
         <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
@@ -1547,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>81</v>
@@ -1556,16 +1556,16 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>17</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1574,10 +1574,10 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>29</v>
@@ -1589,34 +1589,34 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
         <v>2.25</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6" t="n">
         <v>9.5</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AV6" t="n">
         <v>81</v>
       </c>
-      <c r="AV6" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AW6" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB6" t="n">
         <v>351</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1771,31 +1771,31 @@
         <v>101</v>
       </c>
       <c r="AS7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT7" t="n">
         <v>2.25</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AU7" t="n">
         <v>9</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AV7" t="n">
         <v>67</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AW7" t="n">
         <v>4.75</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AX7" t="n">
         <v>17</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AY7" t="n">
         <v>34</v>
       </c>
-      <c r="AY7" t="n">
-        <v>51</v>
-      </c>
       <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
         <v>101</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>301</v>
       </c>
       <c r="BB7" t="n">
         <v>301</v>
@@ -1845,13 +1845,13 @@
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
@@ -1881,16 +1881,16 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.5</v>
@@ -1905,7 +1905,7 @@
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1917,10 +1917,10 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>17</v>
@@ -1929,22 +1929,22 @@
         <v>13</v>
       </c>
       <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
         <v>34</v>
       </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
       <c r="AM8" t="n">
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
         <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1953,34 +1953,34 @@
         <v>67</v>
       </c>
       <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
         <v>2.5</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AU8" t="n">
         <v>8.5</v>
       </c>
-      <c r="AU8" t="n">
-        <v>51</v>
-      </c>
       <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
         <v>5</v>
       </c>
-      <c r="AW8" t="n">
-        <v>19</v>
-      </c>
       <c r="AX8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY8" t="n">
         <v>29</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AZ8" t="n">
         <v>67</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="BA8" t="n">
         <v>101</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BB8" t="n">
         <v>251</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2042,7 +2042,7 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -2135,34 +2135,34 @@
         <v>81</v>
       </c>
       <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
         <v>2.63</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AU9" t="n">
         <v>8</v>
       </c>
-      <c r="AU9" t="n">
-        <v>51</v>
-      </c>
       <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
         <v>4.5</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AX9" t="n">
         <v>13</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AY9" t="n">
         <v>23</v>
       </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
         <v>67</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BB9" t="n">
         <v>151</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>151</v>
@@ -2233,16 +2233,16 @@
         <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>1.8</v>
@@ -2317,31 +2317,31 @@
         <v>67</v>
       </c>
       <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
         <v>2.63</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AU10" t="n">
         <v>8</v>
       </c>
-      <c r="AU10" t="n">
-        <v>51</v>
-      </c>
       <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
         <v>4.5</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AX10" t="n">
         <v>15</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AY10" t="n">
         <v>23</v>
       </c>
-      <c r="AY10" t="n">
-        <v>51</v>
-      </c>
       <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
         <v>67</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>151</v>
       </c>
       <c r="BB10" t="n">
         <v>151</v>
@@ -2421,7 +2421,7 @@
         <v>1.98</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
         <v>3</v>
@@ -2499,31 +2499,31 @@
         <v>51</v>
       </c>
       <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
         <v>3</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AU11" t="n">
         <v>7.5</v>
       </c>
-      <c r="AU11" t="n">
-        <v>51</v>
-      </c>
       <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
         <v>4.75</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AX11" t="n">
         <v>15</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AY11" t="n">
         <v>21</v>
       </c>
-      <c r="AY11" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA11" t="n">
         <v>67</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>151</v>
       </c>
       <c r="BB11" t="n">
         <v>151</v>
@@ -2597,13 +2597,13 @@
         <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
         <v>3.25</v>
@@ -2681,34 +2681,34 @@
         <v>41</v>
       </c>
       <c r="AS12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT12" t="n">
         <v>3.25</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AU12" t="n">
         <v>8.5</v>
       </c>
-      <c r="AU12" t="n">
-        <v>51</v>
-      </c>
       <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
         <v>7</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AX12" t="n">
         <v>29</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AY12" t="n">
         <v>34</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AZ12" t="n">
         <v>101</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="BA12" t="n">
         <v>126</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BB12" t="n">
         <v>201</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>126</v>
       </c>
       <c r="BC12" t="n">
         <v>151</v>
@@ -2767,25 +2767,25 @@
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
         <v>2.75</v>
@@ -2863,34 +2863,34 @@
         <v>51</v>
       </c>
       <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
         <v>2.75</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AU13" t="n">
         <v>8</v>
       </c>
-      <c r="AU13" t="n">
-        <v>51</v>
-      </c>
       <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
         <v>5.5</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AX13" t="n">
         <v>21</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AY13" t="n">
         <v>26</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AZ13" t="n">
         <v>67</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="BA13" t="n">
         <v>81</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BB13" t="n">
         <v>201</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>151</v>
       </c>
       <c r="BC13" t="n">
         <v>126</v>
@@ -3045,34 +3045,34 @@
         <v>200</v>
       </c>
       <c r="AS14" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT14" t="n">
         <v>3.45</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AU14" t="n">
         <v>7.7</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AV14" t="n">
         <v>60</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AW14" t="n">
         <v>3.4</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AX14" t="n">
         <v>6.2</v>
       </c>
-      <c r="AX14" t="n">
+      <c r="AY14" t="n">
         <v>14</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="AZ14" t="n">
         <v>16</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="BA14" t="n">
         <v>37</v>
       </c>
-      <c r="BA14" t="n">
+      <c r="BB14" t="n">
         <v>150</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>350</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3227,34 +3227,34 @@
         <v>90</v>
       </c>
       <c r="AS15" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT15" t="n">
         <v>3.15</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AU15" t="n">
         <v>6</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AV15" t="n">
         <v>40</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AW15" t="n">
         <v>4.3</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AX15" t="n">
         <v>10.5</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AY15" t="n">
         <v>14.5</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="AZ15" t="n">
         <v>35</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="BA15" t="n">
         <v>50</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BB15" t="n">
         <v>120</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>175</v>
       </c>
       <c r="BC15" t="n">
         <v>500</v>
@@ -3409,34 +3409,34 @@
         <v>75</v>
       </c>
       <c r="AS16" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT16" t="n">
         <v>2.85</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AU16" t="n">
         <v>6.2</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AV16" t="n">
         <v>45</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AW16" t="n">
         <v>4.65</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AX16" t="n">
         <v>14</v>
       </c>
-      <c r="AX16" t="n">
+      <c r="AY16" t="n">
         <v>19</v>
       </c>
-      <c r="AY16" t="n">
+      <c r="AZ16" t="n">
         <v>60</v>
       </c>
-      <c r="AZ16" t="n">
+      <c r="BA16" t="n">
         <v>80</v>
       </c>
-      <c r="BA16" t="n">
+      <c r="BB16" t="n">
         <v>200</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>175</v>
       </c>
       <c r="BC16" t="n">
         <v>500</v>
@@ -3591,34 +3591,34 @@
         <v>101</v>
       </c>
       <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
         <v>2.5</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AU17" t="n">
         <v>8.5</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AV17" t="n">
         <v>67</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AW17" t="n">
         <v>4</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AX17" t="n">
         <v>13</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AY17" t="n">
         <v>23</v>
       </c>
-      <c r="AY17" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA17" t="n">
         <v>67</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BB17" t="n">
         <v>201</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>251</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3773,34 +3773,34 @@
         <v>67</v>
       </c>
       <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
         <v>3</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AU18" t="n">
         <v>7.5</v>
       </c>
-      <c r="AU18" t="n">
-        <v>51</v>
-      </c>
       <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
         <v>4.5</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AX18" t="n">
         <v>13</v>
       </c>
-      <c r="AX18" t="n">
+      <c r="AY18" t="n">
         <v>21</v>
       </c>
-      <c r="AY18" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB18" t="n">
         <v>126</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>151</v>
       </c>
       <c r="BC18" t="n">
         <v>501</v>
@@ -3955,34 +3955,34 @@
         <v>51</v>
       </c>
       <c r="AS19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT19" t="n">
         <v>3.25</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AU19" t="n">
         <v>7.5</v>
       </c>
-      <c r="AU19" t="n">
-        <v>51</v>
-      </c>
       <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
         <v>5.5</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AX19" t="n">
         <v>17</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AY19" t="n">
         <v>23</v>
       </c>
-      <c r="AY19" t="n">
-        <v>51</v>
-      </c>
       <c r="AZ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA19" t="n">
         <v>67</v>
       </c>
-      <c r="BA19" t="n">
+      <c r="BB19" t="n">
         <v>151</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>126</v>
       </c>
       <c r="BC19" t="n">
         <v>501</v>
@@ -4137,34 +4137,34 @@
         <v>51</v>
       </c>
       <c r="AS20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT20" t="n">
         <v>3.25</v>
       </c>
-      <c r="AT20" t="n">
+      <c r="AU20" t="n">
         <v>8</v>
       </c>
-      <c r="AU20" t="n">
-        <v>51</v>
-      </c>
       <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
         <v>6</v>
       </c>
-      <c r="AW20" t="n">
+      <c r="AX20" t="n">
         <v>21</v>
       </c>
-      <c r="AX20" t="n">
+      <c r="AY20" t="n">
         <v>26</v>
       </c>
-      <c r="AY20" t="n">
+      <c r="AZ20" t="n">
         <v>67</v>
       </c>
-      <c r="AZ20" t="n">
+      <c r="BA20" t="n">
         <v>81</v>
       </c>
-      <c r="BA20" t="n">
+      <c r="BB20" t="n">
         <v>151</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>126</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4319,34 +4319,34 @@
         <v>67</v>
       </c>
       <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
         <v>3.4</v>
       </c>
-      <c r="AT21" t="n">
+      <c r="AU21" t="n">
         <v>7.5</v>
       </c>
-      <c r="AU21" t="n">
-        <v>41</v>
-      </c>
       <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
         <v>4</v>
       </c>
-      <c r="AW21" t="n">
+      <c r="AX21" t="n">
         <v>10</v>
       </c>
-      <c r="AX21" t="n">
+      <c r="AY21" t="n">
         <v>17</v>
       </c>
-      <c r="AY21" t="n">
+      <c r="AZ21" t="n">
         <v>29</v>
       </c>
-      <c r="AZ21" t="n">
-        <v>41</v>
-      </c>
       <c r="BA21" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB21" t="n">
         <v>101</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>151</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4411,16 +4411,16 @@
         <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S22" t="n">
         <v>1.3</v>
@@ -4501,34 +4501,34 @@
         <v>51</v>
       </c>
       <c r="AS22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT22" t="n">
         <v>3.4</v>
       </c>
-      <c r="AT22" t="n">
+      <c r="AU22" t="n">
         <v>7</v>
       </c>
-      <c r="AU22" t="n">
-        <v>41</v>
-      </c>
       <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
         <v>5.5</v>
       </c>
-      <c r="AW22" t="n">
+      <c r="AX22" t="n">
         <v>15</v>
       </c>
-      <c r="AX22" t="n">
+      <c r="AY22" t="n">
         <v>21</v>
       </c>
-      <c r="AY22" t="n">
-        <v>51</v>
-      </c>
       <c r="AZ22" t="n">
         <v>51</v>
       </c>
       <c r="BA22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB22" t="n">
         <v>126</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>101</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4683,31 +4683,31 @@
         <v>51</v>
       </c>
       <c r="AS23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT23" t="n">
         <v>3.5</v>
       </c>
-      <c r="AT23" t="n">
+      <c r="AU23" t="n">
         <v>7</v>
       </c>
-      <c r="AU23" t="n">
-        <v>41</v>
-      </c>
       <c r="AV23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW23" t="n">
         <v>5.5</v>
       </c>
-      <c r="AW23" t="n">
+      <c r="AX23" t="n">
         <v>15</v>
       </c>
-      <c r="AX23" t="n">
+      <c r="AY23" t="n">
         <v>21</v>
       </c>
-      <c r="AY23" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA23" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB23" t="n">
         <v>101</v>
@@ -4865,34 +4865,34 @@
         <v>67</v>
       </c>
       <c r="AS24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT24" t="n">
         <v>3.5</v>
       </c>
-      <c r="AT24" t="n">
+      <c r="AU24" t="n">
         <v>7</v>
       </c>
-      <c r="AU24" t="n">
-        <v>41</v>
-      </c>
       <c r="AV24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW24" t="n">
         <v>4.33</v>
       </c>
-      <c r="AW24" t="n">
+      <c r="AX24" t="n">
         <v>10</v>
       </c>
-      <c r="AX24" t="n">
+      <c r="AY24" t="n">
         <v>17</v>
       </c>
-      <c r="AY24" t="n">
+      <c r="AZ24" t="n">
         <v>34</v>
       </c>
-      <c r="AZ24" t="n">
-        <v>41</v>
-      </c>
       <c r="BA24" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB24" t="n">
         <v>101</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>126</v>
       </c>
       <c r="BC24" t="n">
         <v>351</v>
@@ -5047,31 +5047,31 @@
         <v>67</v>
       </c>
       <c r="AS25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT25" t="n">
         <v>2.63</v>
       </c>
-      <c r="AT25" t="n">
+      <c r="AU25" t="n">
         <v>8.5</v>
       </c>
-      <c r="AU25" t="n">
-        <v>51</v>
-      </c>
       <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
         <v>5</v>
       </c>
-      <c r="AW25" t="n">
+      <c r="AX25" t="n">
         <v>19</v>
       </c>
-      <c r="AX25" t="n">
+      <c r="AY25" t="n">
         <v>29</v>
       </c>
-      <c r="AY25" t="n">
+      <c r="AZ25" t="n">
         <v>67</v>
       </c>
-      <c r="AZ25" t="n">
+      <c r="BA25" t="n">
         <v>81</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>201</v>
       </c>
       <c r="BB25" t="n">
         <v>201</v>
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.08</v>
@@ -5151,10 +5151,10 @@
         <v>1.57</v>
       </c>
       <c r="S26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U26" t="n">
         <v>2</v>
@@ -5166,19 +5166,19 @@
         <v>6.5</v>
       </c>
       <c r="X26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y26" t="n">
         <v>10</v>
       </c>
-      <c r="Y26" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="n">
         <v>7.5</v>
@@ -5196,10 +5196,10 @@
         <v>451</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
         <v>12</v>
@@ -5217,46 +5217,46 @@
         <v>4.33</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR26" t="n">
         <v>81</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.5</v>
+        <v>251</v>
       </c>
       <c r="AT26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU26" t="n">
         <v>8.5</v>
       </c>
-      <c r="AU26" t="n">
+      <c r="AV26" t="n">
         <v>67</v>
       </c>
-      <c r="AV26" t="n">
-        <v>5</v>
-      </c>
       <c r="AW26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX26" t="n">
         <v>19</v>
       </c>
-      <c r="AX26" t="n">
-        <v>34</v>
-      </c>
       <c r="AY26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ26" t="n">
         <v>67</v>
       </c>
-      <c r="AZ26" t="n">
+      <c r="BA26" t="n">
         <v>101</v>
       </c>
-      <c r="BA26" t="n">
+      <c r="BB26" t="n">
         <v>251</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>201</v>
       </c>
       <c r="BC26" t="n">
         <v>81</v>
@@ -5318,7 +5318,7 @@
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -5327,10 +5327,10 @@
         <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -5411,31 +5411,31 @@
         <v>81</v>
       </c>
       <c r="AS27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT27" t="n">
         <v>2.5</v>
       </c>
-      <c r="AT27" t="n">
+      <c r="AU27" t="n">
         <v>8.5</v>
       </c>
-      <c r="AU27" t="n">
+      <c r="AV27" t="n">
         <v>67</v>
       </c>
-      <c r="AV27" t="n">
+      <c r="AW27" t="n">
         <v>4.5</v>
       </c>
-      <c r="AW27" t="n">
+      <c r="AX27" t="n">
         <v>15</v>
       </c>
-      <c r="AX27" t="n">
+      <c r="AY27" t="n">
         <v>29</v>
       </c>
-      <c r="AY27" t="n">
-        <v>51</v>
-      </c>
       <c r="AZ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA27" t="n">
         <v>81</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>201</v>
       </c>
       <c r="BB27" t="n">
         <v>201</v>
@@ -5593,34 +5593,34 @@
         <v>34</v>
       </c>
       <c r="AS28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT28" t="n">
         <v>3.75</v>
       </c>
-      <c r="AT28" t="n">
+      <c r="AU28" t="n">
         <v>8.5</v>
       </c>
-      <c r="AU28" t="n">
-        <v>51</v>
-      </c>
       <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
         <v>9</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>34</v>
       </c>
       <c r="AX28" t="n">
         <v>34</v>
       </c>
       <c r="AY28" t="n">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="AZ28" t="n">
         <v>126</v>
       </c>
       <c r="BA28" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB28" t="n">
         <v>201</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>81</v>
       </c>
       <c r="BC28" t="n">
         <v>451</v>
@@ -5775,34 +5775,34 @@
         <v>81</v>
       </c>
       <c r="AS29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT29" t="n">
         <v>2.75</v>
       </c>
-      <c r="AT29" t="n">
+      <c r="AU29" t="n">
         <v>8</v>
       </c>
-      <c r="AU29" t="n">
-        <v>51</v>
-      </c>
       <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
         <v>4.33</v>
       </c>
-      <c r="AW29" t="n">
+      <c r="AX29" t="n">
         <v>12</v>
       </c>
-      <c r="AX29" t="n">
+      <c r="AY29" t="n">
         <v>21</v>
       </c>
-      <c r="AY29" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB29" t="n">
         <v>151</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>201</v>
       </c>
       <c r="BC29" t="n">
         <v>501</v>
@@ -5957,34 +5957,34 @@
         <v>34</v>
       </c>
       <c r="AS30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT30" t="n">
         <v>3.75</v>
       </c>
-      <c r="AT30" t="n">
+      <c r="AU30" t="n">
         <v>9</v>
       </c>
-      <c r="AU30" t="n">
-        <v>51</v>
-      </c>
       <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
         <v>9.5</v>
       </c>
-      <c r="AW30" t="n">
-        <v>41</v>
-      </c>
       <c r="AX30" t="n">
         <v>41</v>
       </c>
       <c r="AY30" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="AZ30" t="n">
         <v>151</v>
       </c>
       <c r="BA30" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB30" t="n">
         <v>251</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>101</v>
       </c>
       <c r="BC30" t="n">
         <v>126</v>
@@ -6139,34 +6139,34 @@
         <v>51</v>
       </c>
       <c r="AS31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT31" t="n">
         <v>2.63</v>
       </c>
-      <c r="AT31" t="n">
+      <c r="AU31" t="n">
         <v>8</v>
       </c>
-      <c r="AU31" t="n">
-        <v>51</v>
-      </c>
       <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
         <v>5.5</v>
       </c>
-      <c r="AW31" t="n">
+      <c r="AX31" t="n">
         <v>19</v>
       </c>
-      <c r="AX31" t="n">
+      <c r="AY31" t="n">
         <v>29</v>
       </c>
-      <c r="AY31" t="n">
+      <c r="AZ31" t="n">
         <v>67</v>
       </c>
-      <c r="AZ31" t="n">
+      <c r="BA31" t="n">
         <v>81</v>
       </c>
-      <c r="BA31" t="n">
+      <c r="BB31" t="n">
         <v>201</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>151</v>
       </c>
       <c r="BC31" t="n">
         <v>126</v>
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="J32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K32" t="n">
         <v>2.05</v>
@@ -6237,10 +6237,10 @@
         <v>2.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R32" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="n">
         <v>1.5</v>
@@ -6249,13 +6249,13 @@
         <v>2.5</v>
       </c>
       <c r="U32" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X32" t="n">
         <v>34</v>
@@ -6279,10 +6279,10 @@
         <v>7</v>
       </c>
       <c r="AE32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF32" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG32" t="n">
         <v>101</v>
@@ -6318,37 +6318,37 @@
         <v>151</v>
       </c>
       <c r="AR32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB32" t="n">
         <v>251</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>81</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>51</v>
       </c>
       <c r="BC32" t="n">
         <v>51</v>
@@ -6503,34 +6503,34 @@
         <v>81</v>
       </c>
       <c r="AS33" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT33" t="n">
         <v>2.25</v>
       </c>
-      <c r="AT33" t="n">
+      <c r="AU33" t="n">
         <v>9.5</v>
       </c>
-      <c r="AU33" t="n">
+      <c r="AV33" t="n">
         <v>81</v>
       </c>
-      <c r="AV33" t="n">
+      <c r="AW33" t="n">
         <v>6</v>
       </c>
-      <c r="AW33" t="n">
+      <c r="AX33" t="n">
         <v>29</v>
       </c>
-      <c r="AX33" t="n">
-        <v>41</v>
-      </c>
       <c r="AY33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ33" t="n">
         <v>101</v>
       </c>
-      <c r="AZ33" t="n">
+      <c r="BA33" t="n">
         <v>151</v>
       </c>
-      <c r="BA33" t="n">
-        <v>51</v>
-      </c>
       <c r="BB33" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BC33" t="n">
         <v>51</v>
@@ -6685,34 +6685,34 @@
         <v>51</v>
       </c>
       <c r="AS34" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT34" t="n">
         <v>2.5</v>
       </c>
-      <c r="AT34" t="n">
+      <c r="AU34" t="n">
         <v>12</v>
       </c>
-      <c r="AU34" t="n">
+      <c r="AV34" t="n">
         <v>101</v>
       </c>
-      <c r="AV34" t="n">
+      <c r="AW34" t="n">
         <v>10</v>
       </c>
-      <c r="AW34" t="n">
-        <v>51</v>
-      </c>
       <c r="AX34" t="n">
         <v>51</v>
       </c>
       <c r="AY34" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="AZ34" t="n">
         <v>351</v>
       </c>
       <c r="BA34" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BB34" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BC34" t="n">
         <v>51</v>
@@ -6783,10 +6783,10 @@
         <v>2.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="n">
         <v>1.53</v>
@@ -6867,34 +6867,34 @@
         <v>81</v>
       </c>
       <c r="AS35" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT35" t="n">
         <v>2.38</v>
       </c>
-      <c r="AT35" t="n">
+      <c r="AU35" t="n">
         <v>9</v>
       </c>
-      <c r="AU35" t="n">
+      <c r="AV35" t="n">
         <v>67</v>
       </c>
-      <c r="AV35" t="n">
+      <c r="AW35" t="n">
         <v>5</v>
       </c>
-      <c r="AW35" t="n">
+      <c r="AX35" t="n">
         <v>21</v>
       </c>
-      <c r="AX35" t="n">
+      <c r="AY35" t="n">
         <v>34</v>
       </c>
-      <c r="AY35" t="n">
+      <c r="AZ35" t="n">
         <v>67</v>
       </c>
-      <c r="AZ35" t="n">
+      <c r="BA35" t="n">
         <v>101</v>
       </c>
-      <c r="BA35" t="n">
+      <c r="BB35" t="n">
         <v>351</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>251</v>
       </c>
       <c r="BC35" t="n">
         <v>51</v>
@@ -6956,7 +6956,7 @@
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O36" t="n">
         <v>1.13</v>
@@ -7049,34 +7049,34 @@
         <v>34</v>
       </c>
       <c r="AS36" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT36" t="n">
         <v>4</v>
       </c>
-      <c r="AT36" t="n">
+      <c r="AU36" t="n">
         <v>11</v>
       </c>
-      <c r="AU36" t="n">
+      <c r="AV36" t="n">
         <v>67</v>
       </c>
-      <c r="AV36" t="n">
+      <c r="AW36" t="n">
         <v>13</v>
       </c>
-      <c r="AW36" t="n">
-        <v>51</v>
-      </c>
       <c r="AX36" t="n">
         <v>51</v>
       </c>
       <c r="AY36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ36" t="n">
         <v>351</v>
       </c>
-      <c r="AZ36" t="n">
+      <c r="BA36" t="n">
         <v>301</v>
       </c>
-      <c r="BA36" t="n">
+      <c r="BB36" t="n">
         <v>351</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>126</v>
       </c>
       <c r="BC36" t="n">
         <v>151</v>
@@ -7147,10 +7147,10 @@
         <v>2.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R37" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
         <v>1.5</v>
@@ -7231,34 +7231,34 @@
         <v>51</v>
       </c>
       <c r="AS37" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT37" t="n">
         <v>2.5</v>
       </c>
-      <c r="AT37" t="n">
+      <c r="AU37" t="n">
         <v>10</v>
       </c>
-      <c r="AU37" t="n">
+      <c r="AV37" t="n">
         <v>81</v>
       </c>
-      <c r="AV37" t="n">
+      <c r="AW37" t="n">
         <v>7.5</v>
       </c>
-      <c r="AW37" t="n">
+      <c r="AX37" t="n">
         <v>34</v>
       </c>
-      <c r="AX37" t="n">
-        <v>41</v>
-      </c>
       <c r="AY37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ37" t="n">
         <v>151</v>
       </c>
-      <c r="AZ37" t="n">
+      <c r="BA37" t="n">
         <v>201</v>
       </c>
-      <c r="BA37" t="n">
+      <c r="BB37" t="n">
         <v>351</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>201</v>
       </c>
       <c r="BC37" t="n">
         <v>151</v>
@@ -7413,31 +7413,31 @@
         <v>51</v>
       </c>
       <c r="AS38" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT38" t="n">
         <v>3.4</v>
       </c>
-      <c r="AT38" t="n">
+      <c r="AU38" t="n">
         <v>7</v>
       </c>
-      <c r="AU38" t="n">
-        <v>41</v>
-      </c>
       <c r="AV38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW38" t="n">
         <v>5</v>
       </c>
-      <c r="AW38" t="n">
+      <c r="AX38" t="n">
         <v>15</v>
       </c>
-      <c r="AX38" t="n">
+      <c r="AY38" t="n">
         <v>21</v>
       </c>
-      <c r="AY38" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA38" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB38" t="n">
         <v>101</v>
@@ -7481,112 +7481,112 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="H39" t="n">
         <v>2.6</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J39" t="n">
         <v>3.25</v>
       </c>
       <c r="K39" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L39" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P39" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="R39" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T39" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U39" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W39" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X39" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y39" t="n">
         <v>11</v>
       </c>
       <c r="Z39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA39" t="n">
         <v>23</v>
       </c>
       <c r="AB39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD39" t="n">
         <v>5</v>
       </c>
       <c r="AE39" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG39" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI39" t="n">
         <v>15</v>
       </c>
       <c r="AJ39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO39" t="n">
         <v>15</v>
       </c>
       <c r="AP39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ39" t="n">
         <v>51</v>
@@ -7595,34 +7595,34 @@
         <v>81</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.63</v>
+        <v>251</v>
       </c>
       <c r="AT39" t="n">
-        <v>8.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU39" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="AV39" t="n">
-        <v>4.75</v>
+        <v>67</v>
       </c>
       <c r="AW39" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AX39" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AY39" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AZ39" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA39" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB39" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC39" t="n">
         <v>126</v>
@@ -7663,40 +7663,40 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J40" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K40" t="n">
         <v>2.2</v>
       </c>
       <c r="L40" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O40" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P40" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S40" t="n">
         <v>1.4</v>
@@ -7711,7 +7711,7 @@
         <v>1.95</v>
       </c>
       <c r="W40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X40" t="n">
         <v>9</v>
@@ -7720,7 +7720,7 @@
         <v>8.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA40" t="n">
         <v>15</v>
@@ -7729,7 +7729,7 @@
         <v>26</v>
       </c>
       <c r="AC40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD40" t="n">
         <v>7</v>
@@ -7747,7 +7747,7 @@
         <v>11</v>
       </c>
       <c r="AI40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="n">
         <v>13</v>
@@ -7777,34 +7777,34 @@
         <v>51</v>
       </c>
       <c r="AS40" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT40" t="n">
         <v>2.75</v>
       </c>
-      <c r="AT40" t="n">
+      <c r="AU40" t="n">
         <v>8</v>
       </c>
-      <c r="AU40" t="n">
-        <v>51</v>
-      </c>
       <c r="AV40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW40" t="n">
         <v>6</v>
       </c>
-      <c r="AW40" t="n">
+      <c r="AX40" t="n">
         <v>21</v>
       </c>
-      <c r="AX40" t="n">
+      <c r="AY40" t="n">
         <v>29</v>
       </c>
-      <c r="AY40" t="n">
+      <c r="AZ40" t="n">
         <v>67</v>
       </c>
-      <c r="AZ40" t="n">
-        <v>81</v>
-      </c>
       <c r="BA40" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB40" t="n">
         <v>201</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>151</v>
       </c>
       <c r="BC40" t="n">
         <v>81</v>
@@ -7959,34 +7959,34 @@
         <v>51</v>
       </c>
       <c r="AS41" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT41" t="n">
         <v>2.75</v>
       </c>
-      <c r="AT41" t="n">
+      <c r="AU41" t="n">
         <v>8</v>
       </c>
-      <c r="AU41" t="n">
-        <v>51</v>
-      </c>
       <c r="AV41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW41" t="n">
         <v>5.5</v>
       </c>
-      <c r="AW41" t="n">
+      <c r="AX41" t="n">
         <v>21</v>
       </c>
-      <c r="AX41" t="n">
+      <c r="AY41" t="n">
         <v>29</v>
       </c>
-      <c r="AY41" t="n">
+      <c r="AZ41" t="n">
         <v>67</v>
       </c>
-      <c r="AZ41" t="n">
+      <c r="BA41" t="n">
         <v>81</v>
       </c>
-      <c r="BA41" t="n">
+      <c r="BB41" t="n">
         <v>201</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>151</v>
       </c>
       <c r="BC41" t="n">
         <v>81</v>
@@ -8048,13 +8048,13 @@
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q42" t="n">
         <v>2.35</v>
@@ -8093,7 +8093,7 @@
         <v>34</v>
       </c>
       <c r="AC42" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD42" t="n">
         <v>6</v>
@@ -8141,34 +8141,34 @@
         <v>81</v>
       </c>
       <c r="AS42" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT42" t="n">
         <v>2.5</v>
       </c>
-      <c r="AT42" t="n">
+      <c r="AU42" t="n">
         <v>8.5</v>
       </c>
-      <c r="AU42" t="n">
+      <c r="AV42" t="n">
         <v>67</v>
       </c>
-      <c r="AV42" t="n">
+      <c r="AW42" t="n">
         <v>5</v>
       </c>
-      <c r="AW42" t="n">
+      <c r="AX42" t="n">
         <v>19</v>
       </c>
-      <c r="AX42" t="n">
+      <c r="AY42" t="n">
         <v>29</v>
       </c>
-      <c r="AY42" t="n">
+      <c r="AZ42" t="n">
         <v>67</v>
       </c>
-      <c r="AZ42" t="n">
+      <c r="BA42" t="n">
         <v>101</v>
       </c>
-      <c r="BA42" t="n">
+      <c r="BB42" t="n">
         <v>251</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>201</v>
       </c>
       <c r="BC42" t="n">
         <v>81</v>
@@ -8323,31 +8323,31 @@
         <v>81</v>
       </c>
       <c r="AS43" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT43" t="n">
         <v>2.5</v>
       </c>
-      <c r="AT43" t="n">
+      <c r="AU43" t="n">
         <v>8.5</v>
       </c>
-      <c r="AU43" t="n">
+      <c r="AV43" t="n">
         <v>67</v>
       </c>
-      <c r="AV43" t="n">
+      <c r="AW43" t="n">
         <v>4.5</v>
       </c>
-      <c r="AW43" t="n">
+      <c r="AX43" t="n">
         <v>15</v>
       </c>
-      <c r="AX43" t="n">
+      <c r="AY43" t="n">
         <v>29</v>
       </c>
-      <c r="AY43" t="n">
-        <v>51</v>
-      </c>
       <c r="AZ43" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA43" t="n">
         <v>81</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>251</v>
       </c>
       <c r="BB43" t="n">
         <v>251</v>
@@ -8505,34 +8505,34 @@
         <v>101</v>
       </c>
       <c r="AS44" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT44" t="n">
         <v>2.38</v>
       </c>
-      <c r="AT44" t="n">
+      <c r="AU44" t="n">
         <v>9</v>
       </c>
-      <c r="AU44" t="n">
+      <c r="AV44" t="n">
         <v>67</v>
       </c>
-      <c r="AV44" t="n">
+      <c r="AW44" t="n">
         <v>4</v>
       </c>
-      <c r="AW44" t="n">
+      <c r="AX44" t="n">
         <v>12</v>
       </c>
-      <c r="AX44" t="n">
+      <c r="AY44" t="n">
         <v>26</v>
       </c>
-      <c r="AY44" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ44" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA44" t="n">
         <v>67</v>
       </c>
-      <c r="BA44" t="n">
+      <c r="BB44" t="n">
         <v>201</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>301</v>
       </c>
       <c r="BC44" t="n">
         <v>81</v>
@@ -8573,7 +8573,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H45" t="n">
         <v>3.7</v>
@@ -8588,13 +8588,13 @@
         <v>2.38</v>
       </c>
       <c r="L45" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
         <v>1.2</v>
@@ -8609,28 +8609,28 @@
         <v>2.15</v>
       </c>
       <c r="S45" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U45" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V45" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X45" t="n">
         <v>9</v>
-      </c>
-      <c r="X45" t="n">
-        <v>9.5</v>
       </c>
       <c r="Y45" t="n">
         <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
@@ -8672,10 +8672,10 @@
         <v>34</v>
       </c>
       <c r="AN45" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP45" t="n">
         <v>17</v>
@@ -8687,34 +8687,34 @@
         <v>41</v>
       </c>
       <c r="AS45" t="n">
-        <v>3.4</v>
+        <v>101</v>
       </c>
       <c r="AT45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU45" t="n">
         <v>7.5</v>
       </c>
-      <c r="AU45" t="n">
-        <v>51</v>
-      </c>
       <c r="AV45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW45" t="n">
         <v>6.5</v>
       </c>
-      <c r="AW45" t="n">
-        <v>21</v>
-      </c>
       <c r="AX45" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY45" t="n">
         <v>26</v>
       </c>
-      <c r="AY45" t="n">
+      <c r="AZ45" t="n">
         <v>67</v>
       </c>
-      <c r="AZ45" t="n">
+      <c r="BA45" t="n">
         <v>81</v>
       </c>
-      <c r="BA45" t="n">
+      <c r="BB45" t="n">
         <v>151</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>101</v>
       </c>
       <c r="BC45" t="n">
         <v>81</v>
@@ -8785,13 +8785,13 @@
         <v>4.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R46" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T46" t="n">
         <v>3.25</v>
@@ -8869,34 +8869,34 @@
         <v>67</v>
       </c>
       <c r="AS46" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT46" t="n">
         <v>3.25</v>
       </c>
-      <c r="AT46" t="n">
+      <c r="AU46" t="n">
         <v>7.5</v>
       </c>
-      <c r="AU46" t="n">
-        <v>41</v>
-      </c>
       <c r="AV46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW46" t="n">
         <v>4.33</v>
       </c>
-      <c r="AW46" t="n">
+      <c r="AX46" t="n">
         <v>10</v>
       </c>
-      <c r="AX46" t="n">
+      <c r="AY46" t="n">
         <v>19</v>
       </c>
-      <c r="AY46" t="n">
+      <c r="AZ46" t="n">
         <v>34</v>
       </c>
-      <c r="AZ46" t="n">
-        <v>51</v>
-      </c>
       <c r="BA46" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB46" t="n">
         <v>101</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>151</v>
       </c>
       <c r="BC46" t="n">
         <v>451</v>
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="H47" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I47" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="K47" t="n">
         <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
@@ -8961,124 +8961,124 @@
         <v>7.9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P47" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q47" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U47" t="n">
         <v>1.75</v>
       </c>
-      <c r="R47" t="n">
-        <v>2</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.7</v>
-      </c>
       <c r="V47" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W47" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="X47" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="Y47" t="n">
         <v>8.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC47" t="n">
         <v>7.9</v>
       </c>
       <c r="AD47" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF47" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AK47" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL47" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AM47" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="AO47" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AR47" t="n">
         <v>60</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.9</v>
+        <v>250</v>
       </c>
       <c r="AT47" t="n">
-        <v>7</v>
+        <v>2.85</v>
       </c>
       <c r="AU47" t="n">
-        <v>60</v>
+        <v>7.4</v>
       </c>
       <c r="AV47" t="n">
-        <v>5.8</v>
+        <v>65</v>
       </c>
       <c r="AW47" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AX47" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY47" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="AZ47" t="n">
         <v>120</v>
       </c>
       <c r="BA47" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="BB47" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="BC47" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -777,7 +777,7 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
         <v>2.2</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
@@ -1526,16 +1526,16 @@
         <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1556,7 +1556,7 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
@@ -1577,16 +1577,16 @@
         <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>251</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
@@ -1860,7 +1860,7 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -2102,13 +2102,13 @@
         <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>23</v>
@@ -2150,13 +2150,13 @@
         <v>4.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
         <v>67</v>
@@ -2165,7 +2165,7 @@
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2415,10 +2415,10 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2579,7 +2579,7 @@
         <v>2.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L12" t="n">
         <v>5.5</v>
@@ -2609,10 +2609,10 @@
         <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
@@ -2633,7 +2633,7 @@
         <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
         <v>8</v>
@@ -2669,10 +2669,10 @@
         <v>3.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
         <v>23</v>
@@ -2687,7 +2687,7 @@
         <v>3.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
@@ -2705,7 +2705,7 @@
         <v>101</v>
       </c>
       <c r="BA12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
         <v>201</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -3519,10 +3519,10 @@
         <v>2.5</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W17" t="n">
         <v>9.5</v>
@@ -3689,10 +3689,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R18" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3701,7 +3701,7 @@
         <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V18" t="n">
         <v>2.1</v>
@@ -3871,10 +3871,10 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -3883,7 +3883,7 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V19" t="n">
         <v>2.2</v>
@@ -4032,7 +4032,7 @@
         <v>3.9</v>
       </c>
       <c r="J20" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K20" t="n">
         <v>2.3</v>
@@ -4053,7 +4053,7 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R20" t="n">
         <v>2</v>
@@ -4065,7 +4065,7 @@
         <v>3.25</v>
       </c>
       <c r="U20" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V20" t="n">
         <v>2</v>
@@ -4399,7 +4399,7 @@
         <v>2.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L22" t="n">
         <v>3.4</v>
@@ -4411,16 +4411,16 @@
         <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S22" t="n">
         <v>1.3</v>
@@ -4599,10 +4599,10 @@
         <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R23" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S23" t="n">
         <v>1.29</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -4948,7 +4948,7 @@
         <v>2.05</v>
       </c>
       <c r="L25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
@@ -4969,10 +4969,10 @@
         <v>1.65</v>
       </c>
       <c r="S25" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U25" t="n">
         <v>1.95</v>
@@ -4993,13 +4993,13 @@
         <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="n">
         <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
@@ -5011,7 +5011,7 @@
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH25" t="n">
         <v>9</v>
@@ -5032,7 +5032,7 @@
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>13</v>
@@ -5050,7 +5050,7 @@
         <v>201</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU25" t="n">
         <v>8.5</v>
@@ -5071,10 +5071,10 @@
         <v>67</v>
       </c>
       <c r="BA25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB25" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
@@ -5124,19 +5124,19 @@
         <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
         <v>1.95</v>
       </c>
       <c r="L26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
@@ -5145,10 +5145,10 @@
         <v>2.63</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S26" t="n">
         <v>1.53</v>
@@ -5157,16 +5157,16 @@
         <v>2.38</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V26" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W26" t="n">
         <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y26" t="n">
         <v>10</v>
@@ -5181,7 +5181,7 @@
         <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
@@ -5193,13 +5193,13 @@
         <v>67</v>
       </c>
       <c r="AG26" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH26" t="n">
         <v>7.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>12</v>
@@ -5235,19 +5235,19 @@
         <v>2.38</v>
       </c>
       <c r="AU26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
         <v>67</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX26" t="n">
         <v>19</v>
       </c>
       <c r="AY26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ26" t="n">
         <v>67</v>
@@ -5256,7 +5256,7 @@
         <v>101</v>
       </c>
       <c r="BB26" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC26" t="n">
         <v>81</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
@@ -5321,16 +5321,16 @@
         <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -5345,16 +5345,16 @@
         <v>1.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
         <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA27" t="n">
         <v>23</v>
@@ -5378,16 +5378,16 @@
         <v>351</v>
       </c>
       <c r="AH27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
         <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
         <v>23</v>
@@ -5399,7 +5399,7 @@
         <v>4.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
         <v>29</v>
@@ -5426,7 +5426,7 @@
         <v>4.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
@@ -6055,10 +6055,10 @@
         <v>3.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S31" t="n">
         <v>1.44</v>
@@ -6965,10 +6965,10 @@
         <v>6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R36" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S36" t="n">
         <v>1.22</v>
@@ -7117,46 +7117,46 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J37" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K37" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
         <v>6.5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R37" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T37" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U37" t="n">
         <v>2.25</v>
@@ -7165,7 +7165,7 @@
         <v>1.57</v>
       </c>
       <c r="W37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X37" t="n">
         <v>6.5</v>
@@ -7174,16 +7174,16 @@
         <v>9</v>
       </c>
       <c r="Z37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD37" t="n">
         <v>7</v>
@@ -7198,10 +7198,10 @@
         <v>900</v>
       </c>
       <c r="AH37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ37" t="n">
         <v>21</v>
@@ -7219,22 +7219,22 @@
         <v>3.4</v>
       </c>
       <c r="AO37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS37" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU37" t="n">
         <v>10</v>
@@ -7243,7 +7243,7 @@
         <v>81</v>
       </c>
       <c r="AW37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX37" t="n">
         <v>34</v>
@@ -7261,7 +7261,7 @@
         <v>351</v>
       </c>
       <c r="BC37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD37" t="n">
         <v>151</v>
@@ -7481,13 +7481,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H39" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I39" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J39" t="n">
         <v>3.25</v>
@@ -7499,10 +7499,10 @@
         <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O39" t="n">
         <v>1.44</v>
@@ -7511,34 +7511,34 @@
         <v>2.63</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R39" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S39" t="n">
         <v>1.5</v>
       </c>
-      <c r="S39" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T39" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V39" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y39" t="n">
         <v>11</v>
       </c>
       <c r="Z39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA39" t="n">
         <v>23</v>
@@ -7574,7 +7574,7 @@
         <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM39" t="n">
         <v>41</v>
@@ -7607,13 +7607,13 @@
         <v>67</v>
       </c>
       <c r="AW39" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX39" t="n">
         <v>19</v>
       </c>
       <c r="AY39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ39" t="n">
         <v>67</v>
@@ -7628,7 +7628,7 @@
         <v>126</v>
       </c>
       <c r="BD39" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40">
@@ -7699,7 +7699,7 @@
         <v>1.85</v>
       </c>
       <c r="S40" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T40" t="n">
         <v>2.75</v>
@@ -7881,7 +7881,7 @@
         <v>1.8</v>
       </c>
       <c r="S41" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T41" t="n">
         <v>2.75</v>
@@ -8048,7 +8048,7 @@
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -8057,10 +8057,10 @@
         <v>2.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8573,22 +8573,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K45" t="n">
         <v>2.3</v>
       </c>
-      <c r="K45" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L45" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
@@ -8603,10 +8603,10 @@
         <v>4.33</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R45" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
         <v>1.33</v>
@@ -8615,22 +8615,22 @@
         <v>3.25</v>
       </c>
       <c r="U45" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V45" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y45" t="n">
         <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
@@ -8657,13 +8657,13 @@
         <v>15</v>
       </c>
       <c r="AI45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ45" t="n">
         <v>15</v>
       </c>
       <c r="AK45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL45" t="n">
         <v>34</v>
@@ -8672,16 +8672,16 @@
         <v>34</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO45" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP45" t="n">
         <v>17</v>
       </c>
       <c r="AQ45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR45" t="n">
         <v>41</v>
@@ -8696,13 +8696,13 @@
         <v>7.5</v>
       </c>
       <c r="AV45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY45" t="n">
         <v>26</v>
@@ -8755,22 +8755,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K46" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L46" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
@@ -8779,28 +8779,28 @@
         <v>15</v>
       </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P46" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S46" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="T46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U46" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W46" t="n">
         <v>13</v>
@@ -8815,7 +8815,7 @@
         <v>41</v>
       </c>
       <c r="AA46" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB46" t="n">
         <v>29</v>
@@ -8824,19 +8824,19 @@
         <v>15</v>
       </c>
       <c r="AD46" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF46" t="n">
         <v>41</v>
       </c>
       <c r="AG46" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI46" t="n">
         <v>11</v>
@@ -8845,7 +8845,7 @@
         <v>9</v>
       </c>
       <c r="AK46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL46" t="n">
         <v>15</v>
@@ -8869,13 +8869,13 @@
         <v>67</v>
       </c>
       <c r="AS46" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU46" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV46" t="n">
         <v>41</v>
@@ -8887,19 +8887,19 @@
         <v>10</v>
       </c>
       <c r="AY46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ46" t="n">
         <v>34</v>
       </c>
       <c r="BA46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB46" t="n">
         <v>101</v>
       </c>
       <c r="BC46" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD46" t="n">
         <v>151</v>
@@ -8943,7 +8943,7 @@
         <v>3.65</v>
       </c>
       <c r="I47" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="J47" t="n">
         <v>2.32</v>
@@ -8973,19 +8973,19 @@
         <v>1.98</v>
       </c>
       <c r="S47" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T47" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="U47" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V47" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W47" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X47" t="n">
         <v>8.5</v>
@@ -8994,7 +8994,7 @@
         <v>8.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA47" t="n">
         <v>13.5</v>
@@ -9009,7 +9009,7 @@
         <v>7.2</v>
       </c>
       <c r="AE47" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF47" t="n">
         <v>65</v>
@@ -9039,13 +9039,13 @@
         <v>3.65</v>
       </c>
       <c r="AO47" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP47" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR47" t="n">
         <v>60</v>
@@ -9054,7 +9054,7 @@
         <v>250</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="AU47" t="n">
         <v>7.4</v>
@@ -9069,7 +9069,7 @@
         <v>23</v>
       </c>
       <c r="AY47" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ47" t="n">
         <v>120</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -777,13 +777,13 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
         <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T2" t="n">
         <v>3.4</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -1165,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>17</v>
@@ -1201,7 +1201,7 @@
         <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1237,7 +1237,7 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
         <v>26</v>
@@ -1508,7 +1508,7 @@
         <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1690,7 +1690,7 @@
         <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S7" t="n">
         <v>1.57</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -1872,7 +1872,7 @@
         <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1887,10 +1887,10 @@
         <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>9.5</v>
@@ -1899,7 +1899,7 @@
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -1932,7 +1932,7 @@
         <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
@@ -1968,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
@@ -2108,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK9" t="n">
         <v>23</v>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
         <v>3.25</v>
@@ -2227,31 +2227,31 @@
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -2269,25 +2269,25 @@
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
         <v>10</v>
@@ -2320,16 +2320,16 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
         <v>15</v>
@@ -2579,7 +2579,7 @@
         <v>2.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
         <v>5.5</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
@@ -2767,22 +2767,22 @@
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
         <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
         <v>3.6</v>
@@ -3128,7 +3128,7 @@
         <v>2.18</v>
       </c>
       <c r="L15" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
@@ -3140,7 +3140,7 @@
         <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="Q15" t="n">
         <v>1.55</v>
@@ -3161,10 +3161,10 @@
         <v>2.54</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
         <v>9.25</v>
@@ -3179,10 +3179,10 @@
         <v>20</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>9</v>
@@ -3194,16 +3194,16 @@
         <v>120</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI15" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AJ15" t="n">
         <v>7.3</v>
       </c>
       <c r="AK15" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL15" t="n">
         <v>12</v>
@@ -3212,22 +3212,22 @@
         <v>15</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ15" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR15" t="n">
         <v>90</v>
       </c>
       <c r="AS15" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT15" t="n">
         <v>3.15</v>
@@ -3239,7 +3239,7 @@
         <v>40</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AX15" t="n">
         <v>10.5</v>
@@ -3519,10 +3519,10 @@
         <v>2.5</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
         <v>9.5</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
@@ -3668,13 +3668,13 @@
         <v>2.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3683,16 +3683,16 @@
         <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3701,10 +3701,10 @@
         <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="n">
         <v>11</v>
@@ -3719,19 +3719,19 @@
         <v>29</v>
       </c>
       <c r="AA18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="n">
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
         <v>41</v>
@@ -3740,7 +3740,7 @@
         <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
@@ -3755,7 +3755,7 @@
         <v>17</v>
       </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
         <v>5</v>
@@ -3788,7 +3788,7 @@
         <v>4.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
         <v>21</v>
@@ -3871,10 +3871,10 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R19" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -3883,7 +3883,7 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
         <v>2.2</v>
@@ -4032,7 +4032,7 @@
         <v>3.9</v>
       </c>
       <c r="J20" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K20" t="n">
         <v>2.3</v>
@@ -4053,7 +4053,7 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R20" t="n">
         <v>2</v>
@@ -4065,7 +4065,7 @@
         <v>3.25</v>
       </c>
       <c r="U20" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
         <v>2</v>
@@ -4399,7 +4399,7 @@
         <v>2.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L22" t="n">
         <v>3.4</v>
@@ -4751,19 +4751,19 @@
         </is>
       </c>
       <c r="G24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H24" t="n">
         <v>3.6</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I24" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L24" t="n">
         <v>2.5</v>
@@ -4775,16 +4775,16 @@
         <v>15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S24" t="n">
         <v>1.29</v>
@@ -4820,7 +4820,7 @@
         <v>15</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" t="n">
         <v>12</v>
@@ -4844,19 +4844,19 @@
         <v>17</v>
       </c>
       <c r="AL24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM24" t="n">
         <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO24" t="n">
         <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
         <v>51</v>
@@ -4886,7 +4886,7 @@
         <v>17</v>
       </c>
       <c r="AZ24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA24" t="n">
         <v>41</v>
@@ -4933,16 +4933,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K25" t="n">
         <v>2.05</v>
@@ -4951,22 +4951,22 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R25" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S25" t="n">
         <v>1.5</v>
@@ -4981,16 +4981,16 @@
         <v>1.8</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y25" t="n">
         <v>9.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="n">
         <v>19</v>
@@ -5005,7 +5005,7 @@
         <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
@@ -5017,13 +5017,13 @@
         <v>9</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="n">
         <v>29</v>
@@ -5035,7 +5035,7 @@
         <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
@@ -5056,13 +5056,13 @@
         <v>8.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>29</v>
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
@@ -5139,34 +5139,34 @@
         <v>7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R26" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S26" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T26" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W26" t="n">
         <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
         <v>10</v>
@@ -5181,13 +5181,13 @@
         <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>67</v>
@@ -5196,10 +5196,10 @@
         <v>501</v>
       </c>
       <c r="AH26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
         <v>12</v>
@@ -5232,7 +5232,7 @@
         <v>251</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
@@ -5241,7 +5241,7 @@
         <v>67</v>
       </c>
       <c r="AW26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX26" t="n">
         <v>19</v>
@@ -5315,10 +5315,10 @@
         <v>3.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
         <v>1.36</v>
@@ -5327,10 +5327,10 @@
         <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R27" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
@@ -6034,7 +6034,7 @@
         <v>3.3</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K31" t="n">
         <v>2.1</v>
@@ -6213,7 +6213,7 @@
         <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="J32" t="n">
         <v>7</v>
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
@@ -6401,7 +6401,7 @@
         <v>2.75</v>
       </c>
       <c r="K33" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L33" t="n">
         <v>5</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>4</v>
@@ -6580,7 +6580,7 @@
         <v>8.5</v>
       </c>
       <c r="J34" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="K34" t="n">
         <v>2.1</v>
@@ -6935,13 +6935,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H36" t="n">
         <v>7.5</v>
       </c>
       <c r="I36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" t="n">
         <v>1.53</v>
@@ -6950,13 +6950,13 @@
         <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O36" t="n">
         <v>1.13</v>
@@ -6977,13 +6977,13 @@
         <v>4</v>
       </c>
       <c r="U36" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W36" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X36" t="n">
         <v>6.5</v>
@@ -6992,13 +6992,13 @@
         <v>11</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA36" t="n">
         <v>11</v>
       </c>
       <c r="AB36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
         <v>19</v>
@@ -7007,7 +7007,7 @@
         <v>15</v>
       </c>
       <c r="AE36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF36" t="n">
         <v>81</v>
@@ -7034,7 +7034,7 @@
         <v>67</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO36" t="n">
         <v>5</v>
@@ -7049,7 +7049,7 @@
         <v>34</v>
       </c>
       <c r="AS36" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT36" t="n">
         <v>4</v>
@@ -7070,10 +7070,10 @@
         <v>51</v>
       </c>
       <c r="AZ36" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA36" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB36" t="n">
         <v>351</v>
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
@@ -7135,10 +7135,10 @@
         <v>6.5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
@@ -7511,16 +7511,16 @@
         <v>2.63</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R39" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T39" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U39" t="n">
         <v>1.91</v>
@@ -7693,13 +7693,13 @@
         <v>3.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R40" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S40" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T40" t="n">
         <v>2.75</v>
@@ -7848,19 +7848,19 @@
         <v>1.95</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J41" t="n">
         <v>2.63</v>
       </c>
       <c r="K41" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M41" t="n">
         <v>1.06</v>
@@ -7878,25 +7878,25 @@
         <v>2.05</v>
       </c>
       <c r="R41" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S41" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="T41" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U41" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y41" t="n">
         <v>9</v>
@@ -7905,13 +7905,13 @@
         <v>17</v>
       </c>
       <c r="AA41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD41" t="n">
         <v>6.5</v>
@@ -7923,7 +7923,7 @@
         <v>51</v>
       </c>
       <c r="AG41" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH41" t="n">
         <v>11</v>
@@ -7938,10 +7938,10 @@
         <v>41</v>
       </c>
       <c r="AL41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN41" t="n">
         <v>4</v>
@@ -7953,7 +7953,7 @@
         <v>21</v>
       </c>
       <c r="AQ41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR41" t="n">
         <v>51</v>
@@ -7962,7 +7962,7 @@
         <v>151</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU41" t="n">
         <v>8</v>
@@ -7983,7 +7983,7 @@
         <v>67</v>
       </c>
       <c r="BA41" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB41" t="n">
         <v>201</v>
@@ -8209,22 +8209,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J43" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K43" t="n">
         <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.08</v>
@@ -8260,16 +8260,16 @@
         <v>7.5</v>
       </c>
       <c r="X43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y43" t="n">
         <v>11</v>
       </c>
       <c r="Z43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB43" t="n">
         <v>41</v>
@@ -8281,13 +8281,13 @@
         <v>6</v>
       </c>
       <c r="AE43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF43" t="n">
         <v>51</v>
       </c>
       <c r="AG43" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AH43" t="n">
         <v>7.5</v>
@@ -8299,7 +8299,7 @@
         <v>11</v>
       </c>
       <c r="AK43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL43" t="n">
         <v>23</v>
@@ -8308,10 +8308,10 @@
         <v>41</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP43" t="n">
         <v>29</v>
@@ -8338,7 +8338,7 @@
         <v>4.5</v>
       </c>
       <c r="AX43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY43" t="n">
         <v>29</v>
@@ -8761,7 +8761,7 @@
         <v>3.8</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="J46" t="n">
         <v>3.75</v>
@@ -8785,13 +8785,13 @@
         <v>4.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R46" t="n">
         <v>2.25</v>
       </c>
       <c r="S46" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T46" t="n">
         <v>3.4</v>
@@ -8937,58 +8937,58 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H47" t="n">
         <v>3.65</v>
       </c>
       <c r="I47" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
         <v>2.32</v>
       </c>
       <c r="K47" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L47" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P47" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="Q47" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U47" t="n">
         <v>1.78</v>
       </c>
-      <c r="R47" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W47" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="X47" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y47" t="n">
         <v>8.25</v>
@@ -9000,34 +9000,34 @@
         <v>13.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD47" t="n">
         <v>7.2</v>
       </c>
       <c r="AE47" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG47" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ47" t="n">
         <v>13.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL47" t="n">
         <v>37</v>
@@ -9039,13 +9039,13 @@
         <v>3.65</v>
       </c>
       <c r="AO47" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP47" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR47" t="n">
         <v>60</v>
@@ -9054,28 +9054,28 @@
         <v>250</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="AU47" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV47" t="n">
         <v>65</v>
       </c>
       <c r="AW47" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AX47" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY47" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ47" t="n">
         <v>120</v>
       </c>
       <c r="BA47" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB47" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -783,7 +783,7 @@
         <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
         <v>3.4</v>
@@ -1129,10 +1129,10 @@
         <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -1508,7 +1508,7 @@
         <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1690,7 +1690,7 @@
         <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>1.57</v>
@@ -1872,7 +1872,7 @@
         <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
@@ -2218,7 +2218,7 @@
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2284,7 +2284,7 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -2338,7 +2338,7 @@
         <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
         <v>67</v>
@@ -2350,7 +2350,7 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -2767,22 +2767,22 @@
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I16" t="n">
         <v>2.5</v>
@@ -3352,19 +3352,19 @@
         <v>8</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
         <v>16</v>
       </c>
       <c r="AB16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AD16" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AE16" t="n">
         <v>9.25</v>
@@ -3391,19 +3391,19 @@
         <v>16</v>
       </c>
       <c r="AM16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP16" t="n">
         <v>18</v>
       </c>
       <c r="AQ16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR16" t="n">
         <v>75</v>
@@ -3424,13 +3424,13 @@
         <v>4.65</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA16" t="n">
         <v>80</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="n">
         <v>2.25</v>
@@ -3907,7 +3907,7 @@
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
         <v>7</v>
@@ -3931,7 +3931,7 @@
         <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="n">
         <v>26</v>
@@ -3949,7 +3949,7 @@
         <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR19" t="n">
         <v>51</v>
@@ -3964,13 +3964,13 @@
         <v>7.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW19" t="n">
         <v>5.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -4411,16 +4411,16 @@
         <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S22" t="n">
         <v>1.3</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L24" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -4781,10 +4781,10 @@
         <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R24" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S24" t="n">
         <v>1.29</v>
@@ -4793,79 +4793,79 @@
         <v>3.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V24" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W24" t="n">
         <v>15</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB24" t="n">
         <v>26</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>29</v>
       </c>
       <c r="AC24" t="n">
         <v>15</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF24" t="n">
         <v>34</v>
       </c>
       <c r="AG24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
         <v>9</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM24" t="n">
         <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
         <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT24" t="n">
         <v>3.5</v>
@@ -4877,19 +4877,19 @@
         <v>41</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY24" t="n">
         <v>17</v>
       </c>
       <c r="AZ24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB24" t="n">
         <v>101</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K25" t="n">
         <v>2.05</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
@@ -4984,13 +4984,13 @@
         <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="n">
         <v>19</v>
@@ -5011,13 +5011,13 @@
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
         <v>13</v>
@@ -5026,7 +5026,7 @@
         <v>41</v>
       </c>
       <c r="AL25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
         <v>41</v>
@@ -5065,10 +5065,10 @@
         <v>21</v>
       </c>
       <c r="AY25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA25" t="n">
         <v>101</v>
@@ -5118,10 +5118,10 @@
         <v>2.5</v>
       </c>
       <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3</v>
       </c>
       <c r="J26" t="n">
         <v>3.4</v>
@@ -5130,13 +5130,13 @@
         <v>1.91</v>
       </c>
       <c r="L26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.5</v>
@@ -5229,7 +5229,7 @@
         <v>81</v>
       </c>
       <c r="AS26" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT26" t="n">
         <v>2.25</v>
@@ -5303,16 +5303,16 @@
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J27" t="n">
         <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
@@ -5333,28 +5333,28 @@
         <v>1.67</v>
       </c>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U27" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y27" t="n">
         <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
         <v>23</v>
@@ -5363,10 +5363,10 @@
         <v>34</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>15</v>
@@ -5375,7 +5375,7 @@
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH27" t="n">
         <v>8</v>
@@ -5387,7 +5387,7 @@
         <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
         <v>23</v>
@@ -5396,13 +5396,13 @@
         <v>34</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO27" t="n">
         <v>15</v>
       </c>
       <c r="AP27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
         <v>51</v>
@@ -5414,22 +5414,22 @@
         <v>201</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW27" t="n">
         <v>4.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
         <v>51</v>
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
@@ -6034,7 +6034,7 @@
         <v>3.3</v>
       </c>
       <c r="J31" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K31" t="n">
         <v>2.1</v>
@@ -6213,7 +6213,7 @@
         <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="J32" t="n">
         <v>7</v>
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
@@ -6401,7 +6401,7 @@
         <v>2.75</v>
       </c>
       <c r="K33" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L33" t="n">
         <v>5</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H34" t="n">
         <v>4</v>
@@ -6580,7 +6580,7 @@
         <v>8.5</v>
       </c>
       <c r="J34" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="K34" t="n">
         <v>2.1</v>
@@ -6935,28 +6935,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="H36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J36" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O36" t="n">
         <v>1.13</v>
@@ -6965,10 +6965,10 @@
         <v>6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R36" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S36" t="n">
         <v>1.22</v>
@@ -6983,13 +6983,13 @@
         <v>1.67</v>
       </c>
       <c r="W36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X36" t="n">
         <v>6.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z36" t="n">
         <v>7</v>
@@ -7004,13 +7004,13 @@
         <v>19</v>
       </c>
       <c r="AD36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG36" t="n">
         <v>351</v>
@@ -7022,10 +7022,10 @@
         <v>51</v>
       </c>
       <c r="AJ36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK36" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL36" t="n">
         <v>81</v>
@@ -7043,7 +7043,7 @@
         <v>17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR36" t="n">
         <v>34</v>
@@ -7055,25 +7055,25 @@
         <v>4</v>
       </c>
       <c r="AU36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX36" t="n">
         <v>51</v>
       </c>
       <c r="AY36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ36" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA36" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB36" t="n">
         <v>351</v>
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
@@ -7147,10 +7147,10 @@
         <v>2.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R37" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S37" t="n">
         <v>1.53</v>
@@ -7499,10 +7499,10 @@
         <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O39" t="n">
         <v>1.44</v>
@@ -7869,10 +7869,10 @@
         <v>10</v>
       </c>
       <c r="O41" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P41" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q41" t="n">
         <v>2.05</v>
@@ -8421,10 +8421,10 @@
         <v>2.63</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="n">
         <v>1.53</v>
@@ -8573,22 +8573,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K45" t="n">
         <v>2.3</v>
       </c>
       <c r="L45" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
@@ -8597,16 +8597,16 @@
         <v>13</v>
       </c>
       <c r="O45" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P45" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S45" t="n">
         <v>1.33</v>
@@ -8630,22 +8630,22 @@
         <v>8.5</v>
       </c>
       <c r="Z45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA45" t="n">
         <v>15</v>
       </c>
-      <c r="AA45" t="n">
-        <v>13</v>
-      </c>
       <c r="AB45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC45" t="n">
         <v>13</v>
       </c>
       <c r="AD45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF45" t="n">
         <v>41</v>
@@ -8657,16 +8657,16 @@
         <v>15</v>
       </c>
       <c r="AI45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK45" t="n">
         <v>41</v>
       </c>
       <c r="AL45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM45" t="n">
         <v>34</v>
@@ -8675,16 +8675,16 @@
         <v>4</v>
       </c>
       <c r="AO45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS45" t="n">
         <v>101</v>
@@ -8702,16 +8702,16 @@
         <v>6</v>
       </c>
       <c r="AX45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ45" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA45" t="n">
         <v>67</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>81</v>
       </c>
       <c r="BB45" t="n">
         <v>151</v>
@@ -8761,7 +8761,7 @@
         <v>3.8</v>
       </c>
       <c r="I46" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
         <v>3.75</v>
@@ -8776,7 +8776,7 @@
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O46" t="n">
         <v>1.18</v>
@@ -8785,10 +8785,10 @@
         <v>4.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R46" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S46" t="n">
         <v>1.3</v>
@@ -8818,7 +8818,7 @@
         <v>23</v>
       </c>
       <c r="AB46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC46" t="n">
         <v>15</v>
@@ -8857,10 +8857,10 @@
         <v>5.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ46" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -759,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.95</v>
@@ -801,7 +801,7 @@
         <v>34</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
         <v>67</v>
@@ -828,7 +828,7 @@
         <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>7.5</v>
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
         <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
@@ -1863,10 +1863,10 @@
         <v>7.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
         <v>2.25</v>
@@ -1890,7 +1890,7 @@
         <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.5</v>
@@ -1899,7 +1899,7 @@
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -1920,7 +1920,7 @@
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
         <v>17</v>
@@ -1941,10 +1941,10 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1968,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
@@ -2042,7 +2042,7 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -2347,10 +2347,10 @@
         <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
@@ -2415,10 +2415,10 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="R11" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H12" t="n">
         <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J12" t="n">
         <v>2.1</v>
@@ -2618,13 +2618,13 @@
         <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
         <v>12</v>
@@ -2669,7 +2669,7 @@
         <v>3.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP12" t="n">
         <v>17</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -4775,16 +4775,16 @@
         <v>15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R24" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S24" t="n">
         <v>1.29</v>
@@ -6031,7 +6031,7 @@
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J31" t="n">
         <v>2.88</v>
@@ -6043,28 +6043,28 @@
         <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R31" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S31" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="T31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U31" t="n">
         <v>1.8</v>
@@ -6091,7 +6091,7 @@
         <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
         <v>6.5</v>
@@ -6103,7 +6103,7 @@
         <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH31" t="n">
         <v>9.5</v>
@@ -6118,13 +6118,13 @@
         <v>34</v>
       </c>
       <c r="AL31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM31" t="n">
         <v>34</v>
       </c>
       <c r="AN31" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO31" t="n">
         <v>12</v>
@@ -6142,7 +6142,7 @@
         <v>151</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6151,16 +6151,16 @@
         <v>51</v>
       </c>
       <c r="AW31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX31" t="n">
         <v>19</v>
       </c>
       <c r="AY31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA31" t="n">
         <v>81</v>
@@ -6243,7 +6243,7 @@
         <v>1.6</v>
       </c>
       <c r="S32" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T32" t="n">
         <v>2.5</v>
@@ -6607,7 +6607,7 @@
         <v>1.57</v>
       </c>
       <c r="S34" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T34" t="n">
         <v>2.5</v>
@@ -7481,7 +7481,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H39" t="n">
         <v>2.5</v>
@@ -7490,7 +7490,7 @@
         <v>3.25</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
         <v>1.95</v>
@@ -7499,10 +7499,10 @@
         <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O39" t="n">
         <v>1.44</v>
@@ -7511,10 +7511,10 @@
         <v>2.63</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R39" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S39" t="n">
         <v>1.53</v>
@@ -7541,7 +7541,7 @@
         <v>26</v>
       </c>
       <c r="AA39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB39" t="n">
         <v>41</v>
@@ -7610,13 +7610,13 @@
         <v>4.75</v>
       </c>
       <c r="AX39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY39" t="n">
         <v>29</v>
       </c>
       <c r="AZ39" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA39" t="n">
         <v>101</v>
@@ -8027,13 +8027,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="n">
         <v>3.1</v>
@@ -8051,16 +8051,16 @@
         <v>8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P42" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R42" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8093,7 +8093,7 @@
         <v>34</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD42" t="n">
         <v>6</v>
@@ -8108,7 +8108,7 @@
         <v>351</v>
       </c>
       <c r="AH42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI42" t="n">
         <v>15</v>
@@ -8135,13 +8135,13 @@
         <v>26</v>
       </c>
       <c r="AQ42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR42" t="n">
         <v>81</v>
       </c>
       <c r="AS42" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT42" t="n">
         <v>2.5</v>
@@ -8239,10 +8239,10 @@
         <v>2.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R43" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S43" t="n">
         <v>1.5</v>
@@ -8573,13 +8573,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H45" t="n">
         <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J45" t="n">
         <v>2.5</v>
@@ -8588,7 +8588,7 @@
         <v>2.3</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
@@ -8597,16 +8597,16 @@
         <v>13</v>
       </c>
       <c r="O45" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R45" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
         <v>1.33</v>
@@ -8636,16 +8636,16 @@
         <v>15</v>
       </c>
       <c r="AB45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC45" t="n">
         <v>13</v>
       </c>
       <c r="AD45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF45" t="n">
         <v>41</v>
@@ -8675,13 +8675,13 @@
         <v>4</v>
       </c>
       <c r="AO45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP45" t="n">
         <v>19</v>
       </c>
       <c r="AQ45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR45" t="n">
         <v>51</v>
@@ -8696,22 +8696,22 @@
         <v>7.5</v>
       </c>
       <c r="AV45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW45" t="n">
         <v>6</v>
       </c>
       <c r="AX45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA45" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB45" t="n">
         <v>151</v>
@@ -8779,16 +8779,16 @@
         <v>17</v>
       </c>
       <c r="O46" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P46" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R46" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S46" t="n">
         <v>1.3</v>
@@ -8902,7 +8902,7 @@
         <v>401</v>
       </c>
       <c r="BD46" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47">

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -768,7 +768,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -777,28 +777,28 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -813,7 +813,7 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
         <v>9.5</v>
@@ -837,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -846,10 +846,10 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -864,19 +864,19 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -885,7 +885,7 @@
         <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
         <v>251</v>
@@ -1293,46 +1293,46 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
@@ -1341,7 +1341,7 @@
         <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
         <v>17</v>
@@ -1362,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1377,22 +1377,22 @@
         <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ5" t="n">
         <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
         <v>21</v>
@@ -1401,7 +1401,7 @@
         <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
         <v>101</v>
@@ -1410,7 +1410,7 @@
         <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
@@ -1422,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
         <v>26</v>
@@ -1431,10 +1431,10 @@
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -2239,10 +2239,10 @@
         <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>1.83</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="I3" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="J3" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -953,55 +953,55 @@
         <v>14.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R3" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="T3" t="n">
-        <v>3.54</v>
+        <v>3.46</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="W3" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AB3" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF3" t="n">
         <v>50</v>
@@ -1013,64 +1013,64 @@
         <v>7.2</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AJ3" t="n">
         <v>7.1</v>
       </c>
       <c r="AK3" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AP3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ3" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AR3" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS3" t="n">
         <v>350</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>60</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BB3" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0f5Qa4s2</t>
+          <t>OjXsJ2Gp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jaro</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Kalju</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J5" t="n">
         <v>2.9</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>3.68</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>3.14</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>7.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>17.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>5.5</v>
       </c>
       <c r="AE5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP5" t="n">
         <v>17</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AQ5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0Cb1WyIt</t>
+          <t>0f5Qa4s2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Jaro</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.9</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I6" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y6" t="n">
         <v>13</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>11</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH6" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
         <v>9.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
         <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
         <v>67</v>
       </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX6" t="n">
         <v>13</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
         <v>81</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dbYjCYWO</t>
+          <t>0Cb1WyIt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,31 +1648,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gnistan</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.63</v>
       </c>
       <c r="K7" t="n">
         <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1687,10 +1687,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1705,31 +1705,31 @@
         <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y7" t="n">
         <v>11</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1738,34 +1738,34 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
         <v>19</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1783,25 +1783,25 @@
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
         <v>51</v>
       </c>
-      <c r="BA7" t="n">
-        <v>67</v>
-      </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vNNN0Rfd</t>
+          <t>dbYjCYWO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,174 +1825,174 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Gnistan</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.2</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
         <v>15</v>
       </c>
-      <c r="X8" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="AB8" t="n">
         <v>23</v>
       </c>
-      <c r="Z8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>67</v>
-      </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
         <v>41</v>
       </c>
-      <c r="AN8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
       <c r="AW8" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>h6PF2mQq</t>
+          <t>vNNN0Rfd</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,85 +2012,85 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
         <v>2.75</v>
       </c>
-      <c r="K9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W9" t="n">
+        <v>15</v>
+      </c>
+      <c r="X9" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC9" t="n">
         <v>6.5</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6</v>
-      </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
@@ -2102,67 +2102,67 @@
         <v>101</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AK9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS9" t="n">
         <v>51</v>
       </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>301</v>
-      </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV9" t="n">
         <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="AX9" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="BA9" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tl3qMzJ5</t>
+          <t>h6PF2mQq</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,172 +2184,354 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK10" t="n">
         <v>51</v>
       </c>
-      <c r="AG10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
+      <c r="AL10" t="n">
         <v>41</v>
       </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
         <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB10" t="n">
         <v>51</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="BC10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>tl3qMzJ5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
         <v>151</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT11" t="n">
         <v>2.63</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU11" t="n">
         <v>8</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV11" t="n">
         <v>51</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW11" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX11" t="n">
         <v>21</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY11" t="n">
         <v>29</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ11" t="n">
         <v>67</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA11" t="n">
         <v>101</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB11" t="n">
         <v>201</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC11" t="n">
         <v>81</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD11" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -947,10 +947,10 @@
         <v>1.93</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>14.7</v>
+        <v>13.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -1114,19 +1114,19 @@
         <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
         <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L4" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
@@ -1159,10 +1159,10 @@
         <v>2.54</v>
       </c>
       <c r="W4" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.25</v>
@@ -1171,61 +1171,61 @@
         <v>35</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
         <v>120</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>7.3</v>
       </c>
       <c r="AK4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN4" t="n">
         <v>5.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR4" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AT4" t="n">
         <v>3.15</v>
@@ -1234,25 +1234,25 @@
         <v>6</v>
       </c>
       <c r="AV4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW4" t="n">
         <v>4.35</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BA4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB4" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC4" t="n">
         <v>500</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
@@ -1302,13 +1302,13 @@
         <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="K5" t="n">
         <v>2.07</v>
       </c>
       <c r="L5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1320,13 +1320,13 @@
         <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>3.68</v>
+        <v>3.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1335,16 +1335,16 @@
         <v>3.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V5" t="n">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="W5" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y5" t="n">
         <v>7.7</v>
@@ -1353,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD5" t="n">
         <v>5.5</v>
@@ -1368,49 +1368,49 @@
         <v>9.25</v>
       </c>
       <c r="AF5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
         <v>175</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>8.25</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="n">
         <v>4.55</v>
       </c>
       <c r="AO5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>50</v>
       </c>
       <c r="AR5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS5" t="n">
         <v>175</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU5" t="n">
         <v>6.2</v>
@@ -1422,16 +1422,16 @@
         <v>4.85</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB5" t="n">
         <v>200</v>
@@ -1475,97 +1475,97 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
       </c>
       <c r="I6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.25</v>
       </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.95</v>
       </c>
-      <c r="L6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
         <v>5.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>10</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>21</v>
@@ -1577,22 +1577,22 @@
         <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
@@ -1601,22 +1601,22 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1660,7 +1660,7 @@
         <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
         <v>2.4</v>
@@ -1678,7 +1678,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1687,16 +1687,16 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1723,7 +1723,7 @@
         <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
@@ -1738,7 +1738,7 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
@@ -1753,7 +1753,7 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN7" t="n">
         <v>5</v>
@@ -1768,19 +1768,19 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
         <v>4.5</v>
@@ -1801,7 +1801,7 @@
         <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tl3qMzJ5</t>
+          <t>EXsrs05T</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,71 +2366,71 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W11" t="n">
         <v>7</v>
@@ -2439,22 +2439,22 @@
         <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
         <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2463,7 +2463,7 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH11" t="n">
         <v>11</v>
@@ -2487,13 +2487,13 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2502,7 +2502,7 @@
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2511,7 +2511,7 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
         <v>21</v>
@@ -2532,6 +2532,188 @@
         <v>81</v>
       </c>
       <c r="BD11" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>tl3qMzJ5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD12" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
         <v>1.62</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="J5" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1320,7 +1320,7 @@
         <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>3.74</v>
+        <v>3.72</v>
       </c>
       <c r="Q5" t="n">
         <v>1.65</v>
@@ -1341,28 +1341,28 @@
         <v>2.36</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="Z5" t="n">
         <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
         <v>11.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AE5" t="n">
         <v>9.25</v>
@@ -1374,43 +1374,43 @@
         <v>175</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>8.25</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS5" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="AU5" t="n">
         <v>6.2</v>
@@ -1419,22 +1419,22 @@
         <v>45</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AX5" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB5" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC5" t="n">
         <v>500</v>
@@ -1475,46 +1475,46 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.4</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
         <v>1.95</v>
@@ -1523,25 +1523,25 @@
         <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>5.5</v>
@@ -1553,31 +1553,31 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
       </c>
       <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>11</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
       <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
         <v>23</v>
       </c>
-      <c r="AL6" t="n">
-        <v>21</v>
-      </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>29</v>
@@ -1592,7 +1592,7 @@
         <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
@@ -1601,13 +1601,13 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
@@ -1616,7 +1616,7 @@
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>2.25</v>
@@ -1711,7 +1711,7 @@
         <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
         <v>29</v>
@@ -1968,7 +1968,7 @@
         <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vNNN0Rfd</t>
+          <t>YkvcxZWI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.55</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>2.38</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
         <v>8</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
         <v>15</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
         <v>34</v>
       </c>
-      <c r="Y9" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA9" t="n">
         <v>81</v>
       </c>
-      <c r="AA9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="BB9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC9" t="n">
         <v>81</v>
       </c>
-      <c r="AG9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV9" t="n">
+      <c r="BD9" t="n">
         <v>81</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>h6PF2mQq</t>
+          <t>WQsttHXg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.85</v>
       </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.57</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>2.25</v>
       </c>
-      <c r="U10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="X10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM10" t="n">
         <v>21</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AN10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" t="n">
         <v>41</v>
       </c>
-      <c r="AC10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AW10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC10" t="n">
         <v>81</v>
       </c>
-      <c r="AG10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="BD10" t="n">
         <v>81</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EXsrs05T</t>
+          <t>pU7FfGnm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,167 +2366,167 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
         <v>4.33</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W11" t="n">
         <v>11</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7</v>
-      </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
         <v>17</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC11" t="n">
         <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
         <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>41</v>
       </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV11" t="n">
         <v>41</v>
       </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP11" t="n">
+      <c r="AW11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY11" t="n">
         <v>21</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tl3qMzJ5</t>
+          <t>EoHq0xPP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,172 +2548,1628 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>RW Essen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
+        <v>12</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD12" t="n">
         <v>7</v>
       </c>
-      <c r="X12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH12" t="n">
         <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV12" t="n">
         <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
       </c>
       <c r="AW12" t="n">
         <v>5.5</v>
       </c>
       <c r="AX12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY12" t="n">
         <v>21</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AZ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Shykve26</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SG Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>13</v>
+      </c>
+      <c r="X13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>vNNN0Rfd</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>COD Meknes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Wydad</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W14" t="n">
+        <v>15</v>
+      </c>
+      <c r="X14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>h6PF2mQq</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Olympique de Safi</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP15" t="n">
         <v>29</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>fV5AOUn3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Jeunesse Sportive Soualem</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EXsrs05T</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>67</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BA17" t="n">
         <v>101</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BB17" t="n">
         <v>201</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BC17" t="n">
         <v>81</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>tl3qMzJ5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>06qkgE4U</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cadiz CF</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>bsmYdd55</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -783,16 +783,16 @@
         <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -807,13 +807,13 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -825,10 +825,10 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -852,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -864,13 +864,13 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -885,7 +885,7 @@
         <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>251</v>
@@ -1320,7 +1320,7 @@
         <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>3.72</v>
+        <v>3.74</v>
       </c>
       <c r="Q5" t="n">
         <v>1.65</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>3.4</v>
@@ -1499,22 +1499,22 @@
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
         <v>1.95</v>
@@ -1529,7 +1529,7 @@
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>29</v>
@@ -1541,7 +1541,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>5.5</v>
@@ -1553,10 +1553,10 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
@@ -1592,7 +1592,7 @@
         <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
@@ -1675,13 +1675,13 @@
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1857,13 +1857,13 @@
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1968,7 +1968,7 @@
         <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
@@ -2039,13 +2039,13 @@
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
         <v>3.75</v>
@@ -2221,13 +2221,13 @@
         <v>2.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
         <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
         <v>4.5</v>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
@@ -2946,25 +2946,25 @@
         <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
@@ -2979,7 +2979,7 @@
         <v>1.53</v>
       </c>
       <c r="W14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X14" t="n">
         <v>34</v>
@@ -2991,7 +2991,7 @@
         <v>81</v>
       </c>
       <c r="AA14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB14" t="n">
         <v>67</v>
@@ -3003,7 +3003,7 @@
         <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
         <v>81</v>
@@ -3021,16 +3021,16 @@
         <v>9.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO14" t="n">
         <v>41</v>
@@ -3060,13 +3060,13 @@
         <v>3.25</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
         <v>51</v>
@@ -3149,7 +3149,7 @@
         <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T15" t="n">
         <v>2.25</v>
@@ -3331,7 +3331,7 @@
         <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
         <v>2.5</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
         <v>2.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -3513,22 +3513,22 @@
         <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T17" t="n">
         <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
         <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
@@ -3540,25 +3540,25 @@
         <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>19</v>
@@ -3612,7 +3612,7 @@
         <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
         <v>101</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H18" t="n">
         <v>3.3</v>
@@ -3695,10 +3695,10 @@
         <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
         <v>1.83</v>
@@ -3847,7 +3847,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
         <v>3.1</v>
@@ -3859,10 +3859,10 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -777,22 +777,22 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -807,13 +807,13 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -825,10 +825,10 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -837,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -846,13 +846,13 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -870,7 +870,7 @@
         <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="H3" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -956,13 +956,13 @@
         <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R3" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="S3" t="n">
         <v>1.28</v>
@@ -971,34 +971,34 @@
         <v>3.46</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="W3" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="X3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB3" t="n">
         <v>37</v>
       </c>
-      <c r="AB3" t="n">
-        <v>35</v>
-      </c>
       <c r="AC3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE3" t="n">
         <v>13.5</v>
@@ -1010,31 +1010,31 @@
         <v>300</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AJ3" t="n">
         <v>7.1</v>
       </c>
       <c r="AK3" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
         <v>17.5</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ3" t="n">
         <v>175</v>
@@ -1046,31 +1046,31 @@
         <v>350</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV3" t="n">
         <v>60</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AY3" t="n">
         <v>14.5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="BA3" t="n">
         <v>40</v>
       </c>
       <c r="BB3" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1341,28 +1341,28 @@
         <v>2.36</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X5" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
         <v>11.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE5" t="n">
         <v>9.25</v>
@@ -1371,67 +1371,67 @@
         <v>30</v>
       </c>
       <c r="AG5" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>18.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS5" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT5" t="n">
         <v>2.92</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AV5" t="n">
         <v>45</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB5" t="n">
         <v>175</v>
@@ -1493,10 +1493,10 @@
         <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
         <v>2.25</v>
@@ -1675,13 +1675,13 @@
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
         <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1711,7 +1711,7 @@
         <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
         <v>29</v>
@@ -1720,7 +1720,7 @@
         <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>12</v>
@@ -1741,7 +1741,7 @@
         <v>9.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
@@ -1750,10 +1750,10 @@
         <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
         <v>5</v>
@@ -1762,7 +1762,7 @@
         <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
@@ -1857,13 +1857,13 @@
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2030,7 +2030,7 @@
         <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
@@ -2039,13 +2039,13 @@
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
         <v>3.75</v>
@@ -2081,13 +2081,13 @@
         <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
         <v>7.5</v>
@@ -2153,7 +2153,7 @@
         <v>21</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>67</v>
@@ -2221,22 +2221,22 @@
         <v>2.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
         <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
         <v>1.3</v>
@@ -2284,7 +2284,7 @@
         <v>126</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
         <v>11</v>
@@ -2296,7 +2296,7 @@
         <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>21</v>
@@ -2323,7 +2323,7 @@
         <v>3.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>41</v>
@@ -2409,16 +2409,16 @@
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S11" t="n">
         <v>1.3</v>
@@ -2961,10 +2961,10 @@
         <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
         <v>2.75</v>
@@ -3149,10 +3149,10 @@
         <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U15" t="n">
         <v>2.25</v>
@@ -3164,13 +3164,13 @@
         <v>5</v>
       </c>
       <c r="X15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
         <v>21</v>
@@ -3194,10 +3194,10 @@
         <v>101</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
         <v>17</v>
@@ -3215,7 +3215,7 @@
         <v>3.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>29</v>
@@ -3230,7 +3230,7 @@
         <v>301</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU15" t="n">
         <v>9.5</v>
@@ -3242,7 +3242,7 @@
         <v>6</v>
       </c>
       <c r="AX15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY15" t="n">
         <v>41</v>
@@ -3313,10 +3313,10 @@
         <v>10</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -3477,19 +3477,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
         <v>4.5</v>
@@ -3534,7 +3534,7 @@
         <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
         <v>15</v>
@@ -3543,7 +3543,7 @@
         <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
@@ -3558,10 +3558,10 @@
         <v>301</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
         <v>13</v>
@@ -3576,7 +3576,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
@@ -3606,7 +3606,7 @@
         <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>29</v>
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
@@ -3689,10 +3689,10 @@
         <v>3.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3725,13 +3725,13 @@
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
@@ -3740,10 +3740,10 @@
         <v>301</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
         <v>13</v>
@@ -3764,7 +3764,7 @@
         <v>11</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
         <v>41</v>
@@ -3779,7 +3779,7 @@
         <v>2.63</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3800,7 +3800,7 @@
         <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
         <v>3.1</v>
@@ -3859,10 +3859,10 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
         <v>1.4</v>
@@ -3883,10 +3883,10 @@
         <v>2.5</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W19" t="n">
         <v>6.5</v>
@@ -3898,7 +3898,7 @@
         <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
         <v>21</v>
@@ -3910,7 +3910,7 @@
         <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3949,13 +3949,13 @@
         <v>26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT19" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>xpQsXZ7m</t>
+          <t>I9fFNr8T</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,167 +728,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lok. Plovdiv</t>
+          <t>Paide</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>4.55</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>1.38</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>5.7</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="W2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD2" t="n">
         <v>8</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7</v>
-      </c>
-      <c r="X2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK2" t="n">
         <v>8</v>
       </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>7.9</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>350</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>6.1</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>I9fFNr8T</t>
+          <t>2sWoIMVj</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,49 +920,49 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Paide</t>
+          <t>Narva</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.42</v>
+        <v>2.22</v>
       </c>
       <c r="J3" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.87</v>
+        <v>2.77</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>13.9</v>
+        <v>12.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>4.35</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R3" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
         <v>1.28</v>
@@ -971,109 +971,109 @@
         <v>3.46</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="V3" t="n">
-        <v>2.06</v>
+        <v>2.57</v>
       </c>
       <c r="W3" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X3" t="n">
         <v>15.5</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z3" t="n">
         <v>30</v>
       </c>
-      <c r="Y3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>80</v>
-      </c>
       <c r="AA3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV3" t="n">
         <v>40</v>
       </c>
-      <c r="AB3" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV3" t="n">
+      <c r="AW3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA3" t="n">
         <v>60</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>40</v>
       </c>
       <c r="BB3" t="n">
         <v>150</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2sWoIMVj</t>
+          <t>OjXsJ2Gp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Narva</t>
+          <t>Kalju</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T4" t="n">
         <v>3.2</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.46</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="V4" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="W4" t="n">
-        <v>11.75</v>
+        <v>8.75</v>
       </c>
       <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB4" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AG4" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7.3</v>
+        <v>8.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AL4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO4" t="n">
         <v>12.5</v>
       </c>
-      <c r="AM4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>16</v>
-      </c>
       <c r="AP4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AR4" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS4" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="AU4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AV4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.35</v>
+        <v>4.9</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="BA4" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="BB4" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BC4" t="n">
         <v>500</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OjXsJ2Gp</t>
+          <t>0f5Qa4s2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Jaro</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
         <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
         <v>11</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="X5" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>7.7</v>
-      </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
-        <v>18.5</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.25</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>5.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.25</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.75</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>18.5</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.92</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0f5Qa4s2</t>
+          <t>0Cb1WyIt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jaro</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
         <v>26</v>
       </c>
       <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
         <v>41</v>
       </c>
-      <c r="AC6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="n">
         <v>5.5</v>
       </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AO6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU6" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ6" t="n">
+      <c r="AV6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX6" t="n">
         <v>11</v>
       </c>
-      <c r="AK6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>15</v>
-      </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD6" t="n">
         <v>81</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0Cb1WyIt</t>
+          <t>dbYjCYWO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,37 +1648,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Gnistan</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.35</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1693,10 +1693,10 @@
         <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1705,31 +1705,31 @@
         <v>2.2</v>
       </c>
       <c r="W7" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" t="n">
         <v>11</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
         <v>15</v>
       </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>21</v>
       </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1738,70 +1738,70 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>12</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dbYjCYWO</t>
+          <t>YkvcxZWI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,41 +1820,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gnistan</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1863,16 +1863,16 @@
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -1881,22 +1881,22 @@
         <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
         <v>9</v>
       </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
@@ -1905,49 +1905,49 @@
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1959,31 +1959,31 @@
         <v>3.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>YkvcxZWI</t>
+          <t>WQsttHXg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,157 +2012,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>1.85</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W9" t="n">
         <v>13</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8</v>
-      </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
         <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12</v>
       </c>
       <c r="AD9" t="n">
         <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM9" t="n">
         <v>21</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>29</v>
       </c>
-      <c r="AZ9" t="n">
-        <v>67</v>
-      </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WQsttHXg</t>
+          <t>pU7FfGnm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,31 +2194,31 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hannover II</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
         <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2227,10 +2227,10 @@
         <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
         <v>1.65</v>
@@ -2245,106 +2245,106 @@
         <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="W10" t="n">
+        <v>11</v>
+      </c>
+      <c r="X10" t="n">
         <v>13</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
         <v>21</v>
       </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>41</v>
-      </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
         <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH10" t="n">
         <v>13</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>41</v>
       </c>
-      <c r="AG10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
         <v>3.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pU7FfGnm</t>
+          <t>EoHq0xPP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,19 +2376,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Munich 1860</t>
+          <t>RW Essen</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -2397,7 +2397,7 @@
         <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
         <v>3.4</v>
@@ -2409,31 +2409,31 @@
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="S11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
@@ -2445,13 +2445,13 @@
         <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
@@ -2466,13 +2466,13 @@
         <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>34</v>
@@ -2481,19 +2481,19 @@
         <v>21</v>
       </c>
       <c r="AM11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO11" t="n">
         <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2502,7 +2502,7 @@
         <v>101</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
@@ -2520,16 +2520,16 @@
         <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
         <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EoHq0xPP</t>
+          <t>Shykve26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,31 +2558,31 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RW Essen</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>SG Dynamo Dresden</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.2</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
       <c r="J12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L12" t="n">
         <v>2.75</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2591,22 +2591,22 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U12" t="n">
         <v>1.5</v>
@@ -2615,25 +2615,25 @@
         <v>2.5</v>
       </c>
       <c r="W12" t="n">
+        <v>13</v>
+      </c>
+      <c r="X12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="n">
         <v>12</v>
       </c>
-      <c r="X12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
         <v>21</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
         <v>15</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>17</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
@@ -2648,43 +2648,43 @@
         <v>101</v>
       </c>
       <c r="AH12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>15</v>
       </c>
-      <c r="AI12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
+      <c r="AP12" t="n">
         <v>21</v>
       </c>
-      <c r="AM12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2693,13 +2693,13 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Shykve26</t>
+          <t>vNNN0Rfd</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SG Dynamo Dresden</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.38</v>
       </c>
-      <c r="L13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V13" t="n">
-        <v>2.5</v>
+        <v>1.53</v>
       </c>
       <c r="W13" t="n">
         <v>13</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AC13" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AD13" t="n">
         <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="n">
         <v>101</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA13" t="n">
         <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC13" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>vNNN0Rfd</t>
+          <t>h6PF2mQq</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,55 +2922,55 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.5</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.55</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L14" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P14" t="n">
         <v>2.25</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.44</v>
       </c>
-      <c r="P14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="U14" t="n">
         <v>2.38</v>
@@ -2979,31 +2979,31 @@
         <v>1.53</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>7.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD14" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
       <c r="AE14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
         <v>81</v>
@@ -3012,43 +3012,43 @@
         <v>101</v>
       </c>
       <c r="AH14" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>41</v>
       </c>
-      <c r="AN14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>151</v>
-      </c>
       <c r="AR14" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU14" t="n">
         <v>10</v>
@@ -3057,22 +3057,22 @@
         <v>81</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>8.5</v>
+        <v>26</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB14" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>h6PF2mQq</t>
+          <t>fV5AOUn3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3104,154 +3104,154 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>1.33</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>8.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="K15" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X15" t="n">
         <v>5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>8</v>
       </c>
       <c r="Y15" t="n">
         <v>10</v>
       </c>
       <c r="Z15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA15" t="n">
         <v>17</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>21</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AF15" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AG15" t="n">
         <v>101</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AK15" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AL15" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
         <v>301</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AY15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ15" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BA15" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BB15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fV5AOUn3</t>
+          <t>EXsrs05T</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.33</v>
+        <v>1.85</v>
       </c>
       <c r="H16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I16" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7</v>
+      </c>
+      <c r="X16" t="n">
         <v>8.5</v>
       </c>
-      <c r="J16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
         <v>10</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO16" t="n">
         <v>10</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU16" t="n">
         <v>8</v>
       </c>
-      <c r="AA16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG16" t="n">
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA16" t="n">
         <v>101</v>
       </c>
-      <c r="AH16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL16" t="n">
+      <c r="BB16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC16" t="n">
         <v>81</v>
       </c>
-      <c r="AM16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>51</v>
-      </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EXsrs05T</t>
+          <t>06qkgE4U</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,167 +3458,167 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
         <v>4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T17" t="n">
         <v>2.5</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="W17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
         <v>7</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AD17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AI17" t="n">
         <v>15</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>21</v>
       </c>
       <c r="AJ17" t="n">
         <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
         <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
         <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA17" t="n">
         <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tl3qMzJ5</t>
+          <t>bsmYdd55</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,95 +3640,95 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K18" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P18" t="n">
         <v>2.75</v>
       </c>
-      <c r="K18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AA18" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3737,67 +3737,67 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU18" t="n">
         <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY18" t="n">
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB18" t="n">
         <v>251</v>
@@ -3806,370 +3806,6 @@
         <v>81</v>
       </c>
       <c r="BD18" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>06qkgE4U</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Cadiz CF</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>7</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bsmYdd55</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD20" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>I9fFNr8T</t>
+          <t>rHF0kEjo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,167 +728,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Paide</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6.1</v>
+        <v>5.25</v>
       </c>
       <c r="H2" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="J2" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
-        <v>3.54</v>
+        <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
         <v>15</v>
       </c>
       <c r="AD2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
         <v>8</v>
       </c>
-      <c r="AE2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AI2" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU2" t="n">
         <v>8</v>
       </c>
-      <c r="AL2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AV2" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="AX2" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2sWoIMVj</t>
+          <t>bLBozsEO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Narva</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.77</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>12.8</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>3.46</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.48</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>2.57</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>11.25</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>4.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OjXsJ2Gp</t>
+          <t>jypdPPa6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="J4" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.78</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP4" t="n">
         <v>23</v>
       </c>
-      <c r="AA4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AX4" t="n">
         <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0f5Qa4s2</t>
+          <t>2Zydfpat</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jaro</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.98</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
         <v>11</v>
       </c>
-      <c r="Z5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
         <v>41</v>
       </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
         <v>29</v>
       </c>
-      <c r="AL5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>41</v>
       </c>
-      <c r="AN5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA5" t="n">
         <v>67</v>
       </c>
-      <c r="AW5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>81</v>
-      </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0Cb1WyIt</t>
+          <t>6RYCj2b5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,41 +1456,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1499,7 +1499,7 @@
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1508,7 +1508,7 @@
         <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1517,118 +1517,118 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="n">
         <v>12</v>
       </c>
-      <c r="X6" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
         <v>41</v>
       </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>15</v>
-      </c>
       <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>23</v>
       </c>
-      <c r="AN6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
         <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
-        <v>451</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dbYjCYWO</t>
+          <t>Aau4hOTh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,22 +1638,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gnistan</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1669,46 +1669,46 @@
         <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V7" t="n">
         <v>2</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
@@ -1720,25 +1720,25 @@
         <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
@@ -1750,19 +1750,19 @@
         <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
         <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>34</v>
@@ -1771,46 +1771,46 @@
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
         <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YkvcxZWI</t>
+          <t>OjXsJ2Gp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Kalju</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>2.67</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="AH8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO8" t="n">
         <v>13</v>
       </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AP8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY8" t="n">
         <v>19</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WQsttHXg</t>
+          <t>0f5Qa4s2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,167 +2002,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hannover II</t>
+          <t>Jaro</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="H9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.75</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P9" t="n">
         <v>2.5</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>15</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.54</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>2.25</v>
+        <v>1.72</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
         <v>26</v>
       </c>
       <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
         <v>29</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>15</v>
       </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX9" t="n">
         <v>19</v>
       </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
+      <c r="AY9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>67</v>
       </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>29</v>
-      </c>
       <c r="BA9" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pU7FfGnm</t>
+          <t>YkvcxZWI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,157 +2194,157 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Munich 1860</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
         <v>15</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="W10" t="n">
-        <v>11</v>
-      </c>
-      <c r="X10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>15</v>
       </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
-      </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
         <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
         <v>34</v>
       </c>
-      <c r="AL10" t="n">
-        <v>21</v>
-      </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EoHq0xPP</t>
+          <t>WQsttHXg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,31 +2376,31 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RW Essen</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2409,127 +2409,127 @@
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
+        <v>13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y11" t="n">
         <v>12</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
         <v>13</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH11" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AI11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM11" t="n">
         <v>21</v>
       </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AN11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO11" t="n">
         <v>19</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>23</v>
       </c>
-      <c r="AN11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA11" t="n">
         <v>41</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>51</v>
       </c>
       <c r="BB11" t="n">
         <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shykve26</t>
+          <t>pU7FfGnm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,31 +2558,31 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SG Dynamo Dresden</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
         <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2612,25 +2612,25 @@
         <v>1.5</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
         <v>13</v>
       </c>
-      <c r="X12" t="n">
-        <v>19</v>
-      </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
         <v>21</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>26</v>
       </c>
       <c r="AC12" t="n">
         <v>15</v>
@@ -2648,40 +2648,40 @@
         <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
         <v>21</v>
       </c>
-      <c r="AL12" t="n">
-        <v>17</v>
-      </c>
       <c r="AM12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="n">
         <v>3.4</v>
@@ -2693,25 +2693,25 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>vNNN0Rfd</t>
+          <t>EoHq0xPP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>RW Essen</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>2.35</v>
       </c>
       <c r="S13" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.5</v>
       </c>
-      <c r="U13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W13" t="n">
+        <v>12</v>
+      </c>
+      <c r="X13" t="n">
         <v>13</v>
       </c>
-      <c r="X13" t="n">
-        <v>34</v>
-      </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="AD13" t="n">
         <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
         <v>101</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP13" t="n">
         <v>17</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV13" t="n">
         <v>41</v>
       </c>
-      <c r="AN13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO13" t="n">
+      <c r="AW13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>41</v>
       </c>
-      <c r="AP13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV13" t="n">
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD13" t="n">
         <v>81</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>h6PF2mQq</t>
+          <t>Shykve26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,173 +2912,173 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>SG Dynamo Dresden</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="J14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L14" t="n">
         <v>2.75</v>
       </c>
-      <c r="K14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5</v>
-      </c>
       <c r="M14" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R14" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S14" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="W14" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
         <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
         <v>101</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY14" t="n">
         <v>19</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL14" t="n">
+      <c r="AZ14" t="n">
         <v>41</v>
       </c>
-      <c r="AM14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD14" t="n">
         <v>81</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EXsrs05T</t>
+          <t>Sr4IM8HF</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,110 +3276,110 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P16" t="n">
         <v>2.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="Q16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U16" t="n">
         <v>2.2</v>
       </c>
-      <c r="L16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>11</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI16" t="n">
         <v>15</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>21</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3394,61 +3394,61 @@
         <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX16" t="n">
         <v>21</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AY16" t="n">
         <v>34</v>
       </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06qkgE4U</t>
+          <t>EXsrs05T</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,167 +3458,167 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W17" t="n">
         <v>7</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
         <v>10</v>
       </c>
-      <c r="Y17" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
         <v>21</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>13</v>
       </c>
       <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
         <v>34</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>29</v>
       </c>
       <c r="AM17" t="n">
         <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
         <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bsmYdd55</t>
+          <t>06qkgE4U</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,49 +3650,49 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
         <v>1.5</v>
@@ -3701,37 +3701,37 @@
         <v>2.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
@@ -3740,31 +3740,31 @@
         <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO18" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
         <v>51</v>
@@ -3785,19 +3785,19 @@
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
         <v>251</v>
@@ -3806,6 +3806,552 @@
         <v>81</v>
       </c>
       <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>bsmYdd55</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>U1eH0v6t</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W20" t="n">
+        <v>9</v>
+      </c>
+      <c r="X20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GIJbDHkn</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>9</v>
+      </c>
+      <c r="X21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD21" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,22 +765,22 @@
         <v>2.05</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S2" t="n">
         <v>1.3</v>
@@ -947,16 +947,16 @@
         <v>3.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
         <v>2.1</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1129,13 +1129,13 @@
         <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
         <v>3.5</v>
@@ -1153,7 +1153,7 @@
         <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V4" t="n">
         <v>2</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1311,13 +1311,13 @@
         <v>3.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
         <v>3.75</v>
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V5" t="n">
         <v>2.1</v>
@@ -1493,22 +1493,22 @@
         <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1517,10 +1517,10 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1675,22 +1675,22 @@
         <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1699,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
@@ -1804,7 +1804,7 @@
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="J8" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1866,7 +1866,7 @@
         <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>3.76</v>
+        <v>3.8</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
@@ -1881,25 +1881,25 @@
         <v>3.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="V8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB8" t="n">
         <v>17</v>
@@ -1908,10 +1908,10 @@
         <v>11.25</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF8" t="n">
         <v>30</v>
@@ -1920,64 +1920,64 @@
         <v>150</v>
       </c>
       <c r="AH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AP8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS8" t="n">
         <v>150</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AV8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB8" t="n">
         <v>200</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0f5Qa4s2</t>
+          <t>YkvcxZWI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,167 +2002,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jaro</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.75</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V9" t="n">
         <v>2</v>
       </c>
-      <c r="V9" t="n">
-        <v>1.72</v>
-      </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
         <v>12</v>
       </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
         <v>41</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
         <v>6</v>
       </c>
-      <c r="AD9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AX9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY9" t="n">
         <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>34</v>
       </c>
       <c r="AZ9" t="n">
         <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>YkvcxZWI</t>
+          <t>WQsttHXg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,157 +2194,157 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>1.85</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W10" t="n">
         <v>13</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8</v>
-      </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
         <v>15</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12</v>
       </c>
       <c r="AD10" t="n">
         <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM10" t="n">
         <v>21</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
         <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>29</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>67</v>
-      </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>WQsttHXg</t>
+          <t>pU7FfGnm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,31 +2376,31 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hannover II</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
         <v>2.38</v>
       </c>
       <c r="L11" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2409,16 +2409,16 @@
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S11" t="n">
         <v>1.3</v>
@@ -2427,106 +2427,106 @@
         <v>3.4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W11" t="n">
+        <v>11</v>
+      </c>
+      <c r="X11" t="n">
         <v>13</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
         <v>21</v>
       </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>41</v>
-      </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
         <v>15</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH11" t="n">
         <v>13</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AI11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>41</v>
       </c>
-      <c r="AG11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="n">
         <v>3.4</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
         <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pU7FfGnm</t>
+          <t>EoHq0xPP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,19 +2558,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Munich 1860</t>
+          <t>RW Essen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -2579,7 +2579,7 @@
         <v>2.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L12" t="n">
         <v>3.4</v>
@@ -2591,31 +2591,31 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U12" t="n">
         <v>1.5</v>
       </c>
       <c r="V12" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
@@ -2627,13 +2627,13 @@
         <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
@@ -2648,13 +2648,13 @@
         <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>34</v>
@@ -2663,19 +2663,19 @@
         <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2684,7 +2684,7 @@
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2702,16 +2702,16 @@
         <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EoHq0xPP</t>
+          <t>Shykve26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,31 +2740,31 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RW Essen</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>SG Dynamo Dresden</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L13" t="n">
         <v>2.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2779,10 +2779,10 @@
         <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S13" t="n">
         <v>1.29</v>
@@ -2791,31 +2791,31 @@
         <v>3.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
         <v>2.5</v>
       </c>
       <c r="W13" t="n">
+        <v>15</v>
+      </c>
+      <c r="X13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y13" t="n">
         <v>12</v>
       </c>
-      <c r="X13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
         <v>21</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
         <v>15</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>17</v>
       </c>
       <c r="AD13" t="n">
         <v>7</v>
@@ -2830,34 +2830,34 @@
         <v>101</v>
       </c>
       <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
         <v>15</v>
       </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
+      <c r="AM13" t="n">
         <v>21</v>
       </c>
-      <c r="AM13" t="n">
-        <v>23</v>
-      </c>
       <c r="AN13" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
         <v>51</v>
@@ -2875,19 +2875,19 @@
         <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA13" t="n">
         <v>41</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>51</v>
       </c>
       <c r="BB13" t="n">
         <v>101</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shykve26</t>
+          <t>fV5AOUn3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2917,174 +2917,174 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SG Dynamo Dresden</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
         <v>3</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>15</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="V14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W14" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W14" t="n">
-        <v>13</v>
-      </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>34</v>
       </c>
-      <c r="AA14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>11</v>
-      </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="AG14" t="n">
         <v>101</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>21</v>
       </c>
-      <c r="AL14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
       <c r="AR14" t="n">
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AZ14" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BB14" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC14" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>fV5AOUn3</t>
+          <t>Sr4IM8HF</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3104,157 +3104,157 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.33</v>
+        <v>2.15</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L15" t="n">
-        <v>10</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="R15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.57</v>
       </c>
-      <c r="S15" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T15" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="W15" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="Y15" t="n">
         <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AG15" t="n">
         <v>101</v>
       </c>
       <c r="AH15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI15" t="n">
         <v>15</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
         <v>41</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP15" t="n">
         <v>29</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA15" t="n">
         <v>126</v>
       </c>
-      <c r="AL15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ15" t="n">
+      <c r="BB15" t="n">
         <v>351</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>51</v>
       </c>
       <c r="BC15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sr4IM8HF</t>
+          <t>EXsrs05T</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,110 +3276,110 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
         <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH16" t="n">
         <v>10</v>
       </c>
-      <c r="Z16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AI16" t="n">
         <v>19</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3397,58 +3397,58 @@
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
         <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EXsrs05T</t>
+          <t>06qkgE4U</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,167 +3458,167 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T17" t="n">
         <v>2.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
       </c>
       <c r="U17" t="n">
         <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
         <v>7</v>
       </c>
       <c r="X17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AI17" t="n">
         <v>15</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>21</v>
       </c>
       <c r="AJ17" t="n">
         <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
         <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
         <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA17" t="n">
         <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>06qkgE4U</t>
+          <t>bsmYdd55</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,49 +3650,49 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
         <v>1.5</v>
@@ -3701,37 +3701,37 @@
         <v>2.5</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
@@ -3740,31 +3740,31 @@
         <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
         <v>51</v>
@@ -3785,19 +3785,19 @@
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY18" t="n">
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB18" t="n">
         <v>251</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bsmYdd55</t>
+          <t>U1eH0v6t</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3832,151 +3832,151 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L19" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.57</v>
       </c>
-      <c r="S19" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T19" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AA19" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>1250</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR19" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AS19" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV19" t="n">
         <v>67</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY19" t="n">
         <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>U1eH0v6t</t>
+          <t>GIJbDHkn</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,344 +4014,162 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L20" t="n">
         <v>4.33</v>
       </c>
-      <c r="K20" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.88</v>
-      </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="S20" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="T20" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V20" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="W20" t="n">
         <v>9</v>
       </c>
       <c r="X20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
         <v>17</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AA20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
         <v>13</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
         <v>41</v>
       </c>
-      <c r="AA20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AG20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK20" t="n">
         <v>41</v>
       </c>
-      <c r="AC20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>19</v>
-      </c>
       <c r="AL20" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX20" t="n">
         <v>21</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>12</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
       </c>
       <c r="BD20" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>GIJbDHkn</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Racing Santander</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N21" t="n">
-        <v>13</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>9</v>
-      </c>
-      <c r="X21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD21" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,13 +765,13 @@
         <v>2.05</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
         <v>4.5</v>
@@ -947,13 +947,13 @@
         <v>3.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
         <v>3.2</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -1129,13 +1129,13 @@
         <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
         <v>3.5</v>
@@ -1153,7 +1153,7 @@
         <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
         <v>2</v>
@@ -1311,13 +1311,13 @@
         <v>3.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
         <v>3.75</v>
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
         <v>2.1</v>
@@ -1493,22 +1493,22 @@
         <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1517,10 +1517,10 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1675,13 +1675,13 @@
         <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
         <v>3.75</v>
@@ -1699,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OjXsJ2Gp</t>
+          <t>YkvcxZWI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.3</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L8" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI8" t="n">
         <v>21</v>
       </c>
-      <c r="AA8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>29</v>
       </c>
-      <c r="AL8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>45</v>
-      </c>
       <c r="AR8" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>YkvcxZWI</t>
+          <t>WQsttHXg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,157 +2012,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>1.85</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W9" t="n">
         <v>13</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8</v>
-      </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
         <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12</v>
       </c>
       <c r="AD9" t="n">
         <v>7.5</v>
       </c>
       <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL9" t="n">
         <v>15</v>
       </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AM9" t="n">
         <v>21</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>29</v>
       </c>
-      <c r="AZ9" t="n">
-        <v>67</v>
-      </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WQsttHXg</t>
+          <t>pU7FfGnm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,31 +2194,31 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hannover II</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L10" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2227,16 +2227,16 @@
         <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S10" t="n">
         <v>1.3</v>
@@ -2245,106 +2245,106 @@
         <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
+        <v>11</v>
+      </c>
+      <c r="X10" t="n">
         <v>13</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
         <v>21</v>
       </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>41</v>
-      </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
         <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH10" t="n">
         <v>13</v>
       </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
         <v>19</v>
       </c>
-      <c r="AP10" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
         <v>3.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pU7FfGnm</t>
+          <t>EoHq0xPP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,19 +2376,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Munich 1860</t>
+          <t>RW Essen</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -2397,7 +2397,7 @@
         <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
         <v>3.4</v>
@@ -2409,31 +2409,31 @@
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
@@ -2445,13 +2445,13 @@
         <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
@@ -2466,13 +2466,13 @@
         <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>34</v>
@@ -2481,19 +2481,19 @@
         <v>21</v>
       </c>
       <c r="AM11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO11" t="n">
         <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2502,7 +2502,7 @@
         <v>101</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
@@ -2520,16 +2520,16 @@
         <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
         <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EoHq0xPP</t>
+          <t>Shykve26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,31 +2558,31 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RW Essen</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>SG Dynamo Dresden</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="J12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L12" t="n">
         <v>2.75</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2615,25 +2615,25 @@
         <v>2.5</v>
       </c>
       <c r="W12" t="n">
+        <v>15</v>
+      </c>
+      <c r="X12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="n">
         <v>12</v>
       </c>
-      <c r="X12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
         <v>21</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
         <v>15</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>17</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
@@ -2648,34 +2648,34 @@
         <v>101</v>
       </c>
       <c r="AH12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
         <v>15</v>
       </c>
-      <c r="AI12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
+      <c r="AM12" t="n">
         <v>21</v>
       </c>
-      <c r="AM12" t="n">
-        <v>23</v>
-      </c>
       <c r="AN12" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2693,19 +2693,19 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB12" t="n">
         <v>101</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Shykve26</t>
+          <t>fV5AOUn3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2735,174 +2735,174 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SG Dynamo Dresden</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>1.36</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.75</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="V13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X13" t="n">
         <v>5</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>15</v>
-      </c>
-      <c r="X13" t="n">
-        <v>19</v>
-      </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE13" t="n">
         <v>34</v>
       </c>
-      <c r="AA13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>11</v>
-      </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="AG13" t="n">
         <v>101</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>21</v>
       </c>
-      <c r="AL13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>51</v>
-      </c>
       <c r="AR13" t="n">
         <v>51</v>
       </c>
       <c r="AS13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV13" t="n">
         <v>101</v>
       </c>
-      <c r="AT13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>41</v>
-      </c>
       <c r="AW13" t="n">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AZ13" t="n">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="BA13" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="BB13" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC13" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>fV5AOUn3</t>
+          <t>Sr4IM8HF</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,157 +2922,157 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.33</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="R14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.57</v>
       </c>
-      <c r="S14" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="Y14" t="n">
         <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="n">
         <v>101</v>
       </c>
       <c r="AH14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI14" t="n">
         <v>15</v>
       </c>
-      <c r="AI14" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP14" t="n">
         <v>29</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA14" t="n">
         <v>126</v>
       </c>
-      <c r="AL14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ14" t="n">
+      <c r="BB14" t="n">
         <v>351</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>51</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sr4IM8HF</t>
+          <t>EXsrs05T</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,110 +3094,110 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
         <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="V15" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH15" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>13</v>
@@ -3215,58 +3215,58 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.25</v>
+        <v>2.62</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
         <v>67</v>
       </c>
       <c r="BA15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EXsrs05T</t>
+          <t>06qkgE4U</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,95 +3276,95 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>2.63</v>
+        <v>2.87</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
         <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W16" t="n">
         <v>6.5</v>
       </c>
       <c r="X16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>17</v>
@@ -3376,10 +3376,10 @@
         <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3397,28 +3397,28 @@
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
         <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
         <v>8.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="n">
         <v>5.5</v>
@@ -3427,16 +3427,16 @@
         <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
         <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06qkgE4U</t>
+          <t>bsmYdd55</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,37 +3468,37 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
         <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -3525,31 +3525,31 @@
         <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
@@ -3558,31 +3558,31 @@
         <v>351</v>
       </c>
       <c r="AH17" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP17" t="n">
         <v>29</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>26</v>
       </c>
       <c r="AQ17" t="n">
         <v>51</v>
@@ -3591,7 +3591,7 @@
         <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT17" t="n">
         <v>2.5</v>
@@ -3603,19 +3603,19 @@
         <v>67</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
         <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
         <v>251</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bsmYdd55</t>
+          <t>U1eH0v6t</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3650,151 +3650,151 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L18" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="R18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.57</v>
       </c>
-      <c r="S18" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T18" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG18" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS18" t="n">
         <v>351</v>
       </c>
-      <c r="AH18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>251</v>
-      </c>
       <c r="AT18" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>U1eH0v6t</t>
+          <t>GIJbDHkn</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,344 +3832,162 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>1.81</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="R19" t="n">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="S19" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="W19" t="n">
         <v>9</v>
       </c>
       <c r="X19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP19" t="n">
         <v>19</v>
       </c>
-      <c r="Y19" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AQ19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
         <v>6</v>
       </c>
-      <c r="AE19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AX19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>67</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>41</v>
       </c>
       <c r="BA19" t="n">
         <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
       </c>
       <c r="BD19" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>GIJbDHkn</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Racing Santander</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>13</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>9</v>
-      </c>
-      <c r="X20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD20" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -753,7 +753,7 @@
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J2" t="n">
         <v>5.5</v>
@@ -777,7 +777,7 @@
         <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R2" t="n">
         <v>2.25</v>
@@ -1505,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H8" t="n">
         <v>3.7</v>
@@ -1869,7 +1869,7 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R8" t="n">
         <v>2</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.75</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
       <c r="K9" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -2051,10 +2051,10 @@
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>
@@ -2072,7 +2072,7 @@
         <v>13</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
         <v>12</v>
@@ -2081,7 +2081,7 @@
         <v>41</v>
       </c>
       <c r="AA9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
@@ -2099,7 +2099,7 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
         <v>9.5</v>
@@ -2108,10 +2108,10 @@
         <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -2120,10 +2120,10 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
@@ -2150,16 +2150,16 @@
         <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
         <v>101</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2251,19 +2251,19 @@
         <v>2.38</v>
       </c>
       <c r="W10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
         <v>21</v>
@@ -2275,13 +2275,13 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH10" t="n">
         <v>13</v>
@@ -2296,25 +2296,25 @@
         <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
         <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
@@ -2332,7 +2332,7 @@
         <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
@@ -2347,7 +2347,7 @@
         <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD10" t="n">
         <v>81</v>
@@ -2579,28 +2579,28 @@
         <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S12" t="n">
         <v>1.29</v>
@@ -2609,10 +2609,10 @@
         <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W12" t="n">
         <v>15</v>
@@ -2630,10 +2630,10 @@
         <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
@@ -2642,19 +2642,19 @@
         <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG12" t="n">
         <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
         <v>13</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
@@ -2672,10 +2672,10 @@
         <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2708,10 +2708,10 @@
         <v>41</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
@@ -2806,7 +2806,7 @@
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
         <v>17</v>
@@ -2830,13 +2830,13 @@
         <v>101</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>126</v>
@@ -2845,10 +2845,10 @@
         <v>81</v>
       </c>
       <c r="AM13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO13" t="n">
         <v>7</v>
@@ -2857,7 +2857,7 @@
         <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
         <v>51</v>
@@ -2943,7 +2943,7 @@
         <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L14" t="n">
         <v>4.33</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EXsrs05T</t>
+          <t>65Ly84z2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,173 +3094,173 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>2.75</v>
+        <v>1.44</v>
       </c>
       <c r="K15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>13</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>21</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.1</v>
       </c>
-      <c r="L15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="V15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W15" t="n">
         <v>10</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W15" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG15" t="n">
         <v>351</v>
       </c>
       <c r="AH15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU15" t="n">
         <v>11</v>
       </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AV15" t="n">
         <v>67</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AW15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC15" t="n">
         <v>151</v>
       </c>
-      <c r="AT15" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>81</v>
-      </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -3301,13 +3301,13 @@
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
         <v>4.33</v>
@@ -3325,10 +3325,10 @@
         <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="S16" t="n">
         <v>1.5</v>
@@ -3346,13 +3346,13 @@
         <v>6.5</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
         <v>19</v>
@@ -3376,13 +3376,13 @@
         <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>41</v>
@@ -3400,7 +3400,7 @@
         <v>12</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>41</v>
@@ -3430,7 +3430,7 @@
         <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
         <v>101</v>
@@ -3510,7 +3510,7 @@
         <v>2.35</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S17" t="n">
         <v>1.5</v>
@@ -3692,7 +3692,7 @@
         <v>2.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
         <v>1.57</v>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
@@ -3871,10 +3871,10 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R19" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,16 +771,16 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.3</v>
@@ -795,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
         <v>29</v>
@@ -1505,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YkvcxZWI</t>
+          <t>Sr4IM8HF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,110 +1820,110 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.72</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.77</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
         <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>15</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
       </c>
       <c r="AJ8" t="n">
         <v>13</v>
@@ -1935,64 +1935,64 @@
         <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
         <v>4</v>
       </c>
       <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
         <v>9.5</v>
       </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WQsttHXg</t>
+          <t>65Ly84z2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hannover II</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>1.14</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.92</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>1.44</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="O9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.2</v>
       </c>
-      <c r="P9" t="n">
+      <c r="T9" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.4</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
       </c>
       <c r="AC9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD9" t="n">
         <v>15</v>
       </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC9" t="n">
         <v>151</v>
       </c>
-      <c r="AH9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pU7FfGnm</t>
+          <t>U1eH0v6t</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,170 +2184,170 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Munich 1860</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="n">
         <v>15</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
         <v>2.25</v>
       </c>
-      <c r="S10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX10" t="n">
         <v>12</v>
       </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>41</v>
       </c>
-      <c r="AS10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EoHq0xPP</t>
+          <t>GIJbDHkn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,1628 +2366,172 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RW Essen</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
         <v>15</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>12</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="AA11" t="n">
         <v>13</v>
       </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH11" t="n">
         <v>15</v>
       </c>
       <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP11" t="n">
         <v>19</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS11" t="n">
         <v>101</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Shykve26</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GERMANY - 3. LIGA</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Wehen</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>SG Dynamo Dresden</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>17</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W12" t="n">
-        <v>15</v>
-      </c>
-      <c r="X12" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>fV5AOUn3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>MOROCCO - BOTOLA PRO</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Berkane</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Jeunesse Sportive Soualem</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>9</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="X13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>301</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sr4IM8HF</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MOROCCO - BOTOLA PRO</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>IR Tanger</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Renaissance Zemamra</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6</v>
-      </c>
-      <c r="X14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>65Ly84z2</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>PERU - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>AD Tarma</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Union Comercio</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>13</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N15" t="n">
-        <v>21</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W15" t="n">
-        <v>10</v>
-      </c>
-      <c r="X15" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>06qkgE4U</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Cadiz CF</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bsmYdd55</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>U1eH0v6t</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>FC Cartagena SAD</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Elche</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W18" t="n">
-        <v>9</v>
-      </c>
-      <c r="X18" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>GIJbDHkn</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Racing Santander</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>13</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W19" t="n">
-        <v>9</v>
-      </c>
-      <c r="X19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD19" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1165,13 +1165,13 @@
         <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
         <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
         <v>29</v>
@@ -1195,13 +1195,13 @@
         <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
         <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1240,10 +1240,10 @@
         <v>4.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1341,10 +1341,10 @@
         <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1386,10 +1386,10 @@
         <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
         <v>4.75</v>
@@ -1401,7 +1401,7 @@
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -1422,10 +1422,10 @@
         <v>4.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -947,16 +947,16 @@
         <v>3.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
         <v>2.1</v>
@@ -977,7 +977,7 @@
         <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
@@ -986,10 +986,10 @@
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1019,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>21</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1159,10 +1159,10 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1198,19 +1198,19 @@
         <v>12</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
         <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="n">
         <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1249,7 +1249,7 @@
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
         <v>151</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1341,10 +1341,10 @@
         <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1353,10 +1353,10 @@
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
@@ -1374,10 +1374,10 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
@@ -1386,22 +1386,22 @@
         <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN5" t="n">
         <v>4.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -1422,13 +1422,13 @@
         <v>4.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
         <v>67</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
         <v>2.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
         <v>5.5</v>
@@ -1505,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1526,16 +1526,16 @@
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1577,10 +1577,10 @@
         <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1705,10 +1705,10 @@
         <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
@@ -1723,7 +1723,7 @@
         <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
@@ -1777,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1786,7 +1786,7 @@
         <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
         <v>26</v>
@@ -1798,10 +1798,10 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1857,10 +1857,10 @@
         <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -2030,13 +2030,13 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -2057,16 +2057,16 @@
         <v>2.88</v>
       </c>
       <c r="S9" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="T9" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
         <v>10</v>
@@ -2120,31 +2120,31 @@
         <v>67</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AO9" t="n">
         <v>4.75</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AR9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT9" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>11</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>15</v>
@@ -2153,16 +2153,16 @@
         <v>51</v>
       </c>
       <c r="AY9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB9" t="n">
         <v>301</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>151</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I10" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -2251,31 +2251,31 @@
         <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
         <v>41</v>
       </c>
-      <c r="AA10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>51</v>
-      </c>
       <c r="AC10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
@@ -2284,40 +2284,40 @@
         <v>1250</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
         <v>2.25</v>
@@ -2329,22 +2329,22 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
         <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2409,16 +2409,16 @@
         <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2433,31 +2433,31 @@
         <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA11" t="n">
         <v>15</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>13</v>
       </c>
       <c r="AB11" t="n">
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -2466,19 +2466,19 @@
         <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
@@ -2487,19 +2487,19 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
         <v>3.25</v>
@@ -2514,7 +2514,7 @@
         <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J2" t="n">
         <v>5.5</v>
@@ -762,7 +762,7 @@
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -795,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X2" t="n">
         <v>29</v>
@@ -828,7 +828,7 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>12</v>
@@ -846,16 +846,16 @@
         <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="n">
         <v>101</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX2" t="n">
         <v>7.5</v>
@@ -882,7 +882,7 @@
         <v>17</v>
       </c>
       <c r="AZ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
         <v>41</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bLBozsEO</t>
+          <t>GzR3hT4H</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
         <v>8</v>
-      </c>
-      <c r="X3" t="n">
-        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>15</v>
       </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
         <v>12</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX3" t="n">
         <v>26</v>
       </c>
-      <c r="AL3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>15</v>
-      </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jypdPPa6</t>
+          <t>bLBozsEO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,121 +1102,121 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
         <v>10</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="n">
         <v>13</v>
       </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
         <v>23</v>
       </c>
-      <c r="AL4" t="n">
-        <v>19</v>
-      </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
@@ -1225,34 +1225,34 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2Zydfpat</t>
+          <t>jypdPPa6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,124 +1284,124 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
         <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -1410,7 +1410,7 @@
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
@@ -1419,25 +1419,25 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6RYCj2b5</t>
+          <t>2Zydfpat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,169 +1466,169 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.1</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9</v>
+      </c>
+      <c r="X6" t="n">
         <v>13</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
         <v>7.5</v>
       </c>
-      <c r="X6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY6" t="n">
         <v>23</v>
       </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS6" t="n">
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD6" t="n">
         <v>126</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Aau4hOTh</t>
+          <t>6RYCj2b5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R7" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
         <v>17</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH7" t="n">
         <v>15</v>
       </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>11</v>
-      </c>
       <c r="AI7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP7" t="n">
         <v>19</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AQ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR7" t="n">
         <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
       </c>
       <c r="AS7" t="n">
         <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sr4IM8HF</t>
+          <t>Aau4hOTh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,105 +1825,105 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
         <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
         <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
         <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>13</v>
@@ -1932,67 +1932,67 @@
         <v>41</v>
       </c>
       <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
         <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
       </c>
       <c r="AN8" t="n">
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
         <v>81</v>
       </c>
-      <c r="BA8" t="n">
-        <v>126</v>
-      </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>65Ly84z2</t>
+          <t>Sr4IM8HF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Union Comercio</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
         <v>21</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
         <v>6.5</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T9" t="n">
-        <v>5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
         <v>29</v>
       </c>
-      <c r="AC9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG9" t="n">
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB9" t="n">
         <v>351</v>
       </c>
-      <c r="AH9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>301</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>301</v>
-      </c>
       <c r="BC9" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>U1eH0v6t</t>
+          <t>65Ly84z2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,65 +2184,65 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>1.14</v>
       </c>
       <c r="H10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>21</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R10" t="n">
         <v>2.88</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="T10" t="n">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="U10" t="n">
         <v>2.1</v>
@@ -2251,112 +2251,112 @@
         <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD10" t="n">
         <v>15</v>
       </c>
-      <c r="Y10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.5</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AR10" t="n">
         <v>23</v>
       </c>
-      <c r="AL10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO10" t="n">
+      <c r="AS10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
         <v>19</v>
       </c>
-      <c r="AP10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ10" t="n">
+      <c r="AX10" t="n">
         <v>67</v>
       </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS10" t="n">
+      <c r="AY10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA10" t="n">
         <v>301</v>
       </c>
-      <c r="AT10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GIJbDHkn</t>
+          <t>U1eH0v6t</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,162 +2376,344 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K11" t="n">
         <v>1.91</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X11" t="n">
         <v>13</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU11" t="n">
         <v>9</v>
       </c>
-      <c r="X11" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AV11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX11" t="n">
         <v>17</v>
       </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AY11" t="n">
         <v>29</v>
       </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
       </c>
       <c r="BD11" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GIJbDHkn</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD12" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J2" t="n">
         <v>5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S2" t="n">
         <v>1.3</v>
@@ -795,13 +795,13 @@
         <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
         <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
         <v>51</v>
@@ -819,10 +819,10 @@
         <v>8.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
         <v>201</v>
@@ -831,7 +831,7 @@
         <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
@@ -843,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN2" t="n">
         <v>7</v>
@@ -861,7 +861,7 @@
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
         <v>3.4</v>
@@ -876,7 +876,7 @@
         <v>3.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
@@ -938,10 +938,10 @@
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L3" t="n">
         <v>4.75</v>
@@ -962,7 +962,7 @@
         <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bLBozsEO</t>
+          <t>C2dY7844</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,83 +1092,83 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
@@ -1177,10 +1177,10 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1189,28 +1189,28 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1222,28 +1222,28 @@
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
         <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>51</v>
@@ -1252,19 +1252,19 @@
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jypdPPa6</t>
+          <t>Aau4hOTh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,55 +1284,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.35</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
         <v>3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
       </c>
       <c r="U5" t="n">
         <v>1.73</v>
@@ -1341,28 +1341,28 @@
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
         <v>15</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
         <v>11</v>
       </c>
-      <c r="Z5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1374,67 +1374,67 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
         <v>8</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2Zydfpat</t>
+          <t>Sr4IM8HF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J6" t="n">
         <v>2.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>13</v>
       </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
       <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
         <v>21</v>
       </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AH6" t="n">
         <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
       </c>
       <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA6" t="n">
         <v>151</v>
       </c>
-      <c r="AT6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
+      <c r="BB6" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="AW6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
+      <c r="BD6" t="n">
         <v>51</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6RYCj2b5</t>
+          <t>65Ly84z2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,167 +1638,167 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>2.1</v>
+        <v>1.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
+        <v>21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AP7" t="n">
         <v>13</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AQ7" t="n">
         <v>8</v>
       </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>23</v>
-      </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aau4hOTh</t>
+          <t>E7tcFnrS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.5</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="V8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>11</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="AA8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
         <v>7.5</v>
       </c>
-      <c r="X8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="AE8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO8" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AP8" t="n">
         <v>26</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU8" t="n">
         <v>11</v>
       </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY8" t="n">
         <v>51</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AZ8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA8" t="n">
         <v>251</v>
       </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
+      <c r="BB8" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC8" t="n">
         <v>126</v>
       </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>151</v>
-      </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sr4IM8HF</t>
+          <t>U1eH0v6t</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,60 +2007,60 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
         <v>2.2</v>
@@ -2069,76 +2069,76 @@
         <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
       </c>
       <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK9" t="n">
         <v>21</v>
       </c>
-      <c r="AF9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
         <v>41</v>
       </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU9" t="n">
         <v>9.5</v>
@@ -2147,34 +2147,34 @@
         <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>65Ly84z2</t>
+          <t>GIJbDHkn</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,536 +2184,172 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Union Comercio</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.14</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU10" t="n">
         <v>7.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>15</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>21</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10</v>
-      </c>
-      <c r="X10" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>12</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX10" t="n">
         <v>19</v>
       </c>
-      <c r="AX10" t="n">
-        <v>67</v>
-      </c>
       <c r="AY10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>51</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>351</v>
-      </c>
       <c r="BA10" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>U1eH0v6t</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>FC Cartagena SAD</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Elche</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7</v>
-      </c>
-      <c r="X11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GIJbDHkn</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Racing Santander</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>13</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD12" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rHF0kEjo</t>
+          <t>GzR3hT4H</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,101 +728,101 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L2" t="n">
         <v>4.75</v>
       </c>
-      <c r="H2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.57</v>
       </c>
-      <c r="J2" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
       <c r="W2" t="n">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>201</v>
@@ -831,76 +831,76 @@
         <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO2" t="n">
         <v>12</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>26</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
         <v>81</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>101</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="BA2" t="n">
         <v>151</v>
       </c>
-      <c r="AT2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>41</v>
-      </c>
       <c r="BB2" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GzR3hT4H</t>
+          <t>C2dY7844</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brusque</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.87</v>
-      </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
         <v>6</v>
       </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
         <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
         <v>15</v>
       </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA3" t="n">
         <v>81</v>
       </c>
-      <c r="AW3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>151</v>
-      </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C2dY7844</t>
+          <t>fRP7imKN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X4" t="n">
         <v>7.5</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
         <v>51</v>
       </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
         <v>81</v>
       </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aau4hOTh</t>
+          <t>65Ly84z2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,167 +1274,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.13</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
       <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>21</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.2</v>
       </c>
-      <c r="L5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="V5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>11</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD5" t="n">
         <v>17</v>
       </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="AP5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR5" t="n">
         <v>21</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sr4IM8HF</t>
+          <t>E7tcFnrS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,41 +1456,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1499,43 +1499,43 @@
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="V6" t="n">
         <v>1.5</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1544,46 +1544,46 @@
         <v>6.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>21</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AK6" t="n">
         <v>81</v>
       </c>
-      <c r="AG6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>51</v>
       </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
@@ -1592,765 +1592,37 @@
         <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>65Ly84z2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PERU - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>AD Tarma</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Union Comercio</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>12</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>21</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="T7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>301</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>E7tcFnrS</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PERU - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Cienciano</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Alianza Atl.</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>7</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="X8" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC8" t="n">
         <v>126</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>U1eH0v6t</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>FC Cartagena SAD</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Elche</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GIJbDHkn</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Racing Santander</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>12</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>9</v>
-      </c>
-      <c r="X10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,7 +783,7 @@
         <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
         <v>2.25</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
@@ -1314,67 +1314,67 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="R5" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="T5" t="n">
         <v>6.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA5" t="n">
         <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
         <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
         <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
         <v>67</v>
@@ -1386,13 +1386,13 @@
         <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
         <v>4.5</v>
@@ -1493,16 +1493,16 @@
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
         <v>2.4</v>
@@ -1511,10 +1511,10 @@
         <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
         <v>2.5</v>
@@ -1623,6 +1623,188 @@
       </c>
       <c r="BD6" t="n">
         <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>vw4ebel5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tampa Bay</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hartford Athletic</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GzR3hT4H</t>
+          <t>rHF0kEjo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,101 +728,101 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Brusque</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V2" t="n">
         <v>2</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
         <v>201</v>
@@ -831,76 +831,76 @@
         <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB2" t="n">
         <v>101</v>
       </c>
-      <c r="BA2" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>501</v>
-      </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C2dY7844</t>
+          <t>GzR3hT4H</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
         <v>8.5</v>
       </c>
       <c r="AI3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>15</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
         <v>12</v>
       </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
+      <c r="AP3" t="n">
         <v>29</v>
       </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fRP7imKN</t>
+          <t>xpQsXZ7m</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,131 +1092,131 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
         <v>2.75</v>
       </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W4" t="n">
         <v>7</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH4" t="n">
         <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1225,46 +1225,46 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB4" t="n">
         <v>251</v>
       </c>
-      <c r="AT4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>351</v>
-      </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>65Ly84z2</t>
+          <t>bLBozsEO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,170 +1274,170 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Union Comercio</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.13</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>15</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
         <v>12</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>23</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="T5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="AJ5" t="n">
         <v>10</v>
       </c>
-      <c r="X5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AK5" t="n">
         <v>26</v>
       </c>
-      <c r="AC5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
         <v>201</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
         <v>81</v>
       </c>
-      <c r="AM5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>301</v>
-      </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
         <v>201</v>
       </c>
-      <c r="BB5" t="n">
-        <v>251</v>
-      </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E7tcFnrS</t>
+          <t>jypdPPa6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Alianza Atl.</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.5</v>
       </c>
-      <c r="I6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.25</v>
-      </c>
       <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="L6" t="n">
-        <v>7</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.4</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
         <v>17</v>
       </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
         <v>151</v>
       </c>
-      <c r="BA6" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>351</v>
-      </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vw4ebel5</t>
+          <t>2Zydfpat</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,173 +1638,5451 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tampa Bay</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hartford Athletic</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6RYCj2b5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aau4hOTh</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I9fFNr8T</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ESTONIA - MEISTRILIIGA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Parnu JK Vaprus</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>37</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2sWoIMVj</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ESTONIA - MEISTRILIIGA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Narva</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>OjXsJ2Gp</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ESTONIA - MEISTRILIIGA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Flora</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kalju</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0f5Qa4s2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Jaro</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lahti</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0Cb1WyIt</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Inter Turku</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.62</v>
       </c>
-      <c r="H7" t="n">
+      <c r="V14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>12</v>
+      </c>
+      <c r="X14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>dbYjCYWO</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Gnistan</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>YkvcxZWI</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Alemannia Aachen</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Unterhaching</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WQsttHXg</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Hannover II</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W17" t="n">
+        <v>13</v>
+      </c>
+      <c r="X17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EoHq0xPP</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>RW Essen</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Verl</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>12</v>
+      </c>
+      <c r="X18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Shykve26</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>SG Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>17</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W19" t="n">
+        <v>15</v>
+      </c>
+      <c r="X19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pU7FfGnm</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14:02</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Munich 1860</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>VfL Osnabruck</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>11</v>
+      </c>
+      <c r="X20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>O4AK2CBH</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Verdy</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>zuEO1WQN</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>lfAAIomc</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>hGQpIPWp</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>00:05</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>19</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>YVqENo9N</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>00:06</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Mazatlan FC</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>U.A.N.L.- Tigres</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W25" t="n">
+        <v>10</v>
+      </c>
+      <c r="X25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vNNN0Rfd</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>COD Meknes</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Wydad</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W26" t="n">
+        <v>13</v>
+      </c>
+      <c r="X26" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>h6PF2mQq</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Olympique de Safi</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>fV5AOUn3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Jeunesse Sportive Soualem</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H28" t="n">
         <v>3.8</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>9</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sr4IM8HF</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>IR Tanger</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I29" t="n">
         <v>4.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="J29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W29" t="n">
+        <v>5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>65Ly84z2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PERU - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>AD Tarma</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Union Comercio</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>15</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>12</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>23</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W30" t="n">
+        <v>10</v>
+      </c>
+      <c r="X30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EXsrs05T</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>tl3qMzJ5</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W32" t="n">
+        <v>7</v>
+      </c>
+      <c r="X32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>06qkgE4U</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Cadiz CF</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>bsmYdd55</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>U1eH0v6t</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W35" t="n">
+        <v>8</v>
+      </c>
+      <c r="X35" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GIJbDHkn</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4</v>
+      </c>
+      <c r="M36" t="n">
         <v>1.04</v>
       </c>
-      <c r="N7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="X7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="N36" t="n">
+        <v>13</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>9</v>
+      </c>
+      <c r="X36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB36" t="n">
         <v>23</v>
       </c>
-      <c r="AC7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AY7" t="n">
+      <c r="AC36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL36" t="n">
         <v>29</v>
       </c>
-      <c r="AZ7" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>51</v>
+      <c r="AM36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD36"/>
+  <dimension ref="A1:BD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -947,10 +947,10 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -965,10 +965,10 @@
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
         <v>2.25</v>
@@ -980,13 +980,13 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -998,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1010,10 +1010,10 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1028,10 +1028,10 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1046,7 +1046,7 @@
         <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
         <v>9.5</v>
@@ -1058,13 +1058,13 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>xpQsXZ7m</t>
+          <t>C2dY7844</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,47 +1092,47 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lok. Plovdiv</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.1</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J4" t="n">
-        <v>2.87</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1153,31 +1153,31 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
       </c>
       <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
         <v>10</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="n">
         <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1189,19 +1189,19 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
         <v>29</v>
@@ -1210,19 +1210,19 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
         <v>201</v>
@@ -1234,37 +1234,37 @@
         <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
         <v>251</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bLBozsEO</t>
+          <t>fRP7imKN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2.6</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
         <v>21</v>
       </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jypdPPa6</t>
+          <t>xpQsXZ7m</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,92 +1456,92 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.35</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>2.87</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
         <v>9.5</v>
       </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1553,82 +1553,82 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2Zydfpat</t>
+          <t>bLBozsEO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,31 +1648,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1681,16 +1681,16 @@
         <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1699,13 +1699,13 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
         <v>12</v>
@@ -1714,43 +1714,43 @@
         <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
         <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
         <v>34</v>
@@ -1762,16 +1762,16 @@
         <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
         <v>2.63</v>
@@ -1783,7 +1783,7 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX7" t="n">
         <v>15</v>
@@ -1795,13 +1795,13 @@
         <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6RYCj2b5</t>
+          <t>jypdPPa6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,55 +1830,55 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>2.35</v>
       </c>
       <c r="J8" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.8</v>
       </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
         <v>1.8</v>
@@ -1887,31 +1887,31 @@
         <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1920,67 +1920,67 @@
         <v>251</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM8" t="n">
         <v>29</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
         <v>17</v>
       </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8</v>
-      </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Aau4hOTh</t>
+          <t>2Zydfpat</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,88 +2012,88 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
         <v>9</v>
       </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2102,43 +2102,43 @@
         <v>251</v>
       </c>
       <c r="AH9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>11</v>
       </c>
-      <c r="AI9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2147,25 +2147,25 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
         <v>67</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>81</v>
       </c>
       <c r="BB9" t="n">
         <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I9fFNr8T</t>
+          <t>6RYCj2b5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Paide</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6.1</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>4.55</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>1.38</v>
+        <v>5.25</v>
       </c>
       <c r="J10" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.8</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.52</v>
-      </c>
       <c r="R10" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>16.5</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
         <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.4</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.2</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO10" t="n">
         <v>8</v>
       </c>
-      <c r="AL10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>35</v>
-      </c>
       <c r="AP10" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.35</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.1</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2sWoIMVj</t>
+          <t>Aau4hOTh</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Narva</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.82</v>
+        <v>1.87</v>
       </c>
       <c r="H11" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.72</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>13</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="W11" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="X11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AK11" t="n">
-        <v>18.5</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.45</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>11.25</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OjXsJ2Gp</t>
+          <t>I9fFNr8T</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,160 +2558,160 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Paide</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>4.55</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>1.38</v>
       </c>
       <c r="J12" t="n">
-        <v>2.7</v>
+        <v>5.7</v>
       </c>
       <c r="K12" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>11.5</v>
+        <v>14.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="R12" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="S12" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>3.26</v>
+        <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>2.43</v>
+        <v>1.87</v>
       </c>
       <c r="W12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL12" t="n">
         <v>9</v>
       </c>
-      <c r="X12" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AM12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>16</v>
       </c>
-      <c r="AC12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="BA12" t="n">
+        <v>37</v>
+      </c>
+      <c r="BB12" t="n">
         <v>150</v>
       </c>
-      <c r="AH12" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>70</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>200</v>
-      </c>
       <c r="BC12" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0f5Qa4s2</t>
+          <t>2sWoIMVj</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Jaro</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Narva</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.82</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>2.18</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>2.72</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.48</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>1.59</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>2.28</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>11.25</v>
       </c>
       <c r="X13" t="n">
-        <v>9.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AA13" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AC13" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>9.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
-        <v>501</v>
+        <v>120</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>10.75</v>
       </c>
       <c r="AJ13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL13" t="n">
         <v>13</v>
       </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>16.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AR13" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AS13" t="n">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU13" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="AV13" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AW13" t="n">
-        <v>5</v>
+        <v>4.45</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>11.25</v>
       </c>
       <c r="AY13" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="BA13" t="n">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="BB13" t="n">
-        <v>351</v>
+        <v>150</v>
       </c>
       <c r="BC13" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0Cb1WyIt</t>
+          <t>OjXsJ2Gp</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Kalju</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H14" t="n">
         <v>3.25</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L14" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="R14" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="W14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>11.25</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF14" t="n">
         <v>29</v>
       </c>
-      <c r="AC14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
       <c r="AG14" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AH14" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK14" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.33</v>
+        <v>5.2</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AY14" t="n">
         <v>19</v>
       </c>
       <c r="AZ14" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BC14" t="n">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dbYjCYWO</t>
+          <t>0f5Qa4s2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3104,160 +3104,160 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>Jaro</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gnistan</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="R15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.25</v>
       </c>
-      <c r="L15" t="n">
-        <v>4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>12</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
+        <v>6</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH15" t="n">
         <v>8.5</v>
       </c>
-      <c r="X15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AI15" t="n">
         <v>17</v>
       </c>
-      <c r="AA15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AJ15" t="n">
         <v>13</v>
       </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>12</v>
-      </c>
       <c r="AK15" t="n">
         <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="n">
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY15" t="n">
         <v>34</v>
       </c>
-      <c r="AR15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS15" t="n">
+      <c r="AZ15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA15" t="n">
         <v>126</v>
       </c>
-      <c r="AT15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>81</v>
-      </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC15" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>YkvcxZWI</t>
+          <t>0Cb1WyIt</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,41 +3276,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.73</v>
+        <v>3.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -3325,10 +3325,10 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S16" t="n">
         <v>1.33</v>
@@ -3337,109 +3337,109 @@
         <v>3.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X16" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH16" t="n">
         <v>9</v>
       </c>
-      <c r="Y16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AI16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL16" t="n">
         <v>15</v>
       </c>
-      <c r="AA16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="AM16" t="n">
         <v>23</v>
       </c>
-      <c r="AC16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI16" t="n">
+      <c r="AN16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP16" t="n">
         <v>23</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
         <v>3.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AX16" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WQsttHXg</t>
+          <t>dbYjCYWO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,92 +3458,92 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hannover II</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Gnistan</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>12</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
         <v>3.75</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA17" t="n">
         <v>15</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W17" t="n">
-        <v>13</v>
-      </c>
-      <c r="X17" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y17" t="n">
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
         <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>15</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
@@ -3558,70 +3558,70 @@
         <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
         <v>11</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="AP17" t="n">
         <v>19</v>
       </c>
-      <c r="AL17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
         <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
         <v>7.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EoHq0xPP</t>
+          <t>YkvcxZWI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,160 +3650,160 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RW Essen</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
         <v>15</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
         <v>12</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AD18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
         <v>13</v>
       </c>
-      <c r="Y18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA18" t="n">
+      <c r="AI18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>15</v>
       </c>
-      <c r="AB18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF18" t="n">
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
         <v>34</v>
       </c>
-      <c r="AG18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI18" t="n">
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP18" t="n">
         <v>19</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM18" t="n">
+      <c r="AQ18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX18" t="n">
         <v>23</v>
       </c>
-      <c r="AN18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>15</v>
-      </c>
       <c r="AY18" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB18" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC18" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Shykve26</t>
+          <t>WQsttHXg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,64 +3832,64 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SG Dynamo Dresden</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="S19" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T19" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="V19" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="W19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X19" t="n">
         <v>19</v>
@@ -3901,91 +3901,91 @@
         <v>34</v>
       </c>
       <c r="AA19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI19" t="n">
         <v>11</v>
       </c>
-      <c r="AF19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
         <v>15</v>
       </c>
       <c r="AM19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN19" t="n">
         <v>5.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV19" t="n">
         <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX19" t="n">
         <v>11</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ19" t="n">
         <v>34</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC19" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BD19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pU7FfGnm</t>
+          <t>EoHq0xPP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4014,31 +4014,31 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Munich 1860</t>
+          <t>RW Essen</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L20" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.25</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4047,22 +4047,22 @@
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U20" t="n">
         <v>1.5</v>
@@ -4071,7 +4071,7 @@
         <v>2.5</v>
       </c>
       <c r="W20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X20" t="n">
         <v>13</v>
@@ -4080,16 +4080,16 @@
         <v>9.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="n">
         <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
         <v>7</v>
@@ -4104,16 +4104,16 @@
         <v>101</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
         <v>21</v>
@@ -4128,10 +4128,10 @@
         <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
         <v>51</v>
@@ -4140,7 +4140,7 @@
         <v>101</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU20" t="n">
         <v>7</v>
@@ -4149,7 +4149,7 @@
         <v>41</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX20" t="n">
         <v>15</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>O4AK2CBH</t>
+          <t>Shykve26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,170 +4186,170 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Verdy</t>
+          <t>SG Dynamo Dresden</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.9</v>
+        <v>2.15</v>
       </c>
       <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L21" t="n">
         <v>2.75</v>
       </c>
-      <c r="K21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="T21" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="n">
         <v>17</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AD21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM21" t="n">
         <v>19</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AN21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>34</v>
       </c>
-      <c r="AC21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>81</v>
-      </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BB21" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="BC21" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BD21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>zuEO1WQN</t>
+          <t>pU7FfGnm</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,170 +4368,170 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V22" t="n">
         <v>2.5</v>
       </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W22" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z22" t="n">
         <v>23</v>
       </c>
       <c r="AA22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM22" t="n">
         <v>23</v>
       </c>
-      <c r="AB22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AN22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP22" t="n">
         <v>19</v>
       </c>
-      <c r="AF22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH22" t="n">
+      <c r="AQ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU22" t="n">
         <v>7</v>
       </c>
-      <c r="AI22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO22" t="n">
+      <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX22" t="n">
         <v>15</v>
       </c>
-      <c r="AP22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>19</v>
-      </c>
       <c r="AY22" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB22" t="n">
         <v>101</v>
       </c>
-      <c r="BB22" t="n">
-        <v>301</v>
-      </c>
       <c r="BC22" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>lfAAIomc</t>
+          <t>O4AK2CBH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4560,76 +4560,76 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Verdy</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J23" t="n">
         <v>2.75</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.4</v>
       </c>
       <c r="K23" t="n">
         <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X23" t="n">
         <v>9</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W23" t="n">
-        <v>8</v>
-      </c>
-      <c r="X23" t="n">
-        <v>13</v>
-      </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
         <v>34</v>
@@ -4641,79 +4641,79 @@
         <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>13</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>11</v>
-      </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP23" t="n">
         <v>23</v>
       </c>
-      <c r="AM23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS23" t="n">
         <v>201</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ23" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC23" t="n">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hGQpIPWp</t>
+          <t>zuEO1WQN</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.36</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N24" t="n">
         <v>6.5</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N24" t="n">
-        <v>19</v>
-      </c>
       <c r="O24" t="n">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.48</v>
       </c>
-      <c r="R24" t="n">
-        <v>2.6</v>
-      </c>
       <c r="S24" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="T24" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U24" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W24" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="X24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AB24" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG24" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AS24" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="AX24" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AY24" t="n">
         <v>34</v>
       </c>
       <c r="AZ24" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BA24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB24" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC24" t="n">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="BD24" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>YVqENo9N</t>
+          <t>lfAAIomc</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,95 +4914,95 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>00:06</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2.15</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="R25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8</v>
+      </c>
+      <c r="X25" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y25" t="n">
         <v>11</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W25" t="n">
-        <v>10</v>
-      </c>
-      <c r="X25" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>12</v>
-      </c>
       <c r="Z25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB25" t="n">
         <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -5011,31 +5011,31 @@
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AM25" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
         <v>26</v>
@@ -5050,7 +5050,7 @@
         <v>201</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU25" t="n">
         <v>8</v>
@@ -5059,34 +5059,34 @@
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB25" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC25" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD25" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vNNN0Rfd</t>
+          <t>hGQpIPWp</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,179 +5096,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L26" t="n">
         <v>6.5</v>
       </c>
-      <c r="H26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J26" t="n">
-        <v>7</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.25</v>
-      </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="P26" t="n">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.4</v>
+        <v>1.48</v>
       </c>
       <c r="R26" t="n">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="S26" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="T26" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U26" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="V26" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="X26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR26" t="n">
         <v>34</v>
       </c>
-      <c r="Y26" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ26" t="n">
+      <c r="AS26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD26" t="n">
         <v>151</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>h6PF2mQq</t>
+          <t>YVqENo9N</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,179 +5278,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:06</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.95</v>
       </c>
-      <c r="H27" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="W27" t="n">
+        <v>10</v>
+      </c>
+      <c r="X27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN27" t="n">
         <v>5</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N27" t="n">
-        <v>6</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W27" t="n">
-        <v>5</v>
-      </c>
-      <c r="X27" t="n">
+      <c r="AO27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU27" t="n">
         <v>8</v>
       </c>
-      <c r="Y27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY27" t="n">
         <v>21</v>
       </c>
-      <c r="AB27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ27" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB27" t="n">
         <v>151</v>
       </c>
-      <c r="BB27" t="n">
-        <v>51</v>
-      </c>
       <c r="BC27" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD27" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>fV5AOUn3</t>
+          <t>vNNN0Rfd</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5470,37 +5470,37 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.38</v>
+        <v>6.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>7.5</v>
+        <v>1.55</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -5509,10 +5509,10 @@
         <v>2.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S28" t="n">
         <v>1.5</v>
@@ -5521,106 +5521,106 @@
         <v>2.5</v>
       </c>
       <c r="U28" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="V28" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="W28" t="n">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="X28" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.5</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AB28" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AC28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD28" t="n">
         <v>7</v>
       </c>
-      <c r="AD28" t="n">
-        <v>9</v>
-      </c>
       <c r="AE28" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AF28" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AG28" t="n">
         <v>101</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="AJ28" t="n">
-        <v>26</v>
+        <v>9.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="AL28" t="n">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="AM28" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AP28" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AQ28" t="n">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="AR28" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AS28" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="AT28" t="n">
         <v>2.5</v>
       </c>
       <c r="AU28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV28" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW28" t="n">
-        <v>9.5</v>
+        <v>3.25</v>
       </c>
       <c r="AX28" t="n">
-        <v>51</v>
+        <v>8.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="BA28" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BB28" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BC28" t="n">
         <v>51</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sr4IM8HF</t>
+          <t>h6PF2mQq</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5652,85 +5652,85 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="H29" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P29" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R29" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.53</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.54</v>
       </c>
       <c r="W29" t="n">
         <v>5</v>
       </c>
       <c r="X29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB29" t="n">
         <v>41</v>
       </c>
       <c r="AC29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5742,10 +5742,10 @@
         <v>101</v>
       </c>
       <c r="AH29" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
         <v>17</v>
@@ -5760,25 +5760,25 @@
         <v>51</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS29" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AU29" t="n">
         <v>10</v>
@@ -5787,22 +5787,22 @@
         <v>81</v>
       </c>
       <c r="AW29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
         <v>41</v>
       </c>
       <c r="AZ29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA29" t="n">
         <v>151</v>
       </c>
       <c r="BB29" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BC29" t="n">
         <v>51</v>
@@ -5814,7 +5814,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>65Ly84z2</t>
+          <t>fV5AOUn3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,179 +5824,179 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Union Comercio</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="H30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>9</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z30" t="n">
         <v>8.5</v>
       </c>
-      <c r="I30" t="n">
-        <v>15</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4</v>
-      </c>
-      <c r="L30" t="n">
+      <c r="AA30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU30" t="n">
         <v>12</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N30" t="n">
-        <v>23</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P30" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="T30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W30" t="n">
-        <v>10</v>
-      </c>
-      <c r="X30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>11</v>
-      </c>
       <c r="AV30" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AW30" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AX30" t="n">
         <v>51</v>
       </c>
       <c r="AY30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ30" t="n">
         <v>301</v>
       </c>
       <c r="BA30" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BB30" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BC30" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD30" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EXsrs05T</t>
+          <t>Sr4IM8HF</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,179 +6006,179 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="K31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="S31" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T31" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U31" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="V31" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="W31" t="n">
+        <v>5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC31" t="n">
         <v>6.5</v>
       </c>
-      <c r="X31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF31" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG31" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AH31" t="n">
         <v>9.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>34</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>41</v>
       </c>
       <c r="AR31" t="n">
         <v>67</v>
       </c>
       <c r="AS31" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU31" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV31" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW31" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX31" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ31" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA31" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB31" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC31" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD31" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>tl3qMzJ5</t>
+          <t>65Ly84z2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,179 +6188,179 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>15</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>12</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N32" t="n">
+        <v>23</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U32" t="n">
         <v>2</v>
       </c>
-      <c r="H32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="V32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W32" t="n">
         <v>10</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z32" t="n">
         <v>7</v>
       </c>
-      <c r="X32" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z32" t="n">
+      <c r="AA32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD32" t="n">
         <v>17</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AE32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
         <v>17</v>
       </c>
-      <c r="AB32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG32" t="n">
+      <c r="AX32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ32" t="n">
         <v>301</v>
       </c>
-      <c r="AH32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>67</v>
-      </c>
       <c r="BA32" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB32" t="n">
         <v>251</v>
       </c>
       <c r="BC32" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD32" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06qkgE4U</t>
+          <t>E7tcFnrS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,179 +6370,179 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="J33" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="S33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T33" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V33" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="W33" t="n">
+        <v>5</v>
+      </c>
+      <c r="X33" t="n">
         <v>6.5</v>
       </c>
-      <c r="X33" t="n">
-        <v>9</v>
-      </c>
       <c r="Y33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA33" t="n">
         <v>17</v>
       </c>
-      <c r="AA33" t="n">
-        <v>19</v>
-      </c>
       <c r="AB33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ33" t="n">
         <v>34</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>41</v>
       </c>
       <c r="AR33" t="n">
         <v>67</v>
       </c>
       <c r="AS33" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA33" t="n">
         <v>201</v>
       </c>
-      <c r="AT33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>101</v>
-      </c>
       <c r="BB33" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC33" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD33" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bsmYdd55</t>
+          <t>EXsrs05T</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,95 +6552,95 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.75</v>
+        <v>1.92</v>
       </c>
       <c r="H34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N34" t="n">
+        <v>9</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P34" t="n">
         <v>3</v>
       </c>
-      <c r="I34" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q34" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T34" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U34" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V34" t="n">
         <v>1.8</v>
       </c>
       <c r="W34" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB34" t="n">
         <v>29</v>
       </c>
-      <c r="AA34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>41</v>
-      </c>
       <c r="AC34" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE34" t="n">
         <v>17</v>
@@ -6652,64 +6652,64 @@
         <v>351</v>
       </c>
       <c r="AH34" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO34" t="n">
         <v>11</v>
       </c>
-      <c r="AK34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL34" t="n">
+      <c r="AP34" t="n">
         <v>23</v>
       </c>
-      <c r="AM34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS34" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU34" t="n">
         <v>8.5</v>
       </c>
       <c r="AV34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ34" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA34" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB34" t="n">
         <v>251</v>
@@ -6724,7 +6724,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>U1eH0v6t</t>
+          <t>tl3qMzJ5</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,167 +6734,167 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I35" t="n">
         <v>3.6</v>
       </c>
-      <c r="H35" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.2</v>
-      </c>
       <c r="J35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L35" t="n">
         <v>4.33</v>
       </c>
-      <c r="K35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.1</v>
-      </c>
       <c r="M35" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="P35" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="R35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S35" t="n">
         <v>1.44</v>
       </c>
-      <c r="S35" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T35" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U35" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="V35" t="n">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="W35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Y35" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Z35" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AA35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL35" t="n">
         <v>34</v>
       </c>
-      <c r="AB35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH35" t="n">
+      <c r="AM35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW35" t="n">
         <v>5.5</v>
       </c>
-      <c r="AI35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK35" t="n">
+      <c r="AX35" t="n">
         <v>21</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>15</v>
       </c>
       <c r="AY35" t="n">
         <v>29</v>
       </c>
       <c r="AZ35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA35" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB35" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC35" t="n">
         <v>81</v>
@@ -6906,7 +6906,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GIJbDHkn</t>
+          <t>06qkgE4U</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6926,163 +6926,891 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T36" t="n">
         <v>2.5</v>
       </c>
-      <c r="K36" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L36" t="n">
-        <v>4</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N36" t="n">
-        <v>13</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U36" t="n">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="W36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X36" t="n">
         <v>9</v>
       </c>
-      <c r="X36" t="n">
-        <v>10</v>
-      </c>
       <c r="Y36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z36" t="n">
         <v>17</v>
       </c>
       <c r="AA36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>15</v>
       </c>
-      <c r="AB36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>13</v>
-      </c>
       <c r="AK36" t="n">
         <v>41</v>
       </c>
       <c r="AL36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="n">
         <v>4</v>
       </c>
       <c r="AO36" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP36" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS36" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU36" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW36" t="n">
         <v>5.5</v>
       </c>
       <c r="AX36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>bsmYdd55</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>U1eH0v6t</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W38" t="n">
+        <v>8</v>
+      </c>
+      <c r="X38" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE38" t="n">
         <v>19</v>
       </c>
-      <c r="AY36" t="n">
+      <c r="AF38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>GIJbDHkn</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N39" t="n">
+        <v>13</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W39" t="n">
+        <v>9</v>
+      </c>
+      <c r="X39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY39" t="n">
         <v>26</v>
       </c>
-      <c r="AZ36" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB36" t="n">
+      <c r="AZ39" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB39" t="n">
         <v>151</v>
       </c>
-      <c r="BC36" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>81</v>
+      <c r="BC39" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vw4ebel5</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Tampa Bay</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Hartford Athletic</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W40" t="n">
+        <v>8</v>
+      </c>
+      <c r="X40" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD40"/>
+  <dimension ref="A1:BD41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GzR3hT4H</t>
+          <t>6k1eBeD4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brusque</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>9.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>2.35</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
         <v>10</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP3" t="n">
         <v>17</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AQ3" t="n">
         <v>15</v>
       </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
         <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C2dY7844</t>
+          <t>GzR3hT4H</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12</v>
-      </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
         <v>29</v>
       </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fRP7imKN</t>
+          <t>C2dY7844</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,157 +1284,157 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.86</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.5</v>
       </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
         <v>7.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
         <v>81</v>
       </c>
-      <c r="AW5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>151</v>
-      </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>xpQsXZ7m</t>
+          <t>fRP7imKN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,131 +1456,131 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lok. Plovdiv</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.25</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
         <v>9.5</v>
       </c>
       <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>17</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1589,46 +1589,46 @@
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bLBozsEO</t>
+          <t>xpQsXZ7m</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,65 +1638,65 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
         <v>1.83</v>
@@ -1705,28 +1705,28 @@
         <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1738,79 +1738,79 @@
         <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
         <v>12</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15</v>
-      </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jypdPPa6</t>
+          <t>bLBozsEO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,31 +1830,31 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1863,52 +1863,52 @@
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
@@ -1917,49 +1917,49 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH8" t="n">
         <v>8</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1968,22 +1968,22 @@
         <v>4.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2Zydfpat</t>
+          <t>jypdPPa6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,31 +2012,31 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2057,10 +2057,10 @@
         <v>1.8</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
         <v>1.8</v>
@@ -2069,31 +2069,31 @@
         <v>1.91</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2102,28 +2102,28 @@
         <v>251</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM9" t="n">
         <v>29</v>
       </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
@@ -2138,34 +2138,34 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6RYCj2b5</t>
+          <t>2Zydfpat</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,55 +2194,55 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.25</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.1</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.8</v>
       </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>1.8</v>
@@ -2251,31 +2251,31 @@
         <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
         <v>13</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
@@ -2284,43 +2284,43 @@
         <v>251</v>
       </c>
       <c r="AH10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO10" t="n">
         <v>15</v>
       </c>
-      <c r="AI10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8</v>
-      </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2329,25 +2329,25 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
       </c>
       <c r="BC10" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aau4hOTh</t>
+          <t>6RYCj2b5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,88 +2376,88 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
         <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
         <v>17</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
@@ -2466,43 +2466,43 @@
         <v>251</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP11" t="n">
         <v>19</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS11" t="n">
         <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2511,19 +2511,19 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I9fFNr8T</t>
+          <t>Aau4hOTh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Paide</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.1</v>
+        <v>1.87</v>
       </c>
       <c r="H12" t="n">
-        <v>4.55</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1.38</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.8</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>14.3</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="V12" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>16.5</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
         <v>15</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
         <v>8</v>
       </c>
-      <c r="AE12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AV12" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.35</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>6.1</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2sWoIMVj</t>
+          <t>I9fFNr8T</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,37 +2740,37 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Narva</t>
+          <t>Paide</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.82</v>
+        <v>6.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>4.55</v>
       </c>
       <c r="I13" t="n">
-        <v>2.18</v>
+        <v>1.38</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>2.72</v>
+        <v>1.8</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>14.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.18</v>
@@ -2779,121 +2779,121 @@
         <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="S13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="W13" t="n">
-        <v>11.25</v>
+        <v>16.5</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.75</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AA13" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AB13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM13" t="n">
         <v>18</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AN13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AY13" t="n">
         <v>14</v>
       </c>
-      <c r="AD13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AY13" t="n">
+      <c r="AZ13" t="n">
         <v>16</v>
       </c>
-      <c r="AZ13" t="n">
-        <v>40</v>
-      </c>
       <c r="BA13" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="BB13" t="n">
         <v>150</v>
       </c>
       <c r="BC13" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OjXsJ2Gp</t>
+          <t>2sWoIMVj</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,133 +2922,133 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Narva</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K14" t="n">
         <v>2.2</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R14" t="n">
         <v>2.15</v>
       </c>
-      <c r="L14" t="n">
+      <c r="S14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T14" t="n">
         <v>3.4</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.26</v>
-      </c>
       <c r="U14" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="V14" t="n">
-        <v>2.43</v>
+        <v>2.28</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="X14" t="n">
-        <v>11.25</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AE14" t="n">
         <v>9.25</v>
       </c>
       <c r="AF14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AI14" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO14" t="n">
         <v>14.5</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AP14" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AR14" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AS14" t="n">
         <v>150</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU14" t="n">
         <v>6.1</v>
@@ -3057,22 +3057,22 @@
         <v>40</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.2</v>
+        <v>4.45</v>
       </c>
       <c r="AX14" t="n">
-        <v>15.5</v>
+        <v>11.25</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ14" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="BA14" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="BB14" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC14" t="n">
         <v>500</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0f5Qa4s2</t>
+          <t>OjXsJ2Gp</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jaro</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Kalju</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT15" t="n">
         <v>3.1</v>
       </c>
-      <c r="K15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W15" t="n">
-        <v>6</v>
-      </c>
-      <c r="X15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AZ15" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="BA15" t="n">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="BB15" t="n">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0Cb1WyIt</t>
+          <t>0f5Qa4s2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3286,160 +3286,160 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Jaro</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="I16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U16" t="n">
         <v>2.1</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>13</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V16" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
         <v>23</v>
       </c>
       <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP16" t="n">
         <v>29</v>
       </c>
-      <c r="AC16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU16" t="n">
         <v>9</v>
       </c>
-      <c r="AI16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AV16" t="n">
         <v>67</v>
       </c>
-      <c r="AS16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>41</v>
-      </c>
       <c r="AW16" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB16" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="BD16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dbYjCYWO</t>
+          <t>0Cb1WyIt</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,82 +3468,82 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gnistan</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W17" t="n">
         <v>12</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8.5</v>
-      </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
@@ -3558,70 +3558,70 @@
         <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
         <v>19</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>41</v>
-      </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
         <v>7.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY17" t="n">
         <v>19</v>
       </c>
-      <c r="AY17" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC17" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>YkvcxZWI</t>
+          <t>dbYjCYWO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,86 +3640,86 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Gnistan</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I18" t="n">
         <v>3.7</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.1</v>
-      </c>
       <c r="J18" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
         <v>15</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>13</v>
       </c>
       <c r="AB18" t="n">
         <v>23</v>
@@ -3728,46 +3728,46 @@
         <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
         <v>41</v>
       </c>
       <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
         <v>34</v>
       </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
@@ -3776,34 +3776,34 @@
         <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
         <v>81</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WQsttHXg</t>
+          <t>YkvcxZWI</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,157 +3832,157 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hannover II</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>1.73</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>2.63</v>
+        <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
+        <v>13</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
         <v>15</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="AA19" t="n">
         <v>13</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP19" t="n">
         <v>19</v>
       </c>
-      <c r="Y19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AQ19" t="n">
         <v>29</v>
       </c>
-      <c r="AC19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>51</v>
-      </c>
       <c r="AR19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
         <v>126</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AX19" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EoHq0xPP</t>
+          <t>WQsttHXg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,31 +4014,31 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RW Essen</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4047,118 +4047,118 @@
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.57</v>
       </c>
-      <c r="R20" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V20" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W20" t="n">
+        <v>13</v>
+      </c>
+      <c r="X20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y20" t="n">
         <v>12</v>
       </c>
-      <c r="X20" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
         <v>15</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>17</v>
       </c>
       <c r="AD20" t="n">
         <v>7</v>
       </c>
       <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI20" t="n">
         <v>11</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AJ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>34</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>41</v>
       </c>
       <c r="BA20" t="n">
         <v>51</v>
@@ -4167,7 +4167,7 @@
         <v>101</v>
       </c>
       <c r="BC20" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Shykve26</t>
+          <t>EoHq0xPP</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,124 +4196,124 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>RW Essen</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SG Dynamo Dresden</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="K21" t="n">
         <v>2.4</v>
       </c>
       <c r="L21" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.5</v>
       </c>
-      <c r="R21" t="n">
+      <c r="V21" t="n">
         <v>2.5</v>
       </c>
-      <c r="S21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.63</v>
-      </c>
       <c r="W21" t="n">
+        <v>12</v>
+      </c>
+      <c r="X21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="n">
         <v>15</v>
       </c>
-      <c r="X21" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA21" t="n">
+      <c r="AB21" t="n">
         <v>21</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>23</v>
       </c>
       <c r="AC21" t="n">
         <v>17</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO21" t="n">
         <v>12</v>
       </c>
-      <c r="AI21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>15</v>
-      </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR21" t="n">
         <v>51</v>
@@ -4322,7 +4322,7 @@
         <v>101</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU21" t="n">
         <v>7</v>
@@ -4331,25 +4331,25 @@
         <v>41</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pU7FfGnm</t>
+          <t>Shykve26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4378,118 +4378,118 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Munich 1860</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>SG Dynamo Dresden</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J22" t="n">
         <v>3.4</v>
       </c>
-      <c r="I22" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L22" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
+        <v>17</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W22" t="n">
         <v>15</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>11</v>
-      </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="n">
         <v>23</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AC22" t="n">
         <v>17</v>
       </c>
-      <c r="AB22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>15</v>
-      </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE22" t="n">
         <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI22" t="n">
         <v>13</v>
       </c>
-      <c r="AI22" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AM22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP22" t="n">
         <v>19</v>
@@ -4504,7 +4504,7 @@
         <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU22" t="n">
         <v>7</v>
@@ -4513,25 +4513,25 @@
         <v>41</v>
       </c>
       <c r="AW22" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC22" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>O4AK2CBH</t>
+          <t>pU7FfGnm</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,170 +4550,170 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Verdy</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L23" t="n">
         <v>3.25</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R23" t="n">
         <v>2.25</v>
       </c>
-      <c r="R23" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.5</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>2.5</v>
       </c>
-      <c r="U23" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="X23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA23" t="n">
         <v>17</v>
       </c>
-      <c r="AA23" t="n">
-        <v>19</v>
-      </c>
       <c r="AB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF23" t="n">
         <v>34</v>
       </c>
-      <c r="AC23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AG23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI23" t="n">
         <v>17</v>
       </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO23" t="n">
         <v>12</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV23" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY23" t="n">
         <v>21</v>
       </c>
-      <c r="AY23" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ23" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB23" t="n">
         <v>101</v>
       </c>
-      <c r="BB23" t="n">
-        <v>251</v>
-      </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>zuEO1WQN</t>
+          <t>O4AK2CBH</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4742,157 +4742,157 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Verdy</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T24" t="n">
         <v>2.5</v>
       </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V24" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
         <v>6.5</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
         <v>6</v>
       </c>
       <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI24" t="n">
         <v>19</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AJ24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
         <v>67</v>
       </c>
-      <c r="AG24" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>81</v>
-      </c>
       <c r="AS24" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV24" t="n">
         <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY24" t="n">
         <v>34</v>
       </c>
       <c r="AZ24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA24" t="n">
         <v>101</v>
       </c>
       <c r="BB24" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC24" t="n">
         <v>81</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>lfAAIomc</t>
+          <t>zuEO1WQN</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4924,121 +4924,121 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
         <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L25" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="R25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.67</v>
       </c>
-      <c r="S25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
         <v>23</v>
       </c>
       <c r="AB25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG25" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="AH25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO25" t="n">
         <v>15</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
         <v>51</v>
@@ -5047,37 +5047,37 @@
         <v>81</v>
       </c>
       <c r="AS25" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY25" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC25" t="n">
         <v>81</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>451</v>
       </c>
       <c r="BD25" t="n">
         <v>81</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hGQpIPWp</t>
+          <t>lfAAIomc</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,164 +5096,164 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9</v>
+      </c>
+      <c r="O26" t="n">
         <v>1.36</v>
       </c>
-      <c r="H26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N26" t="n">
-        <v>19</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.14</v>
-      </c>
       <c r="P26" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.48</v>
+        <v>2.15</v>
       </c>
       <c r="R26" t="n">
-        <v>2.6</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="T26" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W26" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="X26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="n">
         <v>8</v>
       </c>
-      <c r="Y26" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA26" t="n">
+      <c r="AD26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>11</v>
       </c>
-      <c r="AB26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="n">
+      <c r="AK26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS26" t="n">
         <v>201</v>
       </c>
-      <c r="AH26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK26" t="n">
+      <c r="AT26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA26" t="n">
         <v>81</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>126</v>
       </c>
       <c r="BB26" t="n">
         <v>201</v>
@@ -5262,13 +5262,13 @@
         <v>451</v>
       </c>
       <c r="BD26" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>YVqENo9N</t>
+          <t>hGQpIPWp</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>00:06</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5288,160 +5288,160 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>1.36</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="J27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N27" t="n">
+        <v>19</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T27" t="n">
         <v>3.75</v>
       </c>
-      <c r="K27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="U27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2</v>
+      </c>
+      <c r="W27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA27" t="n">
         <v>11</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W27" t="n">
-        <v>10</v>
-      </c>
-      <c r="X27" t="n">
+      <c r="AB27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>17</v>
       </c>
-      <c r="Y27" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z27" t="n">
+      <c r="AR27" t="n">
         <v>34</v>
       </c>
-      <c r="AA27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB27" t="n">
+      <c r="AS27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX27" t="n">
         <v>34</v>
       </c>
-      <c r="AC27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS27" t="n">
+      <c r="AY27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB27" t="n">
         <v>201</v>
       </c>
-      <c r="AT27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>151</v>
-      </c>
       <c r="BC27" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD27" t="n">
         <v>151</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vNNN0Rfd</t>
+          <t>YVqENo9N</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,179 +5460,179 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:06</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>11</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W28" t="n">
+        <v>10</v>
+      </c>
+      <c r="X28" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD28" t="n">
         <v>6.5</v>
       </c>
-      <c r="H28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J28" t="n">
-        <v>7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>7</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W28" t="n">
-        <v>13</v>
-      </c>
-      <c r="X28" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>7</v>
-      </c>
       <c r="AE28" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AL28" t="n">
         <v>17</v>
       </c>
       <c r="AM28" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AQ28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB28" t="n">
         <v>151</v>
       </c>
-      <c r="AR28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>251</v>
-      </c>
       <c r="BC28" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD28" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>h6PF2mQq</t>
+          <t>vNNN0Rfd</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5652,55 +5652,55 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="H29" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="J29" t="n">
-        <v>2.88</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="M29" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R29" t="n">
         <v>1.53</v>
       </c>
-      <c r="P29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S29" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T29" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="U29" t="n">
         <v>2.38</v>
@@ -5709,31 +5709,31 @@
         <v>1.53</v>
       </c>
       <c r="W29" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="X29" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Z29" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AB29" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AC29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>81</v>
@@ -5742,43 +5742,43 @@
         <v>101</v>
       </c>
       <c r="AH29" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AJ29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL29" t="n">
         <v>17</v>
       </c>
-      <c r="AK29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>41</v>
-      </c>
       <c r="AM29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AP29" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ29" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="AR29" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AS29" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU29" t="n">
         <v>10</v>
@@ -5787,22 +5787,22 @@
         <v>81</v>
       </c>
       <c r="AW29" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="AX29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY29" t="n">
         <v>26</v>
       </c>
-      <c r="AY29" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ29" t="n">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB29" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BC29" t="n">
         <v>51</v>
@@ -5814,7 +5814,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fV5AOUn3</t>
+          <t>h6PF2mQq</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5834,154 +5834,154 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.38</v>
+        <v>1.95</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>2.88</v>
       </c>
       <c r="I30" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
+        <v>6</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W30" t="n">
+        <v>5</v>
+      </c>
+      <c r="X30" t="n">
         <v>8</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W30" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="X30" t="n">
-        <v>5</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
       </c>
       <c r="Z30" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AA30" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB30" t="n">
         <v>41</v>
       </c>
       <c r="AC30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AG30" t="n">
         <v>101</v>
       </c>
       <c r="AH30" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AL30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR30" t="n">
         <v>81</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>51</v>
       </c>
       <c r="AS30" t="n">
         <v>301</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>101</v>
       </c>
-      <c r="AW30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>301</v>
-      </c>
       <c r="BA30" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BB30" t="n">
         <v>51</v>
@@ -5996,7 +5996,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sr4IM8HF</t>
+          <t>fV5AOUn3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6016,157 +6016,157 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>9</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T31" t="n">
         <v>2.5</v>
       </c>
-      <c r="K31" t="n">
-        <v>2</v>
-      </c>
-      <c r="L31" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="U31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC31" t="n">
         <v>7</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W31" t="n">
-        <v>5</v>
-      </c>
-      <c r="X31" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AF31" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AG31" t="n">
         <v>101</v>
       </c>
       <c r="AH31" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AK31" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AL31" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AO31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AP31" t="n">
         <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS31" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV31" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW31" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AX31" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AY31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ31" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BA31" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BB31" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BC31" t="n">
         <v>51</v>
@@ -6178,7 +6178,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>65Ly84z2</t>
+          <t>Sr4IM8HF</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,179 +6188,179 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Union Comercio</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.13</v>
+        <v>1.69</v>
       </c>
       <c r="H32" t="n">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
+        <v>7</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W32" t="n">
+        <v>5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI32" t="n">
         <v>23</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P32" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="T32" t="n">
+      <c r="AJ32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW32" t="n">
         <v>6.5</v>
       </c>
-      <c r="U32" t="n">
-        <v>2</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W32" t="n">
-        <v>10</v>
-      </c>
-      <c r="X32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE32" t="n">
+      <c r="AX32" t="n">
         <v>29</v>
       </c>
-      <c r="AF32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG32" t="n">
+      <c r="AY32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB32" t="n">
         <v>351</v>
       </c>
-      <c r="AH32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>301</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>251</v>
-      </c>
       <c r="BC32" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD32" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>E7tcFnrS</t>
+          <t>65Ly84z2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6380,169 +6380,169 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Alianza Atl.</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>1.13</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="I33" t="n">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="J33" t="n">
-        <v>2.4</v>
+        <v>1.33</v>
       </c>
       <c r="K33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>12</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>23</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U33" t="n">
         <v>2</v>
       </c>
-      <c r="L33" t="n">
-        <v>6</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.38</v>
-      </c>
       <c r="V33" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="W33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X33" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD33" t="n">
         <v>17</v>
       </c>
-      <c r="AB33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE33" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL33" t="n">
         <v>81</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>51</v>
       </c>
       <c r="AM33" t="n">
         <v>67</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AO33" t="n">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AQ33" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="AR33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS33" t="n">
         <v>67</v>
       </c>
-      <c r="AS33" t="n">
-        <v>251</v>
-      </c>
       <c r="AT33" t="n">
-        <v>2.38</v>
+        <v>6.5</v>
       </c>
       <c r="AU33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV33" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW33" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AX33" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AY33" t="n">
         <v>41</v>
       </c>
       <c r="AZ33" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BA33" t="n">
         <v>201</v>
       </c>
       <c r="BB33" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EXsrs05T</t>
+          <t>E7tcFnrS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,179 +6552,179 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.75</v>
+        <v>6.25</v>
       </c>
       <c r="J34" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="K34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T34" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U34" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="W34" t="n">
+        <v>5</v>
+      </c>
+      <c r="X34" t="n">
         <v>6.5</v>
       </c>
-      <c r="X34" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Y34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
         <v>17</v>
       </c>
       <c r="AB34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI34" t="n">
         <v>29</v>
       </c>
-      <c r="AC34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ34" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AK34" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL34" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM34" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AN34" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO34" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ34" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR34" t="n">
         <v>67</v>
       </c>
       <c r="AS34" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA34" t="n">
         <v>201</v>
       </c>
-      <c r="AT34" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>101</v>
-      </c>
       <c r="BB34" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC34" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD34" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>tl3qMzJ5</t>
+          <t>EXsrs05T</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,59 +6734,59 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="H35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J35" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="K35" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R35" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S35" t="n">
         <v>1.44</v>
@@ -6795,16 +6795,16 @@
         <v>2.63</v>
       </c>
       <c r="U35" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -6831,13 +6831,13 @@
         <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="n">
         <v>13</v>
@@ -6864,13 +6864,13 @@
         <v>41</v>
       </c>
       <c r="AR35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS35" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU35" t="n">
         <v>8.5</v>
@@ -6885,10 +6885,10 @@
         <v>21</v>
       </c>
       <c r="AY35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ35" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA35" t="n">
         <v>101</v>
@@ -6906,7 +6906,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06qkgE4U</t>
+          <t>tl3qMzJ5</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,74 +6916,74 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J36" t="n">
         <v>2.75</v>
       </c>
       <c r="K36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L36" t="n">
         <v>4.33</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P36" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S36" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T36" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V36" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X36" t="n">
         <v>9</v>
@@ -6995,16 +6995,16 @@
         <v>17</v>
       </c>
       <c r="AA36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE36" t="n">
         <v>17</v>
@@ -7013,16 +7013,16 @@
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH36" t="n">
         <v>10</v>
       </c>
       <c r="AI36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK36" t="n">
         <v>41</v>
@@ -7037,7 +7037,7 @@
         <v>4</v>
       </c>
       <c r="AO36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP36" t="n">
         <v>23</v>
@@ -7046,19 +7046,19 @@
         <v>41</v>
       </c>
       <c r="AR36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS36" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AU36" t="n">
         <v>8.5</v>
       </c>
       <c r="AV36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW36" t="n">
         <v>5.5</v>
@@ -7067,16 +7067,16 @@
         <v>21</v>
       </c>
       <c r="AY36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA36" t="n">
         <v>101</v>
       </c>
       <c r="BB36" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC36" t="n">
         <v>81</v>
@@ -7088,7 +7088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bsmYdd55</t>
+          <t>06qkgE4U</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7108,31 +7108,31 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="n">
         <v>2.75</v>
       </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
@@ -7147,10 +7147,10 @@
         <v>2.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R37" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S37" t="n">
         <v>1.5</v>
@@ -7159,28 +7159,28 @@
         <v>2.5</v>
       </c>
       <c r="U37" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W37" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y37" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z37" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AA37" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="n">
         <v>7.5</v>
@@ -7198,40 +7198,40 @@
         <v>351</v>
       </c>
       <c r="AH37" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AI37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO37" t="n">
         <v>12</v>
       </c>
-      <c r="AJ37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL37" t="n">
+      <c r="AP37" t="n">
         <v>23</v>
       </c>
-      <c r="AM37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS37" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT37" t="n">
         <v>2.5</v>
@@ -7243,22 +7243,22 @@
         <v>67</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX37" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ37" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA37" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB37" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC37" t="n">
         <v>81</v>
@@ -7270,7 +7270,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>U1eH0v6t</t>
+          <t>bsmYdd55</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -7290,106 +7290,106 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="H38" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="J38" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U38" t="n">
         <v>1.91</v>
       </c>
-      <c r="L38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N38" t="n">
-        <v>6</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V38" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="W38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X38" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA38" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC38" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AD38" t="n">
         <v>6</v>
       </c>
       <c r="AE38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AH38" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AJ38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK38" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL38" t="n">
         <v>23</v>
@@ -7398,34 +7398,34 @@
         <v>41</v>
       </c>
       <c r="AN38" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP38" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AQ38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR38" t="n">
         <v>81</v>
       </c>
-      <c r="AR38" t="n">
-        <v>126</v>
-      </c>
       <c r="AS38" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU38" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV38" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW38" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX38" t="n">
         <v>15</v>
@@ -7440,7 +7440,7 @@
         <v>81</v>
       </c>
       <c r="BB38" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC38" t="n">
         <v>81</v>
@@ -7452,7 +7452,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GIJbDHkn</t>
+          <t>U1eH0v6t</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7472,148 +7472,148 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.86</v>
+        <v>3.6</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>2.82</v>
       </c>
       <c r="I39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W39" t="n">
+        <v>8</v>
+      </c>
+      <c r="X39" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW39" t="n">
         <v>4</v>
       </c>
-      <c r="J39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N39" t="n">
-        <v>13</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W39" t="n">
-        <v>9</v>
-      </c>
-      <c r="X39" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA39" t="n">
+      <c r="AX39" t="n">
         <v>15</v>
       </c>
-      <c r="AB39" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL39" t="n">
+      <c r="AY39" t="n">
         <v>29</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>26</v>
       </c>
       <c r="AZ39" t="n">
         <v>51</v>
@@ -7622,7 +7622,7 @@
         <v>81</v>
       </c>
       <c r="BB39" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC39" t="n">
         <v>81</v>
@@ -7634,7 +7634,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vw4ebel5</t>
+          <t>GIJbDHkn</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7644,172 +7644,354 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Tampa Bay</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hartford Athletic</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="H40" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="K40" t="n">
         <v>2.3</v>
       </c>
       <c r="L40" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
         <v>1.22</v>
       </c>
       <c r="P40" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R40" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S40" t="n">
         <v>1.33</v>
       </c>
       <c r="T40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W40" t="n">
+        <v>9</v>
+      </c>
+      <c r="X40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vw4ebel5</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Tampa Bay</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Hartford Athletic</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T41" t="n">
         <v>3.05</v>
       </c>
-      <c r="U40" t="n">
+      <c r="U41" t="n">
         <v>1.7</v>
       </c>
-      <c r="V40" t="n">
+      <c r="V41" t="n">
         <v>2.02</v>
       </c>
-      <c r="W40" t="n">
+      <c r="W41" t="n">
         <v>8</v>
       </c>
-      <c r="X40" t="n">
+      <c r="X41" t="n">
         <v>8.25</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Y41" t="n">
         <v>8</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="Z41" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AA41" t="n">
         <v>12</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AB41" t="n">
         <v>22</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AC41" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD40" t="n">
+      <c r="AD41" t="n">
         <v>7.8</v>
       </c>
-      <c r="AE40" t="n">
+      <c r="AE41" t="n">
         <v>15</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AF41" t="n">
         <v>60</v>
       </c>
-      <c r="AG40" t="n">
+      <c r="AG41" t="n">
         <v>400</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AH41" t="n">
         <v>15</v>
       </c>
-      <c r="AI40" t="n">
+      <c r="AI41" t="n">
         <v>28</v>
       </c>
-      <c r="AJ40" t="n">
+      <c r="AJ41" t="n">
         <v>15</v>
       </c>
-      <c r="AK40" t="n">
+      <c r="AK41" t="n">
         <v>75</v>
       </c>
-      <c r="AL40" t="n">
+      <c r="AL41" t="n">
         <v>40</v>
       </c>
-      <c r="AM40" t="n">
+      <c r="AM41" t="n">
         <v>40</v>
       </c>
-      <c r="AN40" t="n">
+      <c r="AN41" t="n">
         <v>3.6</v>
       </c>
-      <c r="AO40" t="n">
+      <c r="AO41" t="n">
         <v>7.8</v>
       </c>
-      <c r="AP40" t="n">
+      <c r="AP41" t="n">
         <v>16</v>
       </c>
-      <c r="AQ40" t="n">
+      <c r="AQ41" t="n">
         <v>25</v>
       </c>
-      <c r="AR40" t="n">
+      <c r="AR41" t="n">
         <v>50</v>
       </c>
-      <c r="AS40" t="n">
+      <c r="AS41" t="n">
         <v>200</v>
       </c>
-      <c r="AT40" t="n">
+      <c r="AT41" t="n">
         <v>3.05</v>
       </c>
-      <c r="AU40" t="n">
+      <c r="AU41" t="n">
         <v>7.3</v>
       </c>
-      <c r="AV40" t="n">
+      <c r="AV41" t="n">
         <v>60</v>
       </c>
-      <c r="AW40" t="n">
+      <c r="AW41" t="n">
         <v>6.4</v>
       </c>
-      <c r="AX40" t="n">
+      <c r="AX41" t="n">
         <v>25</v>
       </c>
-      <c r="AY40" t="n">
+      <c r="AY41" t="n">
         <v>28</v>
       </c>
-      <c r="AZ40" t="n">
+      <c r="AZ41" t="n">
         <v>150</v>
       </c>
-      <c r="BA40" t="n">
+      <c r="BA41" t="n">
         <v>150</v>
       </c>
-      <c r="BB40" t="n">
+      <c r="BB41" t="n">
         <v>350</v>
       </c>
-      <c r="BC40" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD40" t="n">
+      <c r="BC41" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD41" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD41"/>
+  <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
@@ -1490,7 +1490,7 @@
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1505,10 +1505,10 @@
         <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1517,37 +1517,37 @@
         <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>81</v>
@@ -1556,16 +1556,16 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1577,7 +1577,7 @@
         <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
@@ -1601,19 +1601,19 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xpQsXZ7m</t>
+          <t>YBcU8lkb</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lok. Plovdiv</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.87</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.25</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX7" t="n">
         <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>19</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
         <v>251</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bLBozsEO</t>
+          <t>xpQsXZ7m</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,65 +1820,65 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1887,28 +1887,28 @@
         <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
@@ -1920,79 +1920,79 @@
         <v>301</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
         <v>12</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jypdPPa6</t>
+          <t>bLBozsEO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,31 +2012,31 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2045,52 +2045,52 @@
         <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2099,49 +2099,49 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
         <v>8</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
@@ -2150,22 +2150,22 @@
         <v>4.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2Zydfpat</t>
+          <t>jypdPPa6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,31 +2194,31 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2239,10 +2239,10 @@
         <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
         <v>1.8</v>
@@ -2251,31 +2251,31 @@
         <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
@@ -2284,28 +2284,28 @@
         <v>251</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM10" t="n">
         <v>29</v>
       </c>
-      <c r="AL10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2320,34 +2320,34 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6RYCj2b5</t>
+          <t>2Zydfpat</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,55 +2376,55 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.1</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.8</v>
       </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
         <v>1.8</v>
@@ -2433,31 +2433,31 @@
         <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
         <v>13</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
@@ -2466,43 +2466,43 @@
         <v>251</v>
       </c>
       <c r="AH11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" t="n">
         <v>15</v>
       </c>
-      <c r="AI11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>8</v>
-      </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2511,25 +2511,25 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aau4hOTh</t>
+          <t>6RYCj2b5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,88 +2558,88 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE12" t="n">
         <v>17</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
       </c>
       <c r="AF12" t="n">
         <v>51</v>
@@ -2648,43 +2648,43 @@
         <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP12" t="n">
         <v>19</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
         <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2693,19 +2693,19 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
         <v>201</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I9fFNr8T</t>
+          <t>Aau4hOTh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Paide</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.1</v>
+        <v>1.87</v>
       </c>
       <c r="H13" t="n">
-        <v>4.55</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.38</v>
+        <v>3.75</v>
       </c>
       <c r="J13" t="n">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.8</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>14.3</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="V13" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>16.5</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
         <v>15</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
         <v>8</v>
       </c>
-      <c r="AE13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AV13" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.35</v>
+        <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>6.1</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="BA13" t="n">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2sWoIMVj</t>
+          <t>I9fFNr8T</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,37 +2922,37 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Narva</t>
+          <t>Paide</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.82</v>
+        <v>6.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>4.55</v>
       </c>
       <c r="I14" t="n">
-        <v>2.18</v>
+        <v>1.38</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>2.72</v>
+        <v>1.8</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>14.3</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
@@ -2961,121 +2961,121 @@
         <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R14" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="S14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="V14" t="n">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
-        <v>11.25</v>
+        <v>16.5</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.75</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AB14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM14" t="n">
         <v>18</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AN14" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AY14" t="n">
         <v>14</v>
       </c>
-      <c r="AD14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AY14" t="n">
+      <c r="AZ14" t="n">
         <v>16</v>
       </c>
-      <c r="AZ14" t="n">
-        <v>40</v>
-      </c>
       <c r="BA14" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="BB14" t="n">
         <v>150</v>
       </c>
       <c r="BC14" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OjXsJ2Gp</t>
+          <t>2sWoIMVj</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3104,133 +3104,133 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Narva</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.2</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R15" t="n">
         <v>2.15</v>
       </c>
-      <c r="L15" t="n">
+      <c r="S15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T15" t="n">
         <v>3.4</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.26</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="V15" t="n">
-        <v>2.43</v>
+        <v>2.28</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="X15" t="n">
-        <v>11.25</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AA15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC15" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AE15" t="n">
         <v>9.25</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AI15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO15" t="n">
         <v>14.5</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AP15" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AR15" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AS15" t="n">
         <v>150</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU15" t="n">
         <v>6.1</v>
@@ -3239,22 +3239,22 @@
         <v>40</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.2</v>
+        <v>4.45</v>
       </c>
       <c r="AX15" t="n">
-        <v>15.5</v>
+        <v>11.25</v>
       </c>
       <c r="AY15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="BA15" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="BB15" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC15" t="n">
         <v>500</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0f5Qa4s2</t>
+          <t>OjXsJ2Gp</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Jaro</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Kalju</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9</v>
+      </c>
+      <c r="X16" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT16" t="n">
         <v>3.1</v>
       </c>
-      <c r="K16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6</v>
-      </c>
-      <c r="X16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="AV16" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="BA16" t="n">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="BB16" t="n">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0Cb1WyIt</t>
+          <t>0f5Qa4s2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3468,160 +3468,160 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Jaro</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="I17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.1</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
-        <v>13</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V17" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="W17" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
         <v>23</v>
       </c>
       <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP17" t="n">
         <v>29</v>
       </c>
-      <c r="AC17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH17" t="n">
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU17" t="n">
         <v>9</v>
       </c>
-      <c r="AI17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AV17" t="n">
         <v>67</v>
       </c>
-      <c r="AS17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>41</v>
-      </c>
       <c r="AW17" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BC17" t="n">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dbYjCYWO</t>
+          <t>0Cb1WyIt</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,82 +3650,82 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gnistan</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
         <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W18" t="n">
         <v>12</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8.5</v>
-      </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
         <v>7</v>
@@ -3740,70 +3740,70 @@
         <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK18" t="n">
         <v>19</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>41</v>
-      </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU18" t="n">
         <v>7.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY18" t="n">
         <v>19</v>
       </c>
-      <c r="AY18" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC18" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>YkvcxZWI</t>
+          <t>dbYjCYWO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,86 +3822,86 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Gnistan</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.7</v>
       </c>
-      <c r="I19" t="n">
-        <v>4.1</v>
-      </c>
       <c r="J19" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
         <v>15</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>13</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
@@ -3910,46 +3910,46 @@
         <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>41</v>
       </c>
       <c r="AL19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM19" t="n">
         <v>34</v>
       </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
       <c r="AN19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
         <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR19" t="n">
         <v>51</v>
@@ -3958,34 +3958,34 @@
         <v>126</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
         <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC19" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WQsttHXg</t>
+          <t>YkvcxZWI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,157 +4014,157 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hannover II</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>1.73</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="K20" t="n">
         <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>2.63</v>
+        <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
+        <v>13</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>8</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
         <v>15</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W20" t="n">
+      <c r="AA20" t="n">
         <v>13</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP20" t="n">
         <v>19</v>
       </c>
-      <c r="Y20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AQ20" t="n">
         <v>29</v>
       </c>
-      <c r="AC20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
         <v>126</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AX20" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EoHq0xPP</t>
+          <t>WQsttHXg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,31 +4196,31 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>RW Essen</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -4229,118 +4229,118 @@
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.57</v>
       </c>
-      <c r="R21" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V21" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W21" t="n">
+        <v>13</v>
+      </c>
+      <c r="X21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="n">
         <v>12</v>
       </c>
-      <c r="X21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
         <v>15</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>17</v>
       </c>
       <c r="AD21" t="n">
         <v>7</v>
       </c>
       <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI21" t="n">
         <v>11</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AJ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>34</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>41</v>
       </c>
       <c r="BA21" t="n">
         <v>51</v>
@@ -4349,7 +4349,7 @@
         <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shykve26</t>
+          <t>EoHq0xPP</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4378,124 +4378,124 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>RW Essen</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SG Dynamo Dresden</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="K22" t="n">
         <v>2.4</v>
       </c>
       <c r="L22" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.5</v>
       </c>
-      <c r="R22" t="n">
+      <c r="V22" t="n">
         <v>2.5</v>
       </c>
-      <c r="S22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.63</v>
-      </c>
       <c r="W22" t="n">
+        <v>12</v>
+      </c>
+      <c r="X22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
         <v>15</v>
       </c>
-      <c r="X22" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AB22" t="n">
         <v>21</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>23</v>
       </c>
       <c r="AC22" t="n">
         <v>17</v>
       </c>
       <c r="AD22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO22" t="n">
         <v>12</v>
       </c>
-      <c r="AI22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>15</v>
-      </c>
       <c r="AP22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR22" t="n">
         <v>51</v>
@@ -4504,7 +4504,7 @@
         <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU22" t="n">
         <v>7</v>
@@ -4513,25 +4513,25 @@
         <v>41</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC22" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>pU7FfGnm</t>
+          <t>Shykve26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4560,118 +4560,118 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Munich 1860</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>SG Dynamo Dresden</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.4</v>
       </c>
-      <c r="I23" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K23" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L23" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
+        <v>17</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W23" t="n">
         <v>15</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W23" t="n">
-        <v>11</v>
-      </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
         <v>23</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AC23" t="n">
         <v>17</v>
       </c>
-      <c r="AB23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>15</v>
-      </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI23" t="n">
         <v>13</v>
       </c>
-      <c r="AI23" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AM23" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
         <v>19</v>
@@ -4686,7 +4686,7 @@
         <v>101</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU23" t="n">
         <v>7</v>
@@ -4695,25 +4695,25 @@
         <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX23" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC23" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>O4AK2CBH</t>
+          <t>pU7FfGnm</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,170 +4732,170 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Verdy</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L24" t="n">
         <v>3.25</v>
       </c>
-      <c r="I24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R24" t="n">
         <v>2.25</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.5</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
         <v>2.5</v>
       </c>
-      <c r="U24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W24" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="X24" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
         <v>17</v>
       </c>
-      <c r="AA24" t="n">
-        <v>19</v>
-      </c>
       <c r="AB24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF24" t="n">
         <v>34</v>
       </c>
-      <c r="AC24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE24" t="n">
+      <c r="AG24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI24" t="n">
         <v>17</v>
       </c>
-      <c r="AF24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO24" t="n">
         <v>12</v>
       </c>
       <c r="AP24" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ24" t="n">
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU24" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY24" t="n">
         <v>21</v>
       </c>
-      <c r="AY24" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB24" t="n">
         <v>101</v>
       </c>
-      <c r="BB24" t="n">
-        <v>251</v>
-      </c>
       <c r="BC24" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD24" t="n">
         <v>81</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>zuEO1WQN</t>
+          <t>O4AK2CBH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4924,157 +4924,157 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Verdy</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T25" t="n">
         <v>2.5</v>
       </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V25" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W25" t="n">
         <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
       </c>
       <c r="AE25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI25" t="n">
         <v>19</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR25" t="n">
         <v>67</v>
       </c>
-      <c r="AG25" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>81</v>
-      </c>
       <c r="AS25" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV25" t="n">
         <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>34</v>
       </c>
       <c r="AZ25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA25" t="n">
         <v>101</v>
       </c>
       <c r="BB25" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>lfAAIomc</t>
+          <t>zuEO1WQN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5106,121 +5106,121 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
         <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L26" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="R26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.67</v>
       </c>
-      <c r="S26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W26" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
         <v>23</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG26" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
         <v>13</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO26" t="n">
         <v>15</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
@@ -5229,37 +5229,37 @@
         <v>81</v>
       </c>
       <c r="AS26" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB26" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC26" t="n">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="BD26" t="n">
         <v>81</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hGQpIPWp</t>
+          <t>lfAAIomc</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,164 +5278,164 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.36</v>
       </c>
-      <c r="H27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N27" t="n">
-        <v>19</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.14</v>
-      </c>
       <c r="P27" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.48</v>
+        <v>2.15</v>
       </c>
       <c r="R27" t="n">
-        <v>2.6</v>
+        <v>1.67</v>
       </c>
       <c r="S27" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="T27" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W27" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="n">
         <v>8</v>
       </c>
-      <c r="Y27" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>11</v>
       </c>
-      <c r="AB27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
+      <c r="AK27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS27" t="n">
         <v>201</v>
       </c>
-      <c r="AH27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP27" t="n">
+      <c r="AT27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX27" t="n">
         <v>15</v>
       </c>
-      <c r="AQ27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>34</v>
-      </c>
       <c r="AY27" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BA27" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB27" t="n">
         <v>201</v>
@@ -5444,13 +5444,13 @@
         <v>451</v>
       </c>
       <c r="BD27" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>YVqENo9N</t>
+          <t>hGQpIPWp</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>00:06</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5470,160 +5470,160 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.25</v>
+        <v>1.36</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="J28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N28" t="n">
+        <v>19</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T28" t="n">
         <v>3.75</v>
       </c>
-      <c r="K28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="U28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA28" t="n">
         <v>11</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W28" t="n">
-        <v>10</v>
-      </c>
-      <c r="X28" t="n">
+      <c r="AB28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>17</v>
       </c>
-      <c r="Y28" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z28" t="n">
+      <c r="AR28" t="n">
         <v>34</v>
       </c>
-      <c r="AA28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB28" t="n">
+      <c r="AS28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX28" t="n">
         <v>34</v>
       </c>
-      <c r="AC28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS28" t="n">
+      <c r="AY28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB28" t="n">
         <v>201</v>
       </c>
-      <c r="AT28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>151</v>
-      </c>
       <c r="BC28" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD28" t="n">
         <v>151</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vNNN0Rfd</t>
+          <t>YVqENo9N</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,179 +5642,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:06</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W29" t="n">
+        <v>10</v>
+      </c>
+      <c r="X29" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD29" t="n">
         <v>6.5</v>
       </c>
-      <c r="H29" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J29" t="n">
-        <v>7</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N29" t="n">
-        <v>7</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W29" t="n">
-        <v>13</v>
-      </c>
-      <c r="X29" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>7</v>
-      </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AH29" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>17</v>
       </c>
       <c r="AM29" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN29" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AO29" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB29" t="n">
         <v>151</v>
       </c>
-      <c r="AR29" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>251</v>
-      </c>
       <c r="BC29" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD29" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>h6PF2mQq</t>
+          <t>vNNN0Rfd</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5834,55 +5834,55 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="H30" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="J30" t="n">
-        <v>2.88</v>
+        <v>7</v>
       </c>
       <c r="K30" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R30" t="n">
         <v>1.53</v>
       </c>
-      <c r="P30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S30" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T30" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="U30" t="n">
         <v>2.38</v>
@@ -5891,31 +5891,31 @@
         <v>1.53</v>
       </c>
       <c r="W30" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="X30" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Z30" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AB30" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AC30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
         <v>81</v>
@@ -5924,43 +5924,43 @@
         <v>101</v>
       </c>
       <c r="AH30" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AJ30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL30" t="n">
         <v>17</v>
       </c>
-      <c r="AK30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>41</v>
-      </c>
       <c r="AM30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AP30" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ30" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="AR30" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AS30" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU30" t="n">
         <v>10</v>
@@ -5969,22 +5969,22 @@
         <v>81</v>
       </c>
       <c r="AW30" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="AX30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY30" t="n">
         <v>26</v>
       </c>
-      <c r="AY30" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ30" t="n">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB30" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BC30" t="n">
         <v>51</v>
@@ -5996,7 +5996,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>fV5AOUn3</t>
+          <t>h6PF2mQq</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6016,154 +6016,154 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.38</v>
+        <v>1.95</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>2.88</v>
       </c>
       <c r="I31" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="K31" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L31" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N31" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5</v>
+      </c>
+      <c r="X31" t="n">
         <v>8</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W31" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="X31" t="n">
-        <v>5</v>
       </c>
       <c r="Y31" t="n">
         <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AA31" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB31" t="n">
         <v>41</v>
       </c>
       <c r="AC31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AF31" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AG31" t="n">
         <v>101</v>
       </c>
       <c r="AH31" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AL31" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM31" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AO31" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR31" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS31" t="n">
         <v>301</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ31" t="n">
         <v>101</v>
       </c>
-      <c r="AW31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>301</v>
-      </c>
       <c r="BA31" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BB31" t="n">
         <v>51</v>
@@ -6178,7 +6178,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sr4IM8HF</t>
+          <t>fV5AOUn3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6198,157 +6198,157 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>9</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T32" t="n">
         <v>2.5</v>
       </c>
-      <c r="K32" t="n">
-        <v>2</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="U32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC32" t="n">
         <v>7</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W32" t="n">
-        <v>5</v>
-      </c>
-      <c r="X32" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AD32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE32" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AF32" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AG32" t="n">
         <v>101</v>
       </c>
       <c r="AH32" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AI32" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AK32" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AL32" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AO32" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AP32" t="n">
         <v>26</v>
       </c>
       <c r="AQ32" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS32" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU32" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV32" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW32" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AX32" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AY32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ32" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BA32" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BB32" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BC32" t="n">
         <v>51</v>
@@ -6360,7 +6360,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>65Ly84z2</t>
+          <t>Sr4IM8HF</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,179 +6370,179 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Union Comercio</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.13</v>
+        <v>1.69</v>
       </c>
       <c r="H33" t="n">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W33" t="n">
+        <v>5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI33" t="n">
         <v>23</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P33" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="T33" t="n">
+      <c r="AJ33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW33" t="n">
         <v>6.5</v>
       </c>
-      <c r="U33" t="n">
-        <v>2</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W33" t="n">
-        <v>10</v>
-      </c>
-      <c r="X33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE33" t="n">
+      <c r="AX33" t="n">
         <v>29</v>
       </c>
-      <c r="AF33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG33" t="n">
+      <c r="AY33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB33" t="n">
         <v>351</v>
       </c>
-      <c r="AH33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>301</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>251</v>
-      </c>
       <c r="BC33" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD33" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>E7tcFnrS</t>
+          <t>65Ly84z2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6562,169 +6562,169 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Alianza Atl.</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.62</v>
+        <v>1.13</v>
       </c>
       <c r="H34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>15</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>12</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>23</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R34" t="n">
         <v>3.4</v>
       </c>
-      <c r="I34" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="S34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U34" t="n">
         <v>2</v>
       </c>
-      <c r="L34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N34" t="n">
+      <c r="V34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W34" t="n">
+        <v>10</v>
+      </c>
+      <c r="X34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z34" t="n">
         <v>7</v>
       </c>
-      <c r="O34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W34" t="n">
-        <v>5</v>
-      </c>
-      <c r="X34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>12</v>
-      </c>
       <c r="AA34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD34" t="n">
         <v>17</v>
       </c>
-      <c r="AB34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>7</v>
-      </c>
       <c r="AE34" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF34" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG34" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AH34" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AI34" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AK34" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="AL34" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="n">
         <v>67</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AO34" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AQ34" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AR34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS34" t="n">
         <v>67</v>
       </c>
-      <c r="AS34" t="n">
-        <v>251</v>
-      </c>
       <c r="AT34" t="n">
-        <v>2.38</v>
+        <v>6.5</v>
       </c>
       <c r="AU34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV34" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AX34" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AY34" t="n">
         <v>41</v>
       </c>
       <c r="AZ34" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BA34" t="n">
         <v>201</v>
       </c>
       <c r="BB34" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EXsrs05T</t>
+          <t>E7tcFnrS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,179 +6734,179 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.92</v>
+        <v>1.57</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="K35" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L35" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T35" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U35" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="V35" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="W35" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="X35" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="Y35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AA35" t="n">
         <v>17</v>
       </c>
       <c r="AB35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ35" t="n">
         <v>29</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>41</v>
       </c>
       <c r="AR35" t="n">
         <v>67</v>
       </c>
       <c r="AS35" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ35" t="n">
         <v>201</v>
       </c>
-      <c r="AT35" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>81</v>
-      </c>
       <c r="BA35" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BB35" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC35" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD35" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>tl3qMzJ5</t>
+          <t>EXsrs05T</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,59 +6916,59 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="H36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J36" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S36" t="n">
         <v>1.44</v>
@@ -6977,16 +6977,16 @@
         <v>2.63</v>
       </c>
       <c r="U36" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y36" t="n">
         <v>9</v>
@@ -7013,13 +7013,13 @@
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="n">
         <v>13</v>
@@ -7046,13 +7046,13 @@
         <v>41</v>
       </c>
       <c r="AR36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU36" t="n">
         <v>8.5</v>
@@ -7067,10 +7067,10 @@
         <v>21</v>
       </c>
       <c r="AY36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA36" t="n">
         <v>101</v>
@@ -7088,7 +7088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>06qkgE4U</t>
+          <t>tl3qMzJ5</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,74 +7098,74 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J37" t="n">
         <v>2.75</v>
       </c>
       <c r="K37" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L37" t="n">
         <v>4.33</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="O37" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P37" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S37" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T37" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X37" t="n">
         <v>9</v>
@@ -7177,16 +7177,16 @@
         <v>17</v>
       </c>
       <c r="AA37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE37" t="n">
         <v>17</v>
@@ -7195,16 +7195,16 @@
         <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH37" t="n">
         <v>10</v>
       </c>
       <c r="AI37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK37" t="n">
         <v>41</v>
@@ -7219,7 +7219,7 @@
         <v>4</v>
       </c>
       <c r="AO37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP37" t="n">
         <v>23</v>
@@ -7228,19 +7228,19 @@
         <v>41</v>
       </c>
       <c r="AR37" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AU37" t="n">
         <v>8.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW37" t="n">
         <v>5.5</v>
@@ -7249,16 +7249,16 @@
         <v>21</v>
       </c>
       <c r="AY37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA37" t="n">
         <v>101</v>
       </c>
       <c r="BB37" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC37" t="n">
         <v>81</v>
@@ -7270,7 +7270,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bsmYdd55</t>
+          <t>06qkgE4U</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7290,31 +7290,31 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4</v>
+      </c>
+      <c r="J38" t="n">
         <v>2.75</v>
       </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
@@ -7329,10 +7329,10 @@
         <v>2.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S38" t="n">
         <v>1.5</v>
@@ -7341,28 +7341,28 @@
         <v>2.5</v>
       </c>
       <c r="U38" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W38" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z38" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AA38" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC38" t="n">
         <v>7.5</v>
@@ -7380,40 +7380,40 @@
         <v>351</v>
       </c>
       <c r="AH38" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AI38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO38" t="n">
         <v>12</v>
       </c>
-      <c r="AJ38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL38" t="n">
+      <c r="AP38" t="n">
         <v>23</v>
       </c>
-      <c r="AM38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR38" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS38" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT38" t="n">
         <v>2.5</v>
@@ -7425,22 +7425,22 @@
         <v>67</v>
       </c>
       <c r="AW38" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX38" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ38" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA38" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB38" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC38" t="n">
         <v>81</v>
@@ -7452,7 +7452,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>U1eH0v6t</t>
+          <t>bsmYdd55</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7472,106 +7472,106 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="H39" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="J39" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U39" t="n">
         <v>1.91</v>
       </c>
-      <c r="L39" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N39" t="n">
-        <v>6</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V39" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="W39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X39" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y39" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA39" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC39" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AD39" t="n">
         <v>6</v>
       </c>
       <c r="AE39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF39" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG39" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AH39" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AJ39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK39" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL39" t="n">
         <v>23</v>
@@ -7580,34 +7580,34 @@
         <v>41</v>
       </c>
       <c r="AN39" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP39" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AQ39" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AR39" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AS39" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU39" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV39" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW39" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX39" t="n">
         <v>15</v>
@@ -7622,7 +7622,7 @@
         <v>81</v>
       </c>
       <c r="BB39" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC39" t="n">
         <v>81</v>
@@ -7634,7 +7634,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GIJbDHkn</t>
+          <t>U1eH0v6t</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7654,149 +7654,149 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.86</v>
+        <v>3.6</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>2.82</v>
       </c>
       <c r="I40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W40" t="n">
+        <v>8</v>
+      </c>
+      <c r="X40" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW40" t="n">
         <v>4</v>
       </c>
-      <c r="J40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N40" t="n">
-        <v>13</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W40" t="n">
-        <v>9</v>
-      </c>
-      <c r="X40" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA40" t="n">
+      <c r="AX40" t="n">
         <v>15</v>
       </c>
-      <c r="AB40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL40" t="n">
+      <c r="AY40" t="n">
         <v>29</v>
       </c>
-      <c r="AM40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ40" t="n">
         <v>51</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>81</v>
       </c>
       <c r="BB40" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC40" t="n">
         <v>81</v>
@@ -7816,7 +7816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vw4ebel5</t>
+          <t>GIJbDHkn</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7826,172 +7826,354 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Tampa Bay</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hartford Athletic</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="H41" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="K41" t="n">
         <v>2.3</v>
       </c>
       <c r="L41" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="O41" t="n">
         <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R41" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S41" t="n">
         <v>1.33</v>
       </c>
       <c r="T41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W41" t="n">
+        <v>9</v>
+      </c>
+      <c r="X41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>vw4ebel5</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Tampa Bay</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Hartford Athletic</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T42" t="n">
         <v>3.05</v>
       </c>
-      <c r="U41" t="n">
+      <c r="U42" t="n">
         <v>1.7</v>
       </c>
-      <c r="V41" t="n">
+      <c r="V42" t="n">
         <v>2.02</v>
       </c>
-      <c r="W41" t="n">
+      <c r="W42" t="n">
         <v>8</v>
       </c>
-      <c r="X41" t="n">
+      <c r="X42" t="n">
         <v>8.25</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Y42" t="n">
         <v>8</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="Z42" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AA42" t="n">
         <v>12</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AB42" t="n">
         <v>22</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AC42" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD41" t="n">
+      <c r="AD42" t="n">
         <v>7.8</v>
       </c>
-      <c r="AE41" t="n">
+      <c r="AE42" t="n">
         <v>15</v>
       </c>
-      <c r="AF41" t="n">
+      <c r="AF42" t="n">
         <v>60</v>
       </c>
-      <c r="AG41" t="n">
+      <c r="AG42" t="n">
         <v>400</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AH42" t="n">
         <v>15</v>
       </c>
-      <c r="AI41" t="n">
+      <c r="AI42" t="n">
         <v>28</v>
       </c>
-      <c r="AJ41" t="n">
+      <c r="AJ42" t="n">
         <v>15</v>
       </c>
-      <c r="AK41" t="n">
+      <c r="AK42" t="n">
         <v>75</v>
       </c>
-      <c r="AL41" t="n">
+      <c r="AL42" t="n">
         <v>40</v>
       </c>
-      <c r="AM41" t="n">
+      <c r="AM42" t="n">
         <v>40</v>
       </c>
-      <c r="AN41" t="n">
+      <c r="AN42" t="n">
         <v>3.6</v>
       </c>
-      <c r="AO41" t="n">
+      <c r="AO42" t="n">
         <v>7.8</v>
       </c>
-      <c r="AP41" t="n">
+      <c r="AP42" t="n">
         <v>16</v>
       </c>
-      <c r="AQ41" t="n">
+      <c r="AQ42" t="n">
         <v>25</v>
       </c>
-      <c r="AR41" t="n">
+      <c r="AR42" t="n">
         <v>50</v>
       </c>
-      <c r="AS41" t="n">
+      <c r="AS42" t="n">
         <v>200</v>
       </c>
-      <c r="AT41" t="n">
+      <c r="AT42" t="n">
         <v>3.05</v>
       </c>
-      <c r="AU41" t="n">
+      <c r="AU42" t="n">
         <v>7.3</v>
       </c>
-      <c r="AV41" t="n">
+      <c r="AV42" t="n">
         <v>60</v>
       </c>
-      <c r="AW41" t="n">
+      <c r="AW42" t="n">
         <v>6.4</v>
       </c>
-      <c r="AX41" t="n">
+      <c r="AX42" t="n">
         <v>25</v>
       </c>
-      <c r="AY41" t="n">
+      <c r="AY42" t="n">
         <v>28</v>
       </c>
-      <c r="AZ41" t="n">
+      <c r="AZ42" t="n">
         <v>150</v>
       </c>
-      <c r="BA41" t="n">
+      <c r="BA42" t="n">
         <v>150</v>
       </c>
-      <c r="BB41" t="n">
+      <c r="BB42" t="n">
         <v>350</v>
       </c>
-      <c r="BC41" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD41" t="n">
+      <c r="BC42" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD42" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD42"/>
+  <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
@@ -1490,13 +1490,13 @@
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1535,7 +1535,7 @@
         <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1544,10 +1544,10 @@
         <v>6.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>81</v>
@@ -1559,13 +1559,13 @@
         <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1577,7 +1577,7 @@
         <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
@@ -1601,19 +1601,19 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -1675,13 +1675,13 @@
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
         <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
         <v>2.5</v>
@@ -5814,7 +5814,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vNNN0Rfd</t>
+          <t>tx7uv7g4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,179 +5824,179 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Juarez</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H30" t="n">
         <v>6.5</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I30" t="n">
-        <v>1.55</v>
+        <v>8.5</v>
       </c>
       <c r="J30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N30" t="n">
+        <v>21</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X30" t="n">
         <v>7</v>
       </c>
-      <c r="K30" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>7</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W30" t="n">
-        <v>13</v>
-      </c>
-      <c r="X30" t="n">
-        <v>34</v>
-      </c>
       <c r="Y30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB30" t="n">
         <v>23</v>
       </c>
-      <c r="Z30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>67</v>
-      </c>
       <c r="AC30" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG30" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS30" t="n">
         <v>101</v>
       </c>
-      <c r="AH30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ30" t="n">
+      <c r="AT30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU30" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ30" t="n">
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA30" t="n">
         <v>151</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>51</v>
       </c>
       <c r="BB30" t="n">
         <v>251</v>
       </c>
       <c r="BC30" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD30" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>h6PF2mQq</t>
+          <t>nZ9mxoOG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,179 +6006,179 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>U.N.A.M.- Pumas</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U31" t="n">
         <v>1.91</v>
       </c>
-      <c r="L31" t="n">
-        <v>5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.38</v>
-      </c>
       <c r="V31" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="W31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X31" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AD31" t="n">
         <v>6</v>
       </c>
       <c r="AE31" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AH31" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO31" t="n">
         <v>12</v>
       </c>
       <c r="AP31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY31" t="n">
         <v>29</v>
       </c>
-      <c r="AQ31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ31" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA31" t="n">
         <v>101</v>
       </c>
-      <c r="BA31" t="n">
-        <v>151</v>
-      </c>
       <c r="BB31" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BC31" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD31" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>fV5AOUn3</t>
+          <t>vNNN0Rfd</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6198,37 +6198,37 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.38</v>
+        <v>6.5</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>7.5</v>
+        <v>1.55</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K32" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L32" t="n">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O32" t="n">
         <v>1.44</v>
@@ -6237,10 +6237,10 @@
         <v>2.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R32" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S32" t="n">
         <v>1.5</v>
@@ -6249,106 +6249,106 @@
         <v>2.5</v>
       </c>
       <c r="U32" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="V32" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="W32" t="n">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="X32" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="Y32" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.5</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AB32" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AC32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD32" t="n">
         <v>7</v>
       </c>
-      <c r="AD32" t="n">
-        <v>9</v>
-      </c>
       <c r="AE32" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AF32" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AG32" t="n">
         <v>101</v>
       </c>
       <c r="AH32" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AI32" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="AJ32" t="n">
-        <v>26</v>
+        <v>9.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="AL32" t="n">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="AM32" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AP32" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AQ32" t="n">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="AR32" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AS32" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="AT32" t="n">
         <v>2.5</v>
       </c>
       <c r="AU32" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV32" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW32" t="n">
-        <v>9.5</v>
+        <v>3.25</v>
       </c>
       <c r="AX32" t="n">
-        <v>51</v>
+        <v>8.5</v>
       </c>
       <c r="AY32" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AZ32" t="n">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="BA32" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BB32" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BC32" t="n">
         <v>51</v>
@@ -6360,7 +6360,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sr4IM8HF</t>
+          <t>h6PF2mQq</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6380,85 +6380,85 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P33" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R33" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.53</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.54</v>
       </c>
       <c r="W33" t="n">
         <v>5</v>
       </c>
       <c r="X33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z33" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB33" t="n">
         <v>41</v>
       </c>
       <c r="AC33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE33" t="n">
         <v>21</v>
@@ -6470,10 +6470,10 @@
         <v>101</v>
       </c>
       <c r="AH33" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="n">
         <v>17</v>
@@ -6488,25 +6488,25 @@
         <v>51</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS33" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AU33" t="n">
         <v>10</v>
@@ -6515,22 +6515,22 @@
         <v>81</v>
       </c>
       <c r="AW33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY33" t="n">
         <v>41</v>
       </c>
       <c r="AZ33" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA33" t="n">
         <v>151</v>
       </c>
       <c r="BB33" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BC33" t="n">
         <v>51</v>
@@ -6542,7 +6542,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>65Ly84z2</t>
+          <t>fV5AOUn3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,179 +6552,179 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Union Comercio</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="H34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z34" t="n">
         <v>8.5</v>
       </c>
-      <c r="I34" t="n">
-        <v>15</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4</v>
-      </c>
-      <c r="L34" t="n">
-        <v>12</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N34" t="n">
-        <v>23</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="AA34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC34" t="n">
         <v>7</v>
       </c>
-      <c r="Q34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="T34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W34" t="n">
-        <v>10</v>
-      </c>
-      <c r="X34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB34" t="n">
+      <c r="AD34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>26</v>
       </c>
-      <c r="AC34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>41</v>
-      </c>
       <c r="AK34" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AL34" t="n">
         <v>81</v>
       </c>
       <c r="AM34" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="AO34" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AP34" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AQ34" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AR34" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AS34" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="AT34" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="AU34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV34" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AW34" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AX34" t="n">
         <v>51</v>
       </c>
       <c r="AY34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ34" t="n">
         <v>301</v>
       </c>
       <c r="BA34" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BB34" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BC34" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD34" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>E7tcFnrS</t>
+          <t>Sr4IM8HF</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,53 +6734,53 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Alianza Atl.</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K35" t="n">
         <v>2</v>
       </c>
       <c r="L35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N35" t="n">
         <v>7</v>
       </c>
-      <c r="M35" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6.5</v>
-      </c>
       <c r="O35" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P35" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q35" t="n">
         <v>2.5</v>
@@ -6795,25 +6795,25 @@
         <v>2.38</v>
       </c>
       <c r="U35" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V35" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="W35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y35" t="n">
         <v>9.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB35" t="n">
         <v>41</v>
@@ -6825,43 +6825,43 @@
         <v>7</v>
       </c>
       <c r="AE35" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AF35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG35" t="n">
         <v>101</v>
       </c>
-      <c r="AG35" t="n">
-        <v>900</v>
-      </c>
       <c r="AH35" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AJ35" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AK35" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AL35" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AP35" t="n">
         <v>26</v>
       </c>
       <c r="AQ35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR35" t="n">
         <v>67</v>
@@ -6873,40 +6873,40 @@
         <v>2.38</v>
       </c>
       <c r="AU35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV35" t="n">
         <v>81</v>
       </c>
       <c r="AW35" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX35" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AY35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ35" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BA35" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BB35" t="n">
         <v>351</v>
       </c>
       <c r="BC35" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD35" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EXsrs05T</t>
+          <t>65Ly84z2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,179 +6916,179 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.92</v>
+        <v>1.13</v>
       </c>
       <c r="H36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>15</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>12</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>23</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R36" t="n">
         <v>3.4</v>
       </c>
-      <c r="I36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L36" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N36" t="n">
-        <v>9</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S36" t="n">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="T36" t="n">
-        <v>2.63</v>
+        <v>6.5</v>
       </c>
       <c r="U36" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W36" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X36" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD36" t="n">
         <v>17</v>
       </c>
-      <c r="AA36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB36" t="n">
+      <c r="AE36" t="n">
         <v>29</v>
       </c>
-      <c r="AC36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>17</v>
-      </c>
       <c r="AF36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG36" t="n">
         <v>351</v>
       </c>
       <c r="AH36" t="n">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="AI36" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AJ36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AP36" t="n">
         <v>13</v>
       </c>
-      <c r="AK36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO36" t="n">
+      <c r="AQ36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AU36" t="n">
         <v>11</v>
       </c>
-      <c r="AP36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS36" t="n">
+      <c r="AV36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA36" t="n">
         <v>201</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>101</v>
       </c>
       <c r="BB36" t="n">
         <v>251</v>
       </c>
       <c r="BC36" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD36" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>tl3qMzJ5</t>
+          <t>E7tcFnrS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,179 +7098,179 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K37" t="n">
         <v>2</v>
       </c>
-      <c r="H37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L37" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="R37" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T37" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U37" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="V37" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="W37" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="X37" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AA37" t="n">
         <v>17</v>
       </c>
       <c r="AB37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ37" t="n">
         <v>29</v>
       </c>
-      <c r="AC37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO37" t="n">
+      <c r="AR37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU37" t="n">
         <v>11</v>
       </c>
-      <c r="AP37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS37" t="n">
+      <c r="AV37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD37" t="n">
         <v>151</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06qkgE4U</t>
+          <t>CrptJUr3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,179 +7280,179 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Carlos Mannucci</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="J38" t="n">
         <v>2.75</v>
       </c>
       <c r="K38" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N38" t="n">
+        <v>15</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P38" t="n">
         <v>4.33</v>
       </c>
-      <c r="M38" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q38" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V38" t="n">
         <v>2.25</v>
       </c>
-      <c r="R38" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W38" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X38" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
       </c>
       <c r="Z38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA38" t="n">
         <v>17</v>
       </c>
-      <c r="AA38" t="n">
-        <v>19</v>
-      </c>
       <c r="AB38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK38" t="n">
         <v>34</v>
       </c>
-      <c r="AC38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>41</v>
-      </c>
       <c r="AL38" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AM38" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN38" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO38" t="n">
         <v>12</v>
       </c>
       <c r="AP38" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ38" t="n">
         <v>41</v>
       </c>
       <c r="AR38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA38" t="n">
         <v>67</v>
       </c>
-      <c r="AS38" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>101</v>
-      </c>
       <c r="BB38" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BC38" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD38" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bsmYdd55</t>
+          <t>OM3ocmMq</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7462,47 +7462,47 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Sporting Cristal</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>U. de Deportes</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
         <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K39" t="n">
         <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M39" t="n">
         <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O39" t="n">
         <v>1.4</v>
@@ -7511,10 +7511,10 @@
         <v>2.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R39" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S39" t="n">
         <v>1.5</v>
@@ -7529,10 +7529,10 @@
         <v>1.8</v>
       </c>
       <c r="W39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y39" t="n">
         <v>11</v>
@@ -7553,7 +7553,7 @@
         <v>6</v>
       </c>
       <c r="AE39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF39" t="n">
         <v>51</v>
@@ -7565,22 +7565,22 @@
         <v>7.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL39" t="n">
         <v>23</v>
       </c>
       <c r="AM39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO39" t="n">
         <v>17</v>
@@ -7607,13 +7607,13 @@
         <v>67</v>
       </c>
       <c r="AW39" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX39" t="n">
         <v>15</v>
       </c>
       <c r="AY39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ39" t="n">
         <v>51</v>
@@ -7622,19 +7622,19 @@
         <v>81</v>
       </c>
       <c r="BB39" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC39" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD39" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>U1eH0v6t</t>
+          <t>EXsrs05T</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7644,167 +7644,167 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.6</v>
+        <v>1.92</v>
       </c>
       <c r="H40" t="n">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N40" t="n">
+        <v>9</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
         <v>2.2</v>
       </c>
-      <c r="J40" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N40" t="n">
-        <v>6</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.7</v>
-      </c>
       <c r="R40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S40" t="n">
         <v>1.44</v>
       </c>
-      <c r="S40" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T40" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U40" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="V40" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="W40" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X40" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Z40" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AA40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL40" t="n">
         <v>34</v>
       </c>
-      <c r="AB40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF40" t="n">
+      <c r="AM40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ40" t="n">
         <v>81</v>
       </c>
-      <c r="AG40" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>51</v>
-      </c>
       <c r="BA40" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB40" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC40" t="n">
         <v>81</v>
@@ -7816,7 +7816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GIJbDHkn</t>
+          <t>tl3qMzJ5</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7826,110 +7826,110 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J41" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K41" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="R41" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="S41" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T41" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U41" t="n">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="V41" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W41" t="n">
+        <v>7</v>
+      </c>
+      <c r="X41" t="n">
         <v>9</v>
       </c>
-      <c r="X41" t="n">
-        <v>10</v>
-      </c>
       <c r="Y41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z41" t="n">
         <v>17</v>
       </c>
       <c r="AA41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB41" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC41" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AD41" t="n">
         <v>6.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG41" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AH41" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI41" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ41" t="n">
         <v>13</v>
@@ -7938,34 +7938,34 @@
         <v>41</v>
       </c>
       <c r="AL41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN41" t="n">
         <v>4</v>
       </c>
       <c r="AO41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP41" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR41" t="n">
         <v>51</v>
       </c>
       <c r="AS41" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT41" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="AU41" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV41" t="n">
         <v>51</v>
@@ -7974,19 +7974,19 @@
         <v>5.5</v>
       </c>
       <c r="AX41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA41" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB41" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC41" t="n">
         <v>81</v>
@@ -7998,7 +7998,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>vw4ebel5</t>
+          <t>06qkgE4U</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8008,172 +8008,900 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Tampa Bay</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hartford Athletic</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R42" t="n">
         <v>1.62</v>
       </c>
-      <c r="H42" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2.12</v>
-      </c>
       <c r="S42" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T42" t="n">
-        <v>3.05</v>
+        <v>2.5</v>
       </c>
       <c r="U42" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="W42" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X42" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="Y42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z42" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AA42" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AB42" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="AE42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF42" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AG42" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="AH42" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AI42" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="n">
         <v>15</v>
       </c>
       <c r="AK42" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AL42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>bsmYdd55</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>U1eH0v6t</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W44" t="n">
+        <v>8</v>
+      </c>
+      <c r="X44" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>GIJbDHkn</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N45" t="n">
+        <v>13</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W45" t="n">
+        <v>9</v>
+      </c>
+      <c r="X45" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>vw4ebel5</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Tampa Bay</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Hartford Athletic</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W46" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X46" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL46" t="n">
         <v>40</v>
       </c>
-      <c r="AM42" t="n">
+      <c r="AM46" t="n">
         <v>40</v>
       </c>
-      <c r="AN42" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP42" t="n">
+      <c r="AN46" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP46" t="n">
         <v>16</v>
       </c>
-      <c r="AQ42" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR42" t="n">
+      <c r="AQ46" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR46" t="n">
         <v>50</v>
       </c>
-      <c r="AS42" t="n">
+      <c r="AS46" t="n">
         <v>200</v>
       </c>
-      <c r="AT42" t="n">
+      <c r="AT46" t="n">
         <v>3.05</v>
       </c>
-      <c r="AU42" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV42" t="n">
+      <c r="AU46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV46" t="n">
         <v>60</v>
       </c>
-      <c r="AW42" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>25</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ42" t="n">
+      <c r="AW46" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ46" t="n">
         <v>150</v>
       </c>
-      <c r="BA42" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB42" t="n">
+      <c r="BA46" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB46" t="n">
         <v>350</v>
       </c>
-      <c r="BC42" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD42" t="n">
+      <c r="BC46" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD46" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -1675,10 +1675,10 @@
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H30" t="n">
         <v>6.5</v>
@@ -5858,7 +5858,7 @@
         <v>2.75</v>
       </c>
       <c r="L30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
@@ -5867,22 +5867,22 @@
         <v>21</v>
       </c>
       <c r="O30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R30" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U30" t="n">
         <v>1.95</v>
@@ -5891,34 +5891,34 @@
         <v>1.8</v>
       </c>
       <c r="W30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
         <v>7</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
         <v>8</v>
       </c>
       <c r="AA30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB30" t="n">
         <v>23</v>
       </c>
       <c r="AC30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG30" t="n">
         <v>301</v>
@@ -5927,16 +5927,16 @@
         <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM30" t="n">
         <v>51</v>
@@ -5951,7 +5951,7 @@
         <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>34</v>
@@ -5960,10 +5960,10 @@
         <v>101</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV30" t="n">
         <v>51</v>
@@ -5978,7 +5978,7 @@
         <v>41</v>
       </c>
       <c r="AZ30" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA30" t="n">
         <v>151</v>
@@ -6025,19 +6025,19 @@
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K31" t="n">
         <v>2.1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.05</v>
       </c>
       <c r="L31" t="n">
         <v>4.33</v>
@@ -6073,19 +6073,19 @@
         <v>1.91</v>
       </c>
       <c r="W31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
       </c>
       <c r="Z31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB31" t="n">
         <v>29</v>
@@ -6106,13 +6106,13 @@
         <v>301</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
         <v>41</v>
@@ -6127,7 +6127,7 @@
         <v>4</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP31" t="n">
         <v>23</v>
@@ -6136,7 +6136,7 @@
         <v>41</v>
       </c>
       <c r="AR31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS31" t="n">
         <v>151</v>
@@ -6160,7 +6160,7 @@
         <v>29</v>
       </c>
       <c r="AZ31" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA31" t="n">
         <v>101</v>
@@ -7481,13 +7481,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I39" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="J39" t="n">
         <v>3.6</v>
@@ -7535,7 +7535,7 @@
         <v>13</v>
       </c>
       <c r="Y39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z39" t="n">
         <v>29</v>
@@ -7547,10 +7547,10 @@
         <v>41</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD39" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE39" t="n">
         <v>15</v>
@@ -7565,13 +7565,13 @@
         <v>7.5</v>
       </c>
       <c r="AI39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>11</v>
       </c>
-      <c r="AJ39" t="n">
-        <v>10</v>
-      </c>
       <c r="AK39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL39" t="n">
         <v>23</v>
@@ -7607,7 +7607,7 @@
         <v>67</v>
       </c>
       <c r="AW39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX39" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD46"/>
+  <dimension ref="A1:BD47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1708,7 +1708,7 @@
         <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
@@ -1738,7 +1738,7 @@
         <v>1250</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI7" t="n">
         <v>10</v>
@@ -1798,7 +1798,7 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H30" t="n">
         <v>6.5</v>
@@ -5867,10 +5867,10 @@
         <v>21</v>
       </c>
       <c r="O30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q30" t="n">
         <v>1.44</v>
@@ -5879,28 +5879,28 @@
         <v>2.7</v>
       </c>
       <c r="S30" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V30" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA30" t="n">
         <v>10</v>
@@ -5921,7 +5921,7 @@
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH30" t="n">
         <v>23</v>
@@ -5960,7 +5960,7 @@
         <v>101</v>
       </c>
       <c r="AT30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU30" t="n">
         <v>9</v>
@@ -6025,19 +6025,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L31" t="n">
         <v>4.33</v>
@@ -6067,10 +6067,10 @@
         <v>2.63</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V31" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W31" t="n">
         <v>6.5</v>
@@ -6091,7 +6091,7 @@
         <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD31" t="n">
         <v>6</v>
@@ -6103,16 +6103,16 @@
         <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
         <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>41</v>
@@ -6136,10 +6136,10 @@
         <v>41</v>
       </c>
       <c r="AR31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS31" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT31" t="n">
         <v>2.63</v>
@@ -6160,7 +6160,7 @@
         <v>29</v>
       </c>
       <c r="AZ31" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA31" t="n">
         <v>101</v>
@@ -7299,22 +7299,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H38" t="n">
         <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J38" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K38" t="n">
         <v>2.3</v>
       </c>
       <c r="L38" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
@@ -7329,16 +7329,16 @@
         <v>4.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R38" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U38" t="n">
         <v>1.57</v>
@@ -7350,10 +7350,10 @@
         <v>10</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z38" t="n">
         <v>21</v>
@@ -7362,22 +7362,22 @@
         <v>17</v>
       </c>
       <c r="AB38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC38" t="n">
         <v>15</v>
       </c>
       <c r="AD38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF38" t="n">
         <v>41</v>
       </c>
       <c r="AG38" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH38" t="n">
         <v>12</v>
@@ -7389,7 +7389,7 @@
         <v>11</v>
       </c>
       <c r="AK38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL38" t="n">
         <v>21</v>
@@ -7416,10 +7416,10 @@
         <v>101</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV38" t="n">
         <v>41</v>
@@ -7437,7 +7437,7 @@
         <v>51</v>
       </c>
       <c r="BA38" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB38" t="n">
         <v>126</v>
@@ -7481,13 +7481,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
         <v>2.8</v>
       </c>
       <c r="I39" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J39" t="n">
         <v>3.6</v>
@@ -7496,7 +7496,7 @@
         <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M39" t="n">
         <v>1.08</v>
@@ -7535,7 +7535,7 @@
         <v>13</v>
       </c>
       <c r="Y39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="n">
         <v>29</v>
@@ -7577,7 +7577,7 @@
         <v>23</v>
       </c>
       <c r="AM39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="n">
         <v>4.75</v>
@@ -7613,7 +7613,7 @@
         <v>15</v>
       </c>
       <c r="AY39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ39" t="n">
         <v>51</v>
@@ -7622,7 +7622,7 @@
         <v>81</v>
       </c>
       <c r="BB39" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC39" t="n">
         <v>126</v>
@@ -8726,182 +8726,364 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>jJhlHOOk</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N46" t="n">
+        <v>17</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>15</v>
+      </c>
+      <c r="X46" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>vw4ebel5</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>23/10/2024</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Tampa Bay</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Hartford Athletic</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G47" t="n">
         <v>1.6</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H47" t="n">
         <v>3.9</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I47" t="n">
         <v>4.65</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J47" t="n">
         <v>2.12</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K47" t="n">
         <v>2.32</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L47" t="n">
         <v>4.8</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M47" t="n">
         <v>1.04</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N47" t="n">
         <v>8.5</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O47" t="n">
         <v>1.22</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P47" t="n">
         <v>3.85</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q47" t="n">
         <v>1.7</v>
       </c>
-      <c r="R46" t="n">
+      <c r="R47" t="n">
         <v>2.12</v>
       </c>
-      <c r="S46" t="n">
+      <c r="S47" t="n">
         <v>1.33</v>
       </c>
-      <c r="T46" t="n">
+      <c r="T47" t="n">
         <v>3.05</v>
       </c>
-      <c r="U46" t="n">
+      <c r="U47" t="n">
         <v>1.72</v>
       </c>
-      <c r="V46" t="n">
+      <c r="V47" t="n">
         <v>2.02</v>
       </c>
-      <c r="W46" t="n">
+      <c r="W47" t="n">
         <v>7.9</v>
       </c>
-      <c r="X46" t="n">
+      <c r="X47" t="n">
         <v>8.25</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="Y47" t="n">
         <v>8</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="Z47" t="n">
         <v>12</v>
       </c>
-      <c r="AA46" t="n">
+      <c r="AA47" t="n">
         <v>12</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AB47" t="n">
         <v>23</v>
       </c>
-      <c r="AC46" t="n">
+      <c r="AC47" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD46" t="n">
+      <c r="AD47" t="n">
         <v>7.9</v>
       </c>
-      <c r="AE46" t="n">
+      <c r="AE47" t="n">
         <v>15</v>
       </c>
-      <c r="AF46" t="n">
+      <c r="AF47" t="n">
         <v>60</v>
       </c>
-      <c r="AG46" t="n">
+      <c r="AG47" t="n">
         <v>400</v>
       </c>
-      <c r="AH46" t="n">
+      <c r="AH47" t="n">
         <v>15.5</v>
       </c>
-      <c r="AI46" t="n">
+      <c r="AI47" t="n">
         <v>29</v>
       </c>
-      <c r="AJ46" t="n">
+      <c r="AJ47" t="n">
         <v>15.5</v>
       </c>
-      <c r="AK46" t="n">
+      <c r="AK47" t="n">
         <v>80</v>
       </c>
-      <c r="AL46" t="n">
+      <c r="AL47" t="n">
         <v>40</v>
       </c>
-      <c r="AM46" t="n">
+      <c r="AM47" t="n">
         <v>40</v>
       </c>
-      <c r="AN46" t="n">
+      <c r="AN47" t="n">
         <v>3.55</v>
       </c>
-      <c r="AO46" t="n">
+      <c r="AO47" t="n">
         <v>7.7</v>
       </c>
-      <c r="AP46" t="n">
+      <c r="AP47" t="n">
         <v>16</v>
       </c>
-      <c r="AQ46" t="n">
+      <c r="AQ47" t="n">
         <v>24</v>
       </c>
-      <c r="AR46" t="n">
+      <c r="AR47" t="n">
         <v>50</v>
       </c>
-      <c r="AS46" t="n">
+      <c r="AS47" t="n">
         <v>200</v>
       </c>
-      <c r="AT46" t="n">
+      <c r="AT47" t="n">
         <v>3.05</v>
       </c>
-      <c r="AU46" t="n">
+      <c r="AU47" t="n">
         <v>7.4</v>
       </c>
-      <c r="AV46" t="n">
+      <c r="AV47" t="n">
         <v>60</v>
       </c>
-      <c r="AW46" t="n">
+      <c r="AW47" t="n">
         <v>6.6</v>
       </c>
-      <c r="AX46" t="n">
+      <c r="AX47" t="n">
         <v>26</v>
       </c>
-      <c r="AY46" t="n">
+      <c r="AY47" t="n">
         <v>29</v>
       </c>
-      <c r="AZ46" t="n">
+      <c r="AZ47" t="n">
         <v>150</v>
       </c>
-      <c r="BA46" t="n">
+      <c r="BA47" t="n">
         <v>175</v>
       </c>
-      <c r="BB46" t="n">
+      <c r="BB47" t="n">
         <v>350</v>
       </c>
-      <c r="BC46" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD46" t="n">
+      <c r="BC47" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD47" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H30" t="n">
         <v>6.5</v>
@@ -5879,28 +5879,28 @@
         <v>2.7</v>
       </c>
       <c r="S30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U30" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA30" t="n">
         <v>10</v>
@@ -5921,7 +5921,7 @@
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH30" t="n">
         <v>23</v>
@@ -5960,7 +5960,7 @@
         <v>101</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU30" t="n">
         <v>9</v>
@@ -6049,16 +6049,16 @@
         <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
         <v>1.44</v>
@@ -7302,10 +7302,10 @@
         <v>2.25</v>
       </c>
       <c r="H38" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I38" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J38" t="n">
         <v>2.88</v>
@@ -7314,7 +7314,7 @@
         <v>2.3</v>
       </c>
       <c r="L38" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
@@ -7335,16 +7335,16 @@
         <v>2.15</v>
       </c>
       <c r="S38" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T38" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U38" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V38" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W38" t="n">
         <v>10</v>
@@ -7356,13 +7356,13 @@
         <v>9.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA38" t="n">
         <v>17</v>
       </c>
       <c r="AB38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC38" t="n">
         <v>15</v>
@@ -7371,22 +7371,22 @@
         <v>7.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF38" t="n">
         <v>41</v>
       </c>
       <c r="AG38" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK38" t="n">
         <v>29</v>
@@ -7413,10 +7413,10 @@
         <v>51</v>
       </c>
       <c r="AS38" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU38" t="n">
         <v>7</v>
@@ -7434,7 +7434,7 @@
         <v>21</v>
       </c>
       <c r="AZ38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA38" t="n">
         <v>51</v>
@@ -7481,13 +7481,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I39" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="J39" t="n">
         <v>3.6</v>
@@ -7496,25 +7496,25 @@
         <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M39" t="n">
         <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S39" t="n">
         <v>1.5</v>
@@ -7523,13 +7523,13 @@
         <v>2.5</v>
       </c>
       <c r="U39" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V39" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X39" t="n">
         <v>13</v>
@@ -7547,10 +7547,10 @@
         <v>41</v>
       </c>
       <c r="AC39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE39" t="n">
         <v>15</v>
@@ -7559,7 +7559,7 @@
         <v>51</v>
       </c>
       <c r="AG39" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH39" t="n">
         <v>7.5</v>
@@ -7568,16 +7568,16 @@
         <v>12</v>
       </c>
       <c r="AJ39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN39" t="n">
         <v>4.75</v>
@@ -7595,7 +7595,7 @@
         <v>81</v>
       </c>
       <c r="AS39" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT39" t="n">
         <v>2.5</v>
@@ -7613,7 +7613,7 @@
         <v>15</v>
       </c>
       <c r="AY39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ39" t="n">
         <v>51</v>
@@ -7622,7 +7622,7 @@
         <v>81</v>
       </c>
       <c r="BB39" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC39" t="n">
         <v>126</v>
@@ -8755,31 +8755,31 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I46" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J46" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
         <v>2.4</v>
       </c>
       <c r="L46" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M46" t="n">
         <v>1.02</v>
       </c>
       <c r="N46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O46" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -8791,34 +8791,34 @@
         <v>2.4</v>
       </c>
       <c r="S46" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T46" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U46" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V46" t="n">
         <v>2.5</v>
       </c>
       <c r="W46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA46" t="n">
         <v>23</v>
       </c>
       <c r="AB46" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC46" t="n">
         <v>19</v>
@@ -8848,13 +8848,13 @@
         <v>19</v>
       </c>
       <c r="AL46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO46" t="n">
         <v>17</v>
@@ -8872,7 +8872,7 @@
         <v>101</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU46" t="n">
         <v>7</v>
@@ -8881,7 +8881,7 @@
         <v>41</v>
       </c>
       <c r="AW46" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX46" t="n">
         <v>10</v>
@@ -8890,7 +8890,7 @@
         <v>17</v>
       </c>
       <c r="AZ46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA46" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -7502,7 +7502,7 @@
         <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O39" t="n">
         <v>1.36</v>
@@ -8758,19 +8758,19 @@
         <v>3.25</v>
       </c>
       <c r="H46" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K46" t="n">
         <v>2.4</v>
       </c>
       <c r="L46" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M46" t="n">
         <v>1.02</v>
@@ -8779,16 +8779,16 @@
         <v>19</v>
       </c>
       <c r="O46" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R46" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S46" t="n">
         <v>1.29</v>
@@ -8803,7 +8803,7 @@
         <v>2.5</v>
       </c>
       <c r="W46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X46" t="n">
         <v>19</v>
@@ -8851,7 +8851,7 @@
         <v>15</v>
       </c>
       <c r="AM46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN46" t="n">
         <v>5.5</v>
@@ -8881,7 +8881,7 @@
         <v>41</v>
       </c>
       <c r="AW46" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX46" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-23.xlsx
@@ -8755,40 +8755,40 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J46" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
         <v>2.4</v>
       </c>
       <c r="L46" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M46" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O46" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P46" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R46" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S46" t="n">
         <v>1.29</v>
@@ -8815,7 +8815,7 @@
         <v>34</v>
       </c>
       <c r="AA46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB46" t="n">
         <v>23</v>
@@ -8851,7 +8851,7 @@
         <v>15</v>
       </c>
       <c r="AM46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN46" t="n">
         <v>5.5</v>
@@ -8881,7 +8881,7 @@
         <v>41</v>
       </c>
       <c r="AW46" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX46" t="n">
         <v>10</v>
